--- a/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10101P_Customer_Search_Response_Message_(JSON).xlsx
+++ b/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10101P_Customer_Search_Response_Message_(JSON).xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C017DB77-AD19-43E7-8A98-78E5D1333A3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3526FF9-0C24-48F4-831B-64C5E8FD366C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2490" windowWidth="22290" windowHeight="8475" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="58" state="hidden" r:id="rId2"/>
-    <sheet name="目次" sheetId="62" r:id="rId3"/>
-    <sheet name="1. 外部インタフェース仕様" sheetId="51" r:id="rId4"/>
-    <sheet name="2. レコード構成" sheetId="52" r:id="rId5"/>
-    <sheet name="顧客一覧" sheetId="61" r:id="rId6"/>
+    <sheet name="Contents" sheetId="62" r:id="rId3"/>
+    <sheet name="1. External interface" sheetId="51" r:id="rId4"/>
+    <sheet name="2. Record structure" sheetId="52" r:id="rId5"/>
+    <sheet name="Client list" sheetId="61" r:id="rId6"/>
     <sheet name="データ" sheetId="54" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 外部インタフェース仕様'!$A$1:$AI$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. レコード構成'!$A$1:$AI$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">顧客一覧!$A$1:$AL$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. External interface'!$A$1:$AI$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. Record structure'!$A$1:$AI$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Client list'!$A$1:$AL$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. 外部インタフェース仕様'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. レコード構成'!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">顧客一覧!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. External interface'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. Record structure'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'Client list'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
     <definedName name="データ型">データ!$A$2:$A$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
   <si>
     <t>PJ名</t>
   </si>
@@ -673,9 +675,6 @@
     </r>
   </si>
   <si>
-    <t>Contents</t>
-  </si>
-  <si>
     <t>3. Data layout</t>
   </si>
   <si>
@@ -707,6 +706,22 @@
   </si>
   <si>
     <t>Required</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>1. External interface specifications</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>2. Record structure</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>3.1. Client list</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -2167,6 +2182,135 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2206,134 +2350,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2353,77 +2440,128 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2434,128 +2572,227 @@
     <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2584,15 +2821,6 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2605,220 +2833,16 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2830,14 +2854,35 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2848,12 +2893,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2868,30 +2907,6 @@
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3042,8 +3057,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7715250" y="390525"/>
-          <a:ext cx="1609725" cy="581025"/>
+          <a:off x="7762875" y="390525"/>
+          <a:ext cx="1619250" cy="581025"/>
           <a:chOff x="809" y="41"/>
           <a:chExt cx="143" cy="61"/>
         </a:xfrm>
@@ -6762,155 +6777,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="255" t="s">
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="243" t="s">
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="286" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="287" t="s">
+      <c r="P1" s="287"/>
+      <c r="Q1" s="287"/>
+      <c r="R1" s="288"/>
+      <c r="S1" s="252" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="288"/>
-      <c r="U1" s="288"/>
-      <c r="V1" s="288"/>
-      <c r="W1" s="288"/>
-      <c r="X1" s="288"/>
-      <c r="Y1" s="288"/>
-      <c r="Z1" s="289"/>
-      <c r="AA1" s="240" t="s">
+      <c r="T1" s="253"/>
+      <c r="U1" s="253"/>
+      <c r="V1" s="253"/>
+      <c r="W1" s="253"/>
+      <c r="X1" s="253"/>
+      <c r="Y1" s="253"/>
+      <c r="Z1" s="254"/>
+      <c r="AA1" s="283" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="242"/>
-      <c r="AC1" s="278" t="str">
+      <c r="AB1" s="285"/>
+      <c r="AC1" s="240" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="279"/>
-      <c r="AE1" s="279"/>
-      <c r="AF1" s="280"/>
-      <c r="AG1" s="281">
+      <c r="AD1" s="241"/>
+      <c r="AE1" s="241"/>
+      <c r="AF1" s="242"/>
+      <c r="AG1" s="243">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="282"/>
-      <c r="AI1" s="283"/>
+      <c r="AH1" s="244"/>
+      <c r="AI1" s="245"/>
       <c r="AK1" s="25"/>
       <c r="AL1" s="25"/>
       <c r="AM1" s="25"/>
       <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="283" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="242"/>
-      <c r="E2" s="255" t="s">
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253"/>
-      <c r="J2" s="253"/>
-      <c r="K2" s="253"/>
-      <c r="L2" s="253"/>
-      <c r="M2" s="253"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="247"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="290"/>
-      <c r="T2" s="291"/>
-      <c r="U2" s="291"/>
-      <c r="V2" s="291"/>
-      <c r="W2" s="291"/>
-      <c r="X2" s="291"/>
-      <c r="Y2" s="291"/>
-      <c r="Z2" s="292"/>
-      <c r="AA2" s="240" t="s">
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="289"/>
+      <c r="P2" s="290"/>
+      <c r="Q2" s="290"/>
+      <c r="R2" s="291"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="256"/>
+      <c r="U2" s="256"/>
+      <c r="V2" s="256"/>
+      <c r="W2" s="256"/>
+      <c r="X2" s="256"/>
+      <c r="Y2" s="256"/>
+      <c r="Z2" s="257"/>
+      <c r="AA2" s="283" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="242"/>
-      <c r="AC2" s="284" t="str">
+      <c r="AB2" s="285"/>
+      <c r="AC2" s="249" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="285"/>
-      <c r="AE2" s="285"/>
-      <c r="AF2" s="286"/>
-      <c r="AG2" s="281" t="str">
+      <c r="AD2" s="250"/>
+      <c r="AE2" s="250"/>
+      <c r="AF2" s="251"/>
+      <c r="AG2" s="243" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="282"/>
-      <c r="AI2" s="283"/>
+      <c r="AH2" s="244"/>
+      <c r="AI2" s="245"/>
       <c r="AK2" s="25"/>
       <c r="AL2" s="25"/>
       <c r="AM2" s="25"/>
       <c r="AN2" s="25"/>
     </row>
     <row r="3" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="283" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="241"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="252" t="s">
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="295" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253"/>
-      <c r="L3" s="253"/>
-      <c r="M3" s="253"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="293"/>
-      <c r="T3" s="294"/>
-      <c r="U3" s="294"/>
-      <c r="V3" s="294"/>
-      <c r="W3" s="294"/>
-      <c r="X3" s="294"/>
-      <c r="Y3" s="294"/>
-      <c r="Z3" s="295"/>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="242"/>
-      <c r="AC3" s="278"/>
-      <c r="AD3" s="279"/>
-      <c r="AE3" s="279"/>
-      <c r="AF3" s="280"/>
-      <c r="AG3" s="281"/>
-      <c r="AH3" s="282"/>
-      <c r="AI3" s="283"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="292"/>
+      <c r="P3" s="293"/>
+      <c r="Q3" s="293"/>
+      <c r="R3" s="294"/>
+      <c r="S3" s="258"/>
+      <c r="T3" s="259"/>
+      <c r="U3" s="259"/>
+      <c r="V3" s="259"/>
+      <c r="W3" s="259"/>
+      <c r="X3" s="259"/>
+      <c r="Y3" s="259"/>
+      <c r="Z3" s="260"/>
+      <c r="AA3" s="283"/>
+      <c r="AB3" s="285"/>
+      <c r="AC3" s="240"/>
+      <c r="AD3" s="241"/>
+      <c r="AE3" s="241"/>
+      <c r="AF3" s="242"/>
+      <c r="AG3" s="243"/>
+      <c r="AH3" s="244"/>
+      <c r="AI3" s="245"/>
       <c r="AK3" s="25"/>
       <c r="AL3" s="25"/>
       <c r="AM3" s="25"/>
@@ -6957,98 +6972,98 @@
       <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="265" t="s">
+      <c r="B7" s="261" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="267"/>
-      <c r="D7" s="265" t="s">
+      <c r="C7" s="263"/>
+      <c r="D7" s="261" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="266"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="265" t="s">
+      <c r="E7" s="262"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="266"/>
-      <c r="I7" s="267"/>
-      <c r="J7" s="277" t="s">
+      <c r="H7" s="262"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="282" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="266"/>
-      <c r="L7" s="266"/>
-      <c r="M7" s="266"/>
-      <c r="N7" s="266"/>
-      <c r="O7" s="266"/>
-      <c r="P7" s="267"/>
-      <c r="Q7" s="265" t="s">
+      <c r="K7" s="262"/>
+      <c r="L7" s="262"/>
+      <c r="M7" s="262"/>
+      <c r="N7" s="262"/>
+      <c r="O7" s="262"/>
+      <c r="P7" s="263"/>
+      <c r="Q7" s="261" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="266"/>
-      <c r="S7" s="266"/>
-      <c r="T7" s="266"/>
-      <c r="U7" s="266"/>
-      <c r="V7" s="266"/>
-      <c r="W7" s="266"/>
-      <c r="X7" s="266"/>
-      <c r="Y7" s="266"/>
-      <c r="Z7" s="266"/>
-      <c r="AA7" s="266"/>
-      <c r="AB7" s="266"/>
-      <c r="AC7" s="266"/>
-      <c r="AD7" s="266"/>
-      <c r="AE7" s="267"/>
-      <c r="AF7" s="265" t="s">
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="262"/>
+      <c r="U7" s="262"/>
+      <c r="V7" s="262"/>
+      <c r="W7" s="262"/>
+      <c r="X7" s="262"/>
+      <c r="Y7" s="262"/>
+      <c r="Z7" s="262"/>
+      <c r="AA7" s="262"/>
+      <c r="AB7" s="262"/>
+      <c r="AC7" s="262"/>
+      <c r="AD7" s="262"/>
+      <c r="AE7" s="263"/>
+      <c r="AF7" s="261" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="266"/>
-      <c r="AH7" s="266"/>
-      <c r="AI7" s="267"/>
+      <c r="AG7" s="262"/>
+      <c r="AH7" s="262"/>
+      <c r="AI7" s="263"/>
       <c r="AJ7" s="18"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="57">
         <v>1</v>
       </c>
-      <c r="B8" s="268" t="s">
+      <c r="B8" s="273" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="269"/>
-      <c r="D8" s="270">
+      <c r="C8" s="274"/>
+      <c r="D8" s="275">
         <v>43718</v>
       </c>
-      <c r="E8" s="271"/>
-      <c r="F8" s="272"/>
-      <c r="G8" s="268" t="s">
+      <c r="E8" s="276"/>
+      <c r="F8" s="277"/>
+      <c r="G8" s="273" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="273"/>
-      <c r="I8" s="269"/>
-      <c r="J8" s="274" t="s">
+      <c r="H8" s="278"/>
+      <c r="I8" s="274"/>
+      <c r="J8" s="279" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="275"/>
-      <c r="L8" s="275"/>
-      <c r="M8" s="275"/>
-      <c r="N8" s="275"/>
-      <c r="O8" s="275"/>
-      <c r="P8" s="276"/>
-      <c r="Q8" s="274" t="s">
+      <c r="K8" s="280"/>
+      <c r="L8" s="280"/>
+      <c r="M8" s="280"/>
+      <c r="N8" s="280"/>
+      <c r="O8" s="280"/>
+      <c r="P8" s="281"/>
+      <c r="Q8" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="275"/>
-      <c r="S8" s="275"/>
-      <c r="T8" s="275"/>
-      <c r="U8" s="275"/>
-      <c r="V8" s="275"/>
-      <c r="W8" s="275"/>
-      <c r="X8" s="275"/>
-      <c r="Y8" s="275"/>
-      <c r="Z8" s="275"/>
-      <c r="AA8" s="275"/>
-      <c r="AB8" s="275"/>
-      <c r="AC8" s="275"/>
-      <c r="AD8" s="275"/>
-      <c r="AE8" s="276"/>
+      <c r="R8" s="280"/>
+      <c r="S8" s="280"/>
+      <c r="T8" s="280"/>
+      <c r="U8" s="280"/>
+      <c r="V8" s="280"/>
+      <c r="W8" s="280"/>
+      <c r="X8" s="280"/>
+      <c r="Y8" s="280"/>
+      <c r="Z8" s="280"/>
+      <c r="AA8" s="280"/>
+      <c r="AB8" s="280"/>
+      <c r="AC8" s="280"/>
+      <c r="AD8" s="280"/>
+      <c r="AE8" s="281"/>
       <c r="AF8" s="49" t="s">
         <v>47</v>
       </c>
@@ -7059,36 +7074,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="58"/>
-      <c r="B9" s="256"/>
-      <c r="C9" s="257"/>
-      <c r="D9" s="258"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="256"/>
-      <c r="H9" s="261"/>
-      <c r="I9" s="257"/>
-      <c r="J9" s="262"/>
-      <c r="K9" s="263"/>
-      <c r="L9" s="263"/>
-      <c r="M9" s="263"/>
-      <c r="N9" s="263"/>
-      <c r="O9" s="263"/>
-      <c r="P9" s="264"/>
-      <c r="Q9" s="262"/>
-      <c r="R9" s="263"/>
-      <c r="S9" s="263"/>
-      <c r="T9" s="263"/>
-      <c r="U9" s="263"/>
-      <c r="V9" s="263"/>
-      <c r="W9" s="263"/>
-      <c r="X9" s="263"/>
-      <c r="Y9" s="263"/>
-      <c r="Z9" s="263"/>
-      <c r="AA9" s="263"/>
-      <c r="AB9" s="263"/>
-      <c r="AC9" s="263"/>
-      <c r="AD9" s="263"/>
-      <c r="AE9" s="264"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="265"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="268"/>
+      <c r="G9" s="264"/>
+      <c r="H9" s="269"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="270"/>
+      <c r="K9" s="271"/>
+      <c r="L9" s="271"/>
+      <c r="M9" s="271"/>
+      <c r="N9" s="271"/>
+      <c r="O9" s="271"/>
+      <c r="P9" s="272"/>
+      <c r="Q9" s="270"/>
+      <c r="R9" s="271"/>
+      <c r="S9" s="271"/>
+      <c r="T9" s="271"/>
+      <c r="U9" s="271"/>
+      <c r="V9" s="271"/>
+      <c r="W9" s="271"/>
+      <c r="X9" s="271"/>
+      <c r="Y9" s="271"/>
+      <c r="Z9" s="271"/>
+      <c r="AA9" s="271"/>
+      <c r="AB9" s="271"/>
+      <c r="AC9" s="271"/>
+      <c r="AD9" s="271"/>
+      <c r="AE9" s="272"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="47"/>
       <c r="AH9" s="47"/>
@@ -7097,36 +7112,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="58"/>
-      <c r="B10" s="256"/>
-      <c r="C10" s="257"/>
-      <c r="D10" s="258"/>
-      <c r="E10" s="259"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="256"/>
-      <c r="H10" s="261"/>
-      <c r="I10" s="257"/>
-      <c r="J10" s="262"/>
-      <c r="K10" s="263"/>
-      <c r="L10" s="263"/>
-      <c r="M10" s="263"/>
-      <c r="N10" s="263"/>
-      <c r="O10" s="263"/>
-      <c r="P10" s="264"/>
-      <c r="Q10" s="262"/>
-      <c r="R10" s="263"/>
-      <c r="S10" s="263"/>
-      <c r="T10" s="263"/>
-      <c r="U10" s="263"/>
-      <c r="V10" s="263"/>
-      <c r="W10" s="263"/>
-      <c r="X10" s="263"/>
-      <c r="Y10" s="263"/>
-      <c r="Z10" s="263"/>
-      <c r="AA10" s="263"/>
-      <c r="AB10" s="263"/>
-      <c r="AC10" s="263"/>
-      <c r="AD10" s="263"/>
-      <c r="AE10" s="264"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="268"/>
+      <c r="G10" s="264"/>
+      <c r="H10" s="269"/>
+      <c r="I10" s="265"/>
+      <c r="J10" s="270"/>
+      <c r="K10" s="271"/>
+      <c r="L10" s="271"/>
+      <c r="M10" s="271"/>
+      <c r="N10" s="271"/>
+      <c r="O10" s="271"/>
+      <c r="P10" s="272"/>
+      <c r="Q10" s="270"/>
+      <c r="R10" s="271"/>
+      <c r="S10" s="271"/>
+      <c r="T10" s="271"/>
+      <c r="U10" s="271"/>
+      <c r="V10" s="271"/>
+      <c r="W10" s="271"/>
+      <c r="X10" s="271"/>
+      <c r="Y10" s="271"/>
+      <c r="Z10" s="271"/>
+      <c r="AA10" s="271"/>
+      <c r="AB10" s="271"/>
+      <c r="AC10" s="271"/>
+      <c r="AD10" s="271"/>
+      <c r="AE10" s="272"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="47"/>
       <c r="AH10" s="47"/>
@@ -7134,36 +7149,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="58"/>
-      <c r="B11" s="256"/>
-      <c r="C11" s="257"/>
-      <c r="D11" s="258"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="261"/>
-      <c r="I11" s="257"/>
-      <c r="J11" s="262"/>
-      <c r="K11" s="263"/>
-      <c r="L11" s="263"/>
-      <c r="M11" s="263"/>
-      <c r="N11" s="263"/>
-      <c r="O11" s="263"/>
-      <c r="P11" s="264"/>
-      <c r="Q11" s="262"/>
-      <c r="R11" s="263"/>
-      <c r="S11" s="263"/>
-      <c r="T11" s="263"/>
-      <c r="U11" s="263"/>
-      <c r="V11" s="263"/>
-      <c r="W11" s="263"/>
-      <c r="X11" s="263"/>
-      <c r="Y11" s="263"/>
-      <c r="Z11" s="263"/>
-      <c r="AA11" s="263"/>
-      <c r="AB11" s="263"/>
-      <c r="AC11" s="263"/>
-      <c r="AD11" s="263"/>
-      <c r="AE11" s="264"/>
+      <c r="B11" s="264"/>
+      <c r="C11" s="265"/>
+      <c r="D11" s="266"/>
+      <c r="E11" s="267"/>
+      <c r="F11" s="268"/>
+      <c r="G11" s="264"/>
+      <c r="H11" s="269"/>
+      <c r="I11" s="265"/>
+      <c r="J11" s="270"/>
+      <c r="K11" s="271"/>
+      <c r="L11" s="271"/>
+      <c r="M11" s="271"/>
+      <c r="N11" s="271"/>
+      <c r="O11" s="271"/>
+      <c r="P11" s="272"/>
+      <c r="Q11" s="270"/>
+      <c r="R11" s="271"/>
+      <c r="S11" s="271"/>
+      <c r="T11" s="271"/>
+      <c r="U11" s="271"/>
+      <c r="V11" s="271"/>
+      <c r="W11" s="271"/>
+      <c r="X11" s="271"/>
+      <c r="Y11" s="271"/>
+      <c r="Z11" s="271"/>
+      <c r="AA11" s="271"/>
+      <c r="AB11" s="271"/>
+      <c r="AC11" s="271"/>
+      <c r="AD11" s="271"/>
+      <c r="AE11" s="272"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="47"/>
       <c r="AH11" s="47"/>
@@ -7171,36 +7186,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="58"/>
-      <c r="B12" s="256"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="258"/>
-      <c r="E12" s="259"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="256"/>
-      <c r="H12" s="261"/>
-      <c r="I12" s="257"/>
-      <c r="J12" s="262"/>
-      <c r="K12" s="263"/>
-      <c r="L12" s="263"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
-      <c r="P12" s="264"/>
-      <c r="Q12" s="262"/>
-      <c r="R12" s="263"/>
-      <c r="S12" s="263"/>
-      <c r="T12" s="263"/>
-      <c r="U12" s="263"/>
-      <c r="V12" s="263"/>
-      <c r="W12" s="263"/>
-      <c r="X12" s="263"/>
-      <c r="Y12" s="263"/>
-      <c r="Z12" s="263"/>
-      <c r="AA12" s="263"/>
-      <c r="AB12" s="263"/>
-      <c r="AC12" s="263"/>
-      <c r="AD12" s="263"/>
-      <c r="AE12" s="264"/>
+      <c r="B12" s="264"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="267"/>
+      <c r="F12" s="268"/>
+      <c r="G12" s="264"/>
+      <c r="H12" s="269"/>
+      <c r="I12" s="265"/>
+      <c r="J12" s="270"/>
+      <c r="K12" s="271"/>
+      <c r="L12" s="271"/>
+      <c r="M12" s="271"/>
+      <c r="N12" s="271"/>
+      <c r="O12" s="271"/>
+      <c r="P12" s="272"/>
+      <c r="Q12" s="270"/>
+      <c r="R12" s="271"/>
+      <c r="S12" s="271"/>
+      <c r="T12" s="271"/>
+      <c r="U12" s="271"/>
+      <c r="V12" s="271"/>
+      <c r="W12" s="271"/>
+      <c r="X12" s="271"/>
+      <c r="Y12" s="271"/>
+      <c r="Z12" s="271"/>
+      <c r="AA12" s="271"/>
+      <c r="AB12" s="271"/>
+      <c r="AC12" s="271"/>
+      <c r="AD12" s="271"/>
+      <c r="AE12" s="272"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="47"/>
       <c r="AH12" s="47"/>
@@ -7208,36 +7223,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="58"/>
-      <c r="B13" s="256"/>
-      <c r="C13" s="257"/>
-      <c r="D13" s="258"/>
-      <c r="E13" s="259"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="261"/>
-      <c r="I13" s="257"/>
-      <c r="J13" s="262"/>
-      <c r="K13" s="263"/>
-      <c r="L13" s="263"/>
-      <c r="M13" s="263"/>
-      <c r="N13" s="263"/>
-      <c r="O13" s="263"/>
-      <c r="P13" s="264"/>
-      <c r="Q13" s="262"/>
-      <c r="R13" s="263"/>
-      <c r="S13" s="263"/>
-      <c r="T13" s="263"/>
-      <c r="U13" s="263"/>
-      <c r="V13" s="263"/>
-      <c r="W13" s="263"/>
-      <c r="X13" s="263"/>
-      <c r="Y13" s="263"/>
-      <c r="Z13" s="263"/>
-      <c r="AA13" s="263"/>
-      <c r="AB13" s="263"/>
-      <c r="AC13" s="263"/>
-      <c r="AD13" s="263"/>
-      <c r="AE13" s="264"/>
+      <c r="B13" s="264"/>
+      <c r="C13" s="265"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="267"/>
+      <c r="F13" s="268"/>
+      <c r="G13" s="264"/>
+      <c r="H13" s="269"/>
+      <c r="I13" s="265"/>
+      <c r="J13" s="270"/>
+      <c r="K13" s="271"/>
+      <c r="L13" s="271"/>
+      <c r="M13" s="271"/>
+      <c r="N13" s="271"/>
+      <c r="O13" s="271"/>
+      <c r="P13" s="272"/>
+      <c r="Q13" s="270"/>
+      <c r="R13" s="271"/>
+      <c r="S13" s="271"/>
+      <c r="T13" s="271"/>
+      <c r="U13" s="271"/>
+      <c r="V13" s="271"/>
+      <c r="W13" s="271"/>
+      <c r="X13" s="271"/>
+      <c r="Y13" s="271"/>
+      <c r="Z13" s="271"/>
+      <c r="AA13" s="271"/>
+      <c r="AB13" s="271"/>
+      <c r="AC13" s="271"/>
+      <c r="AD13" s="271"/>
+      <c r="AE13" s="272"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="47"/>
       <c r="AH13" s="47"/>
@@ -7985,14 +8000,35 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -8009,35 +8045,14 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8193,162 +8208,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="314" t="str">
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="308" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
-      <c r="N1" s="316"/>
-      <c r="O1" s="317" t="s">
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
+      <c r="M1" s="309"/>
+      <c r="N1" s="310"/>
+      <c r="O1" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="318"/>
-      <c r="Q1" s="318"/>
-      <c r="R1" s="319"/>
-      <c r="S1" s="304" t="str">
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="296" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="305"/>
-      <c r="U1" s="305"/>
-      <c r="V1" s="305"/>
-      <c r="W1" s="305"/>
-      <c r="X1" s="305"/>
-      <c r="Y1" s="305"/>
-      <c r="Z1" s="306"/>
-      <c r="AA1" s="302" t="s">
+      <c r="T1" s="297"/>
+      <c r="U1" s="297"/>
+      <c r="V1" s="297"/>
+      <c r="W1" s="297"/>
+      <c r="X1" s="297"/>
+      <c r="Y1" s="297"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="305" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="303"/>
-      <c r="AC1" s="299" t="str">
+      <c r="AB1" s="307"/>
+      <c r="AC1" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="300"/>
-      <c r="AE1" s="300"/>
-      <c r="AF1" s="301"/>
-      <c r="AG1" s="296">
+      <c r="AD1" s="324"/>
+      <c r="AE1" s="324"/>
+      <c r="AF1" s="325"/>
+      <c r="AG1" s="320">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="297"/>
-      <c r="AI1" s="298"/>
+      <c r="AH1" s="321"/>
+      <c r="AI1" s="322"/>
     </row>
     <row r="2" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="314" t="str">
+      <c r="B2" s="306"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="308" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="315"/>
-      <c r="G2" s="315"/>
-      <c r="H2" s="315"/>
-      <c r="I2" s="315"/>
-      <c r="J2" s="315"/>
-      <c r="K2" s="315"/>
-      <c r="L2" s="315"/>
-      <c r="M2" s="315"/>
-      <c r="N2" s="316"/>
-      <c r="O2" s="320"/>
-      <c r="P2" s="321"/>
-      <c r="Q2" s="321"/>
-      <c r="R2" s="322"/>
-      <c r="S2" s="307"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="308"/>
-      <c r="V2" s="308"/>
-      <c r="W2" s="308"/>
-      <c r="X2" s="308"/>
-      <c r="Y2" s="308"/>
-      <c r="Z2" s="309"/>
-      <c r="AA2" s="302" t="s">
+      <c r="F2" s="309"/>
+      <c r="G2" s="309"/>
+      <c r="H2" s="309"/>
+      <c r="I2" s="309"/>
+      <c r="J2" s="309"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="309"/>
+      <c r="M2" s="309"/>
+      <c r="N2" s="310"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="316"/>
+      <c r="S2" s="299"/>
+      <c r="T2" s="300"/>
+      <c r="U2" s="300"/>
+      <c r="V2" s="300"/>
+      <c r="W2" s="300"/>
+      <c r="X2" s="300"/>
+      <c r="Y2" s="300"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="305" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="303"/>
-      <c r="AC2" s="299" t="str">
+      <c r="AB2" s="307"/>
+      <c r="AC2" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="300"/>
-      <c r="AE2" s="300"/>
-      <c r="AF2" s="301"/>
-      <c r="AG2" s="296" t="str">
+      <c r="AD2" s="324"/>
+      <c r="AE2" s="324"/>
+      <c r="AF2" s="325"/>
+      <c r="AG2" s="320" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="297"/>
-      <c r="AI2" s="298"/>
+      <c r="AH2" s="321"/>
+      <c r="AI2" s="322"/>
     </row>
     <row r="3" spans="1:35" s="110" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="305" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="314" t="str">
+      <c r="B3" s="306"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="308" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="316"/>
-      <c r="O3" s="323"/>
-      <c r="P3" s="324"/>
-      <c r="Q3" s="324"/>
-      <c r="R3" s="325"/>
-      <c r="S3" s="310"/>
-      <c r="T3" s="311"/>
-      <c r="U3" s="311"/>
-      <c r="V3" s="311"/>
-      <c r="W3" s="311"/>
-      <c r="X3" s="311"/>
-      <c r="Y3" s="311"/>
-      <c r="Z3" s="312"/>
-      <c r="AA3" s="302"/>
-      <c r="AB3" s="303"/>
-      <c r="AC3" s="299" t="str">
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="310"/>
+      <c r="O3" s="317"/>
+      <c r="P3" s="318"/>
+      <c r="Q3" s="318"/>
+      <c r="R3" s="319"/>
+      <c r="S3" s="302"/>
+      <c r="T3" s="303"/>
+      <c r="U3" s="303"/>
+      <c r="V3" s="303"/>
+      <c r="W3" s="303"/>
+      <c r="X3" s="303"/>
+      <c r="Y3" s="303"/>
+      <c r="Z3" s="304"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="307"/>
+      <c r="AC3" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="300"/>
-      <c r="AE3" s="300"/>
-      <c r="AF3" s="301"/>
-      <c r="AG3" s="296" t="str">
+      <c r="AD3" s="324"/>
+      <c r="AE3" s="324"/>
+      <c r="AF3" s="325"/>
+      <c r="AG3" s="320" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="297"/>
-      <c r="AI3" s="298"/>
+      <c r="AH3" s="321"/>
+      <c r="AI3" s="322"/>
     </row>
     <row r="4" spans="1:35" s="96" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="200" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="200"/>
       <c r="C4" s="200"/>
@@ -8403,7 +8418,7 @@
       <c r="O5" s="200"/>
       <c r="P5" s="200"/>
       <c r="Q5" s="202" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="R5" s="200"/>
       <c r="S5" s="200"/>
@@ -8431,7 +8446,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="205"/>
       <c r="B7" s="206" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C7" s="206"/>
       <c r="D7" s="59"/>
@@ -8507,7 +8522,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="205"/>
       <c r="B9" s="206" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="206"/>
       <c r="D9" s="59"/>
@@ -8583,7 +8598,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="205"/>
       <c r="B11" s="61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="205"/>
@@ -9779,6 +9794,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9789,13 +9811,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -9821,158 +9836,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="305" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="314" t="str">
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="308" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
-      <c r="N1" s="316"/>
-      <c r="O1" s="317" t="s">
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
+      <c r="M1" s="309"/>
+      <c r="N1" s="310"/>
+      <c r="O1" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="318"/>
-      <c r="Q1" s="318"/>
-      <c r="R1" s="319"/>
-      <c r="S1" s="304" t="str">
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="296" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="305"/>
-      <c r="U1" s="305"/>
-      <c r="V1" s="305"/>
-      <c r="W1" s="305"/>
-      <c r="X1" s="305"/>
-      <c r="Y1" s="305"/>
-      <c r="Z1" s="306"/>
-      <c r="AA1" s="302" t="s">
+      <c r="T1" s="297"/>
+      <c r="U1" s="297"/>
+      <c r="V1" s="297"/>
+      <c r="W1" s="297"/>
+      <c r="X1" s="297"/>
+      <c r="Y1" s="297"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="305" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="303"/>
-      <c r="AC1" s="299" t="str">
+      <c r="AB1" s="307"/>
+      <c r="AC1" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="300"/>
-      <c r="AE1" s="300"/>
-      <c r="AF1" s="301"/>
-      <c r="AG1" s="326">
+      <c r="AD1" s="324"/>
+      <c r="AE1" s="324"/>
+      <c r="AF1" s="325"/>
+      <c r="AG1" s="367">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="327"/>
-      <c r="AI1" s="328"/>
+      <c r="AH1" s="368"/>
+      <c r="AI1" s="369"/>
     </row>
     <row r="2" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="305" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="314" t="str">
+      <c r="B2" s="306"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="308" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="315"/>
-      <c r="G2" s="315"/>
-      <c r="H2" s="315"/>
-      <c r="I2" s="315"/>
-      <c r="J2" s="315"/>
-      <c r="K2" s="315"/>
-      <c r="L2" s="315"/>
-      <c r="M2" s="315"/>
-      <c r="N2" s="316"/>
-      <c r="O2" s="320"/>
-      <c r="P2" s="321"/>
-      <c r="Q2" s="321"/>
-      <c r="R2" s="322"/>
-      <c r="S2" s="307"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="308"/>
-      <c r="V2" s="308"/>
-      <c r="W2" s="308"/>
-      <c r="X2" s="308"/>
-      <c r="Y2" s="308"/>
-      <c r="Z2" s="309"/>
-      <c r="AA2" s="302" t="s">
+      <c r="F2" s="309"/>
+      <c r="G2" s="309"/>
+      <c r="H2" s="309"/>
+      <c r="I2" s="309"/>
+      <c r="J2" s="309"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="309"/>
+      <c r="M2" s="309"/>
+      <c r="N2" s="310"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="316"/>
+      <c r="S2" s="299"/>
+      <c r="T2" s="300"/>
+      <c r="U2" s="300"/>
+      <c r="V2" s="300"/>
+      <c r="W2" s="300"/>
+      <c r="X2" s="300"/>
+      <c r="Y2" s="300"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="305" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="303"/>
-      <c r="AC2" s="299" t="str">
+      <c r="AB2" s="307"/>
+      <c r="AC2" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="300"/>
-      <c r="AE2" s="300"/>
-      <c r="AF2" s="301"/>
-      <c r="AG2" s="326" t="str">
+      <c r="AD2" s="324"/>
+      <c r="AE2" s="324"/>
+      <c r="AF2" s="325"/>
+      <c r="AG2" s="367" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="327"/>
-      <c r="AI2" s="328"/>
+      <c r="AH2" s="368"/>
+      <c r="AI2" s="369"/>
     </row>
     <row r="3" spans="1:35" s="151" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="314" t="str">
+      <c r="B3" s="306"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="308" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="316"/>
-      <c r="O3" s="323"/>
-      <c r="P3" s="324"/>
-      <c r="Q3" s="324"/>
-      <c r="R3" s="325"/>
-      <c r="S3" s="310"/>
-      <c r="T3" s="311"/>
-      <c r="U3" s="311"/>
-      <c r="V3" s="311"/>
-      <c r="W3" s="311"/>
-      <c r="X3" s="311"/>
-      <c r="Y3" s="311"/>
-      <c r="Z3" s="312"/>
-      <c r="AA3" s="302"/>
-      <c r="AB3" s="303"/>
-      <c r="AC3" s="299" t="str">
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="310"/>
+      <c r="O3" s="317"/>
+      <c r="P3" s="318"/>
+      <c r="Q3" s="318"/>
+      <c r="R3" s="319"/>
+      <c r="S3" s="302"/>
+      <c r="T3" s="303"/>
+      <c r="U3" s="303"/>
+      <c r="V3" s="303"/>
+      <c r="W3" s="303"/>
+      <c r="X3" s="303"/>
+      <c r="Y3" s="303"/>
+      <c r="Z3" s="304"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="307"/>
+      <c r="AC3" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="300"/>
-      <c r="AE3" s="300"/>
-      <c r="AF3" s="301"/>
-      <c r="AG3" s="326" t="str">
+      <c r="AD3" s="324"/>
+      <c r="AE3" s="324"/>
+      <c r="AF3" s="325"/>
+      <c r="AG3" s="367" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="327"/>
-      <c r="AI3" s="328"/>
+      <c r="AH3" s="368"/>
+      <c r="AI3" s="369"/>
     </row>
     <row r="4" spans="1:35" s="151" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="130"/>
@@ -9994,12 +10009,12 @@
       <c r="C6" s="108"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="336" t="s">
+      <c r="A7" s="326" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="337"/>
-      <c r="C7" s="337"/>
-      <c r="D7" s="338"/>
+      <c r="B7" s="335"/>
+      <c r="C7" s="335"/>
+      <c r="D7" s="336"/>
       <c r="E7" s="153"/>
       <c r="F7" s="153"/>
       <c r="G7" s="153"/>
@@ -10012,82 +10027,82 @@
       <c r="N7" s="153"/>
       <c r="O7" s="153"/>
       <c r="P7" s="153"/>
-      <c r="Q7" s="369" t="s">
+      <c r="Q7" s="340" t="s">
+        <v>124</v>
+      </c>
+      <c r="R7" s="341"/>
+      <c r="S7" s="341"/>
+      <c r="T7" s="342"/>
+      <c r="U7" s="329" t="s">
+        <v>99</v>
+      </c>
+      <c r="V7" s="330"/>
+      <c r="W7" s="330"/>
+      <c r="X7" s="330"/>
+      <c r="Y7" s="330"/>
+      <c r="Z7" s="330"/>
+      <c r="AA7" s="330"/>
+      <c r="AB7" s="330"/>
+      <c r="AC7" s="330"/>
+      <c r="AD7" s="330"/>
+      <c r="AE7" s="330"/>
+      <c r="AF7" s="330"/>
+      <c r="AG7" s="330"/>
+      <c r="AH7" s="330"/>
+      <c r="AI7" s="331"/>
+    </row>
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="337" t="s">
         <v>125</v>
       </c>
-      <c r="R7" s="358"/>
-      <c r="S7" s="358"/>
-      <c r="T7" s="359"/>
-      <c r="U7" s="363" t="s">
-        <v>99</v>
-      </c>
-      <c r="V7" s="364"/>
-      <c r="W7" s="364"/>
-      <c r="X7" s="364"/>
-      <c r="Y7" s="364"/>
-      <c r="Z7" s="364"/>
-      <c r="AA7" s="364"/>
-      <c r="AB7" s="364"/>
-      <c r="AC7" s="364"/>
-      <c r="AD7" s="364"/>
-      <c r="AE7" s="364"/>
-      <c r="AF7" s="364"/>
-      <c r="AG7" s="364"/>
-      <c r="AH7" s="364"/>
-      <c r="AI7" s="365"/>
-    </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="366" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="367"/>
-      <c r="C8" s="367"/>
-      <c r="D8" s="368"/>
-      <c r="E8" s="348" t="s">
+      <c r="B8" s="338"/>
+      <c r="C8" s="338"/>
+      <c r="D8" s="339"/>
+      <c r="E8" s="332" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="349"/>
-      <c r="G8" s="349"/>
-      <c r="H8" s="349"/>
-      <c r="I8" s="349"/>
-      <c r="J8" s="349"/>
-      <c r="K8" s="349"/>
-      <c r="L8" s="349"/>
-      <c r="M8" s="349"/>
-      <c r="N8" s="349"/>
-      <c r="O8" s="349"/>
-      <c r="P8" s="349"/>
-      <c r="Q8" s="336" t="s">
+      <c r="F8" s="333"/>
+      <c r="G8" s="333"/>
+      <c r="H8" s="333"/>
+      <c r="I8" s="333"/>
+      <c r="J8" s="333"/>
+      <c r="K8" s="333"/>
+      <c r="L8" s="333"/>
+      <c r="M8" s="333"/>
+      <c r="N8" s="333"/>
+      <c r="O8" s="333"/>
+      <c r="P8" s="333"/>
+      <c r="Q8" s="326" t="s">
         <v>101</v>
       </c>
-      <c r="R8" s="337"/>
-      <c r="S8" s="337"/>
-      <c r="T8" s="338"/>
-      <c r="U8" s="348" t="s">
+      <c r="R8" s="335"/>
+      <c r="S8" s="335"/>
+      <c r="T8" s="336"/>
+      <c r="U8" s="332" t="s">
         <v>102</v>
       </c>
-      <c r="V8" s="349"/>
-      <c r="W8" s="349"/>
-      <c r="X8" s="349"/>
-      <c r="Y8" s="349"/>
-      <c r="Z8" s="349"/>
-      <c r="AA8" s="349"/>
-      <c r="AB8" s="349"/>
-      <c r="AC8" s="349"/>
-      <c r="AD8" s="349"/>
-      <c r="AE8" s="349"/>
-      <c r="AF8" s="349"/>
-      <c r="AG8" s="349"/>
-      <c r="AH8" s="349"/>
-      <c r="AI8" s="350"/>
+      <c r="V8" s="333"/>
+      <c r="W8" s="333"/>
+      <c r="X8" s="333"/>
+      <c r="Y8" s="333"/>
+      <c r="Z8" s="333"/>
+      <c r="AA8" s="333"/>
+      <c r="AB8" s="333"/>
+      <c r="AC8" s="333"/>
+      <c r="AD8" s="333"/>
+      <c r="AE8" s="333"/>
+      <c r="AF8" s="333"/>
+      <c r="AG8" s="333"/>
+      <c r="AH8" s="333"/>
+      <c r="AI8" s="334"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="336" t="s">
+      <c r="A9" s="326" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="337"/>
-      <c r="C9" s="337"/>
-      <c r="D9" s="338"/>
+      <c r="B9" s="335"/>
+      <c r="C9" s="335"/>
+      <c r="D9" s="336"/>
       <c r="E9" s="155"/>
       <c r="F9" s="155"/>
       <c r="G9" s="155"/>
@@ -10273,12 +10288,12 @@
       <c r="AI13" s="166"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="336" t="s">
+      <c r="A14" s="326" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="330"/>
-      <c r="C14" s="330"/>
-      <c r="D14" s="331"/>
+      <c r="B14" s="327"/>
+      <c r="C14" s="327"/>
+      <c r="D14" s="328"/>
       <c r="E14" s="156"/>
       <c r="F14" s="156"/>
       <c r="G14" s="156"/>
@@ -10423,12 +10438,12 @@
       <c r="AI17" s="166"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="351" t="s">
+      <c r="A18" s="343" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="352"/>
-      <c r="C18" s="352"/>
-      <c r="D18" s="353"/>
+      <c r="B18" s="344"/>
+      <c r="C18" s="344"/>
+      <c r="D18" s="345"/>
       <c r="E18" s="168"/>
       <c r="F18" s="169"/>
       <c r="G18" s="141"/>
@@ -10441,12 +10456,12 @@
       <c r="N18" s="141"/>
       <c r="O18" s="139"/>
       <c r="P18" s="141"/>
-      <c r="Q18" s="351" t="s">
+      <c r="Q18" s="343" t="s">
         <v>108</v>
       </c>
-      <c r="R18" s="352"/>
-      <c r="S18" s="352"/>
-      <c r="T18" s="353"/>
+      <c r="R18" s="344"/>
+      <c r="S18" s="344"/>
+      <c r="T18" s="345"/>
       <c r="U18" s="159"/>
       <c r="V18" s="159"/>
       <c r="W18" s="159"/>
@@ -10546,55 +10561,55 @@
       <c r="AI20" s="160"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="336" t="s">
+      <c r="A21" s="326" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="337"/>
-      <c r="C21" s="337"/>
-      <c r="D21" s="338"/>
-      <c r="E21" s="348" t="s">
+      <c r="B21" s="335"/>
+      <c r="C21" s="335"/>
+      <c r="D21" s="336"/>
+      <c r="E21" s="332" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="349"/>
-      <c r="G21" s="349"/>
-      <c r="H21" s="349"/>
-      <c r="I21" s="349"/>
-      <c r="J21" s="349"/>
-      <c r="K21" s="349"/>
-      <c r="L21" s="349"/>
-      <c r="M21" s="349"/>
-      <c r="N21" s="349"/>
-      <c r="O21" s="349"/>
-      <c r="P21" s="350"/>
-      <c r="Q21" s="336" t="s">
+      <c r="F21" s="333"/>
+      <c r="G21" s="333"/>
+      <c r="H21" s="333"/>
+      <c r="I21" s="333"/>
+      <c r="J21" s="333"/>
+      <c r="K21" s="333"/>
+      <c r="L21" s="333"/>
+      <c r="M21" s="333"/>
+      <c r="N21" s="333"/>
+      <c r="O21" s="333"/>
+      <c r="P21" s="334"/>
+      <c r="Q21" s="326" t="s">
         <v>113</v>
       </c>
-      <c r="R21" s="337"/>
-      <c r="S21" s="337"/>
-      <c r="T21" s="338"/>
-      <c r="U21" s="354"/>
-      <c r="V21" s="355"/>
-      <c r="W21" s="355"/>
-      <c r="X21" s="355"/>
-      <c r="Y21" s="355"/>
-      <c r="Z21" s="355"/>
-      <c r="AA21" s="355"/>
-      <c r="AB21" s="355"/>
-      <c r="AC21" s="355"/>
-      <c r="AD21" s="355"/>
-      <c r="AE21" s="355"/>
-      <c r="AF21" s="355"/>
-      <c r="AG21" s="355"/>
-      <c r="AH21" s="355"/>
-      <c r="AI21" s="356"/>
+      <c r="R21" s="335"/>
+      <c r="S21" s="335"/>
+      <c r="T21" s="336"/>
+      <c r="U21" s="346"/>
+      <c r="V21" s="347"/>
+      <c r="W21" s="347"/>
+      <c r="X21" s="347"/>
+      <c r="Y21" s="347"/>
+      <c r="Z21" s="347"/>
+      <c r="AA21" s="347"/>
+      <c r="AB21" s="347"/>
+      <c r="AC21" s="347"/>
+      <c r="AD21" s="347"/>
+      <c r="AE21" s="347"/>
+      <c r="AF21" s="347"/>
+      <c r="AG21" s="347"/>
+      <c r="AH21" s="347"/>
+      <c r="AI21" s="348"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="357" t="s">
+      <c r="A22" s="349" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="358"/>
-      <c r="C22" s="358"/>
-      <c r="D22" s="359"/>
+      <c r="B22" s="341"/>
+      <c r="C22" s="341"/>
+      <c r="D22" s="342"/>
       <c r="E22" s="178"/>
       <c r="F22" s="179"/>
       <c r="G22" s="156"/>
@@ -10607,12 +10622,12 @@
       <c r="N22" s="156"/>
       <c r="O22" s="155"/>
       <c r="P22" s="156"/>
-      <c r="Q22" s="357" t="s">
+      <c r="Q22" s="349" t="s">
         <v>115</v>
       </c>
-      <c r="R22" s="358"/>
-      <c r="S22" s="358"/>
-      <c r="T22" s="359"/>
+      <c r="R22" s="341"/>
+      <c r="S22" s="341"/>
+      <c r="T22" s="342"/>
       <c r="U22" s="132"/>
       <c r="V22" s="133"/>
       <c r="W22" s="180"/>
@@ -10675,36 +10690,36 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="345" t="s">
+      <c r="A24" s="364" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="346"/>
-      <c r="C24" s="346"/>
-      <c r="D24" s="347"/>
-      <c r="E24" s="348" t="s">
+      <c r="B24" s="365"/>
+      <c r="C24" s="365"/>
+      <c r="D24" s="366"/>
+      <c r="E24" s="332" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="349"/>
-      <c r="G24" s="349"/>
-      <c r="H24" s="349"/>
-      <c r="I24" s="349"/>
-      <c r="J24" s="349"/>
-      <c r="K24" s="349"/>
-      <c r="L24" s="349"/>
-      <c r="M24" s="349"/>
-      <c r="N24" s="349"/>
-      <c r="O24" s="349"/>
-      <c r="P24" s="350"/>
-      <c r="Q24" s="360" t="s">
+      <c r="F24" s="333"/>
+      <c r="G24" s="333"/>
+      <c r="H24" s="333"/>
+      <c r="I24" s="333"/>
+      <c r="J24" s="333"/>
+      <c r="K24" s="333"/>
+      <c r="L24" s="333"/>
+      <c r="M24" s="333"/>
+      <c r="N24" s="333"/>
+      <c r="O24" s="333"/>
+      <c r="P24" s="334"/>
+      <c r="Q24" s="350" t="s">
         <v>118</v>
       </c>
-      <c r="R24" s="361"/>
-      <c r="S24" s="361"/>
-      <c r="T24" s="362"/>
-      <c r="U24" s="334"/>
-      <c r="V24" s="335"/>
-      <c r="W24" s="335"/>
-      <c r="X24" s="335"/>
+      <c r="R24" s="351"/>
+      <c r="S24" s="351"/>
+      <c r="T24" s="352"/>
+      <c r="U24" s="356"/>
+      <c r="V24" s="357"/>
+      <c r="W24" s="357"/>
+      <c r="X24" s="357"/>
       <c r="Y24" s="187" t="s">
         <v>119</v>
       </c>
@@ -10720,26 +10735,26 @@
       <c r="AI24" s="189"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="341" t="s">
+      <c r="A25" s="360" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="342"/>
-      <c r="C25" s="342"/>
-      <c r="D25" s="343"/>
+      <c r="B25" s="361"/>
+      <c r="C25" s="361"/>
+      <c r="D25" s="362"/>
       <c r="E25" s="178"/>
       <c r="F25" s="190"/>
       <c r="G25" s="179" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="332"/>
-      <c r="I25" s="333"/>
-      <c r="J25" s="333"/>
-      <c r="K25" s="333"/>
-      <c r="L25" s="333"/>
-      <c r="M25" s="333"/>
-      <c r="N25" s="333"/>
-      <c r="O25" s="333"/>
-      <c r="P25" s="333"/>
+      <c r="H25" s="354"/>
+      <c r="I25" s="355"/>
+      <c r="J25" s="355"/>
+      <c r="K25" s="355"/>
+      <c r="L25" s="355"/>
+      <c r="M25" s="355"/>
+      <c r="N25" s="355"/>
+      <c r="O25" s="355"/>
+      <c r="P25" s="355"/>
       <c r="Q25" s="156" t="s">
         <v>110</v>
       </c>
@@ -10748,15 +10763,15 @@
       <c r="T25" s="179" t="s">
         <v>109</v>
       </c>
-      <c r="U25" s="344"/>
-      <c r="V25" s="344"/>
-      <c r="W25" s="344"/>
-      <c r="X25" s="344"/>
-      <c r="Y25" s="344"/>
-      <c r="Z25" s="344"/>
-      <c r="AA25" s="344"/>
-      <c r="AB25" s="344"/>
-      <c r="AC25" s="344"/>
+      <c r="U25" s="363"/>
+      <c r="V25" s="363"/>
+      <c r="W25" s="363"/>
+      <c r="X25" s="363"/>
+      <c r="Y25" s="363"/>
+      <c r="Z25" s="363"/>
+      <c r="AA25" s="363"/>
+      <c r="AB25" s="363"/>
+      <c r="AC25" s="363"/>
       <c r="AD25" s="156" t="s">
         <v>110</v>
       </c>
@@ -10776,15 +10791,15 @@
       <c r="G26" s="174" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="340"/>
-      <c r="I26" s="340"/>
-      <c r="J26" s="340"/>
-      <c r="K26" s="340"/>
-      <c r="L26" s="340"/>
-      <c r="M26" s="340"/>
-      <c r="N26" s="340"/>
-      <c r="O26" s="340"/>
-      <c r="P26" s="340"/>
+      <c r="H26" s="359"/>
+      <c r="I26" s="359"/>
+      <c r="J26" s="359"/>
+      <c r="K26" s="359"/>
+      <c r="L26" s="359"/>
+      <c r="M26" s="359"/>
+      <c r="N26" s="359"/>
+      <c r="O26" s="359"/>
+      <c r="P26" s="359"/>
       <c r="Q26" s="150" t="s">
         <v>110</v>
       </c>
@@ -10793,15 +10808,15 @@
       <c r="T26" s="174" t="s">
         <v>109</v>
       </c>
-      <c r="U26" s="340"/>
-      <c r="V26" s="340"/>
-      <c r="W26" s="340"/>
-      <c r="X26" s="340"/>
-      <c r="Y26" s="340"/>
-      <c r="Z26" s="340"/>
-      <c r="AA26" s="340"/>
-      <c r="AB26" s="340"/>
-      <c r="AC26" s="340"/>
+      <c r="U26" s="359"/>
+      <c r="V26" s="359"/>
+      <c r="W26" s="359"/>
+      <c r="X26" s="359"/>
+      <c r="Y26" s="359"/>
+      <c r="Z26" s="359"/>
+      <c r="AA26" s="359"/>
+      <c r="AB26" s="359"/>
+      <c r="AC26" s="359"/>
       <c r="AD26" s="150" t="s">
         <v>110</v>
       </c>
@@ -10821,15 +10836,15 @@
       <c r="G27" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="339"/>
-      <c r="I27" s="339"/>
-      <c r="J27" s="339"/>
-      <c r="K27" s="339"/>
-      <c r="L27" s="339"/>
-      <c r="M27" s="339"/>
-      <c r="N27" s="339"/>
-      <c r="O27" s="339"/>
-      <c r="P27" s="339"/>
+      <c r="H27" s="358"/>
+      <c r="I27" s="358"/>
+      <c r="J27" s="358"/>
+      <c r="K27" s="358"/>
+      <c r="L27" s="358"/>
+      <c r="M27" s="358"/>
+      <c r="N27" s="358"/>
+      <c r="O27" s="358"/>
+      <c r="P27" s="358"/>
       <c r="Q27" s="164" t="s">
         <v>110</v>
       </c>
@@ -10838,31 +10853,31 @@
       <c r="T27" s="183" t="s">
         <v>109</v>
       </c>
-      <c r="U27" s="339"/>
-      <c r="V27" s="339"/>
-      <c r="W27" s="339"/>
-      <c r="X27" s="339"/>
-      <c r="Y27" s="339"/>
-      <c r="Z27" s="339"/>
-      <c r="AA27" s="339"/>
-      <c r="AB27" s="339"/>
-      <c r="AC27" s="339"/>
-      <c r="AD27" s="339"/>
-      <c r="AE27" s="339"/>
-      <c r="AF27" s="339"/>
-      <c r="AG27" s="339"/>
-      <c r="AH27" s="339"/>
+      <c r="U27" s="358"/>
+      <c r="V27" s="358"/>
+      <c r="W27" s="358"/>
+      <c r="X27" s="358"/>
+      <c r="Y27" s="358"/>
+      <c r="Z27" s="358"/>
+      <c r="AA27" s="358"/>
+      <c r="AB27" s="358"/>
+      <c r="AC27" s="358"/>
+      <c r="AD27" s="358"/>
+      <c r="AE27" s="358"/>
+      <c r="AF27" s="358"/>
+      <c r="AG27" s="358"/>
+      <c r="AH27" s="358"/>
       <c r="AI27" s="166" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="329" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="330"/>
-      <c r="C28" s="330"/>
-      <c r="D28" s="331"/>
+      <c r="A28" s="353" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="327"/>
+      <c r="C28" s="327"/>
+      <c r="D28" s="328"/>
       <c r="E28" s="156"/>
       <c r="F28" s="156"/>
       <c r="G28" s="156"/>
@@ -11008,21 +11023,23 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11037,23 +11054,21 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11596,158 +11611,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="305" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="314" t="str">
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="308" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
-      <c r="N1" s="316"/>
-      <c r="O1" s="317" t="s">
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
+      <c r="M1" s="309"/>
+      <c r="N1" s="310"/>
+      <c r="O1" s="311" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="318"/>
-      <c r="Q1" s="318"/>
-      <c r="R1" s="319"/>
-      <c r="S1" s="304" t="str">
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="296" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="305"/>
-      <c r="U1" s="305"/>
-      <c r="V1" s="305"/>
-      <c r="W1" s="305"/>
-      <c r="X1" s="305"/>
-      <c r="Y1" s="305"/>
-      <c r="Z1" s="306"/>
-      <c r="AA1" s="302" t="s">
+      <c r="T1" s="297"/>
+      <c r="U1" s="297"/>
+      <c r="V1" s="297"/>
+      <c r="W1" s="297"/>
+      <c r="X1" s="297"/>
+      <c r="Y1" s="297"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="303"/>
-      <c r="AC1" s="299" t="str">
+      <c r="AB1" s="307"/>
+      <c r="AC1" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="300"/>
-      <c r="AE1" s="300"/>
-      <c r="AF1" s="301"/>
-      <c r="AG1" s="326">
+      <c r="AD1" s="324"/>
+      <c r="AE1" s="324"/>
+      <c r="AF1" s="325"/>
+      <c r="AG1" s="367">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="327"/>
-      <c r="AI1" s="328"/>
+      <c r="AH1" s="368"/>
+      <c r="AI1" s="369"/>
     </row>
     <row r="2" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="314" t="str">
+      <c r="B2" s="306"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="308" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="315"/>
-      <c r="G2" s="315"/>
-      <c r="H2" s="315"/>
-      <c r="I2" s="315"/>
-      <c r="J2" s="315"/>
-      <c r="K2" s="315"/>
-      <c r="L2" s="315"/>
-      <c r="M2" s="315"/>
-      <c r="N2" s="316"/>
-      <c r="O2" s="320"/>
-      <c r="P2" s="321"/>
-      <c r="Q2" s="321"/>
-      <c r="R2" s="322"/>
-      <c r="S2" s="307"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="308"/>
-      <c r="V2" s="308"/>
-      <c r="W2" s="308"/>
-      <c r="X2" s="308"/>
-      <c r="Y2" s="308"/>
-      <c r="Z2" s="309"/>
-      <c r="AA2" s="302" t="s">
+      <c r="F2" s="309"/>
+      <c r="G2" s="309"/>
+      <c r="H2" s="309"/>
+      <c r="I2" s="309"/>
+      <c r="J2" s="309"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="309"/>
+      <c r="M2" s="309"/>
+      <c r="N2" s="310"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="316"/>
+      <c r="S2" s="299"/>
+      <c r="T2" s="300"/>
+      <c r="U2" s="300"/>
+      <c r="V2" s="300"/>
+      <c r="W2" s="300"/>
+      <c r="X2" s="300"/>
+      <c r="Y2" s="300"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="305" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="303"/>
-      <c r="AC2" s="299" t="str">
+      <c r="AB2" s="307"/>
+      <c r="AC2" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="300"/>
-      <c r="AE2" s="300"/>
-      <c r="AF2" s="301"/>
-      <c r="AG2" s="326" t="str">
+      <c r="AD2" s="324"/>
+      <c r="AE2" s="324"/>
+      <c r="AF2" s="325"/>
+      <c r="AG2" s="367" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="327"/>
-      <c r="AI2" s="328"/>
+      <c r="AH2" s="368"/>
+      <c r="AI2" s="369"/>
     </row>
     <row r="3" spans="1:36" s="109" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="305" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="314" t="str">
+      <c r="B3" s="306"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="308" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="316"/>
-      <c r="O3" s="323"/>
-      <c r="P3" s="324"/>
-      <c r="Q3" s="324"/>
-      <c r="R3" s="325"/>
-      <c r="S3" s="310"/>
-      <c r="T3" s="311"/>
-      <c r="U3" s="311"/>
-      <c r="V3" s="311"/>
-      <c r="W3" s="311"/>
-      <c r="X3" s="311"/>
-      <c r="Y3" s="311"/>
-      <c r="Z3" s="312"/>
-      <c r="AA3" s="302"/>
-      <c r="AB3" s="303"/>
-      <c r="AC3" s="299" t="str">
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="310"/>
+      <c r="O3" s="317"/>
+      <c r="P3" s="318"/>
+      <c r="Q3" s="318"/>
+      <c r="R3" s="319"/>
+      <c r="S3" s="302"/>
+      <c r="T3" s="303"/>
+      <c r="U3" s="303"/>
+      <c r="V3" s="303"/>
+      <c r="W3" s="303"/>
+      <c r="X3" s="303"/>
+      <c r="Y3" s="303"/>
+      <c r="Z3" s="304"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="307"/>
+      <c r="AC3" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="300"/>
-      <c r="AE3" s="300"/>
-      <c r="AF3" s="301"/>
-      <c r="AG3" s="326" t="str">
+      <c r="AD3" s="324"/>
+      <c r="AE3" s="324"/>
+      <c r="AF3" s="325"/>
+      <c r="AG3" s="367" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="327"/>
-      <c r="AI3" s="328"/>
+      <c r="AH3" s="368"/>
+      <c r="AI3" s="369"/>
     </row>
     <row r="4" spans="1:36" s="109" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="110"/>
@@ -11808,7 +11823,7 @@
     </row>
     <row r="6" spans="1:36" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="121" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C6" s="122"/>
     </row>
@@ -11817,461 +11832,461 @@
       <c r="C7" s="122"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="438" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="386"/>
-      <c r="C8" s="386"/>
-      <c r="D8" s="386"/>
-      <c r="E8" s="386"/>
-      <c r="F8" s="386"/>
-      <c r="G8" s="386"/>
-      <c r="H8" s="386"/>
-      <c r="I8" s="386"/>
-      <c r="J8" s="386"/>
-      <c r="K8" s="386"/>
-      <c r="L8" s="386"/>
-      <c r="M8" s="386"/>
-      <c r="N8" s="386"/>
-      <c r="O8" s="386"/>
-      <c r="P8" s="386"/>
-      <c r="Q8" s="386"/>
-      <c r="R8" s="386"/>
-      <c r="S8" s="386"/>
-      <c r="T8" s="386"/>
-      <c r="U8" s="386"/>
-      <c r="V8" s="386"/>
-      <c r="W8" s="386"/>
-      <c r="X8" s="386"/>
-      <c r="Y8" s="386"/>
-      <c r="Z8" s="386"/>
-      <c r="AA8" s="386"/>
-      <c r="AB8" s="439"/>
-      <c r="AC8" s="385" t="s">
+      <c r="A8" s="390" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="391"/>
+      <c r="C8" s="391"/>
+      <c r="D8" s="391"/>
+      <c r="E8" s="391"/>
+      <c r="F8" s="391"/>
+      <c r="G8" s="391"/>
+      <c r="H8" s="391"/>
+      <c r="I8" s="391"/>
+      <c r="J8" s="391"/>
+      <c r="K8" s="391"/>
+      <c r="L8" s="391"/>
+      <c r="M8" s="391"/>
+      <c r="N8" s="391"/>
+      <c r="O8" s="391"/>
+      <c r="P8" s="391"/>
+      <c r="Q8" s="391"/>
+      <c r="R8" s="391"/>
+      <c r="S8" s="391"/>
+      <c r="T8" s="391"/>
+      <c r="U8" s="391"/>
+      <c r="V8" s="391"/>
+      <c r="W8" s="391"/>
+      <c r="X8" s="391"/>
+      <c r="Y8" s="391"/>
+      <c r="Z8" s="391"/>
+      <c r="AA8" s="391"/>
+      <c r="AB8" s="392"/>
+      <c r="AC8" s="456" t="s">
         <v>86</v>
       </c>
-      <c r="AD8" s="386"/>
-      <c r="AE8" s="387"/>
-      <c r="AF8" s="382"/>
-      <c r="AG8" s="383"/>
-      <c r="AH8" s="383"/>
-      <c r="AI8" s="384"/>
+      <c r="AD8" s="391"/>
+      <c r="AE8" s="457"/>
+      <c r="AF8" s="453"/>
+      <c r="AG8" s="454"/>
+      <c r="AH8" s="454"/>
+      <c r="AI8" s="455"/>
     </row>
     <row r="9" spans="1:36" s="124" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="432" t="s">
+      <c r="B9" s="373" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="433"/>
-      <c r="D9" s="433"/>
-      <c r="E9" s="433"/>
-      <c r="F9" s="434"/>
-      <c r="G9" s="432" t="s">
+      <c r="C9" s="387"/>
+      <c r="D9" s="387"/>
+      <c r="E9" s="387"/>
+      <c r="F9" s="388"/>
+      <c r="G9" s="373" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="435"/>
-      <c r="I9" s="437"/>
-      <c r="J9" s="432" t="s">
+      <c r="H9" s="374"/>
+      <c r="I9" s="375"/>
+      <c r="J9" s="373" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="435"/>
-      <c r="L9" s="435"/>
-      <c r="M9" s="435"/>
-      <c r="N9" s="435"/>
-      <c r="O9" s="435"/>
-      <c r="P9" s="437"/>
-      <c r="Q9" s="452" t="s">
+      <c r="K9" s="374"/>
+      <c r="L9" s="374"/>
+      <c r="M9" s="374"/>
+      <c r="N9" s="374"/>
+      <c r="O9" s="374"/>
+      <c r="P9" s="375"/>
+      <c r="Q9" s="378" t="s">
         <v>91</v>
       </c>
-      <c r="R9" s="454"/>
-      <c r="S9" s="452" t="s">
+      <c r="R9" s="380"/>
+      <c r="S9" s="378" t="s">
         <v>92</v>
       </c>
-      <c r="T9" s="453"/>
-      <c r="U9" s="454"/>
-      <c r="V9" s="432" t="s">
+      <c r="T9" s="379"/>
+      <c r="U9" s="380"/>
+      <c r="V9" s="373" t="s">
         <v>93</v>
       </c>
-      <c r="W9" s="435"/>
-      <c r="X9" s="435"/>
-      <c r="Y9" s="435"/>
-      <c r="Z9" s="435"/>
-      <c r="AA9" s="435"/>
-      <c r="AB9" s="436"/>
-      <c r="AC9" s="446" t="s">
+      <c r="W9" s="374"/>
+      <c r="X9" s="374"/>
+      <c r="Y9" s="374"/>
+      <c r="Z9" s="374"/>
+      <c r="AA9" s="374"/>
+      <c r="AB9" s="389"/>
+      <c r="AC9" s="401" t="s">
         <v>94</v>
       </c>
-      <c r="AD9" s="447"/>
-      <c r="AE9" s="447"/>
-      <c r="AF9" s="447"/>
-      <c r="AG9" s="447"/>
-      <c r="AH9" s="448" t="s">
+      <c r="AD9" s="402"/>
+      <c r="AE9" s="402"/>
+      <c r="AF9" s="402"/>
+      <c r="AG9" s="402"/>
+      <c r="AH9" s="403" t="s">
         <v>96</v>
       </c>
-      <c r="AI9" s="448"/>
+      <c r="AI9" s="403"/>
     </row>
     <row r="10" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="125">
         <v>1</v>
       </c>
-      <c r="B10" s="395" t="s">
+      <c r="B10" s="440" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="396"/>
-      <c r="D10" s="396"/>
-      <c r="E10" s="396"/>
-      <c r="F10" s="397"/>
-      <c r="G10" s="443"/>
-      <c r="H10" s="444"/>
-      <c r="I10" s="445"/>
-      <c r="J10" s="455"/>
-      <c r="K10" s="456"/>
-      <c r="L10" s="456"/>
-      <c r="M10" s="456"/>
-      <c r="N10" s="456"/>
-      <c r="O10" s="456"/>
-      <c r="P10" s="457"/>
-      <c r="Q10" s="404"/>
-      <c r="R10" s="406"/>
-      <c r="S10" s="404"/>
-      <c r="T10" s="405"/>
-      <c r="U10" s="406"/>
-      <c r="V10" s="449"/>
-      <c r="W10" s="450"/>
-      <c r="X10" s="450"/>
-      <c r="Y10" s="450"/>
-      <c r="Z10" s="450"/>
-      <c r="AA10" s="450"/>
-      <c r="AB10" s="451"/>
-      <c r="AC10" s="429"/>
-      <c r="AD10" s="373"/>
-      <c r="AE10" s="374"/>
-      <c r="AF10" s="374"/>
-      <c r="AG10" s="375"/>
-      <c r="AH10" s="393"/>
-      <c r="AI10" s="394"/>
+      <c r="C10" s="441"/>
+      <c r="D10" s="441"/>
+      <c r="E10" s="441"/>
+      <c r="F10" s="442"/>
+      <c r="G10" s="398"/>
+      <c r="H10" s="399"/>
+      <c r="I10" s="400"/>
+      <c r="J10" s="382"/>
+      <c r="K10" s="383"/>
+      <c r="L10" s="383"/>
+      <c r="M10" s="383"/>
+      <c r="N10" s="383"/>
+      <c r="O10" s="383"/>
+      <c r="P10" s="384"/>
+      <c r="Q10" s="396"/>
+      <c r="R10" s="397"/>
+      <c r="S10" s="396"/>
+      <c r="T10" s="443"/>
+      <c r="U10" s="397"/>
+      <c r="V10" s="404"/>
+      <c r="W10" s="405"/>
+      <c r="X10" s="405"/>
+      <c r="Y10" s="405"/>
+      <c r="Z10" s="405"/>
+      <c r="AA10" s="405"/>
+      <c r="AB10" s="406"/>
+      <c r="AC10" s="435"/>
+      <c r="AD10" s="447"/>
+      <c r="AE10" s="448"/>
+      <c r="AF10" s="448"/>
+      <c r="AG10" s="449"/>
+      <c r="AH10" s="438"/>
+      <c r="AI10" s="439"/>
     </row>
     <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="126">
         <v>2</v>
       </c>
-      <c r="B11" s="398"/>
-      <c r="C11" s="399"/>
-      <c r="D11" s="399"/>
-      <c r="E11" s="399"/>
-      <c r="F11" s="400"/>
-      <c r="G11" s="440"/>
-      <c r="H11" s="441"/>
-      <c r="I11" s="442"/>
-      <c r="J11" s="398"/>
-      <c r="K11" s="399"/>
-      <c r="L11" s="399"/>
-      <c r="M11" s="399"/>
-      <c r="N11" s="399"/>
-      <c r="O11" s="399"/>
-      <c r="P11" s="400"/>
-      <c r="Q11" s="407"/>
-      <c r="R11" s="409"/>
-      <c r="S11" s="407"/>
-      <c r="T11" s="408"/>
-      <c r="U11" s="409"/>
-      <c r="V11" s="390"/>
-      <c r="W11" s="391"/>
-      <c r="X11" s="391"/>
-      <c r="Y11" s="391"/>
-      <c r="Z11" s="391"/>
-      <c r="AA11" s="391"/>
-      <c r="AB11" s="392"/>
-      <c r="AC11" s="430"/>
-      <c r="AD11" s="376"/>
-      <c r="AE11" s="377"/>
-      <c r="AF11" s="377"/>
-      <c r="AG11" s="378"/>
-      <c r="AH11" s="388"/>
-      <c r="AI11" s="389"/>
+      <c r="B11" s="370"/>
+      <c r="C11" s="371"/>
+      <c r="D11" s="371"/>
+      <c r="E11" s="371"/>
+      <c r="F11" s="372"/>
+      <c r="G11" s="393"/>
+      <c r="H11" s="394"/>
+      <c r="I11" s="395"/>
+      <c r="J11" s="370"/>
+      <c r="K11" s="371"/>
+      <c r="L11" s="371"/>
+      <c r="M11" s="371"/>
+      <c r="N11" s="371"/>
+      <c r="O11" s="371"/>
+      <c r="P11" s="372"/>
+      <c r="Q11" s="376"/>
+      <c r="R11" s="377"/>
+      <c r="S11" s="376"/>
+      <c r="T11" s="381"/>
+      <c r="U11" s="377"/>
+      <c r="V11" s="407"/>
+      <c r="W11" s="408"/>
+      <c r="X11" s="408"/>
+      <c r="Y11" s="408"/>
+      <c r="Z11" s="408"/>
+      <c r="AA11" s="408"/>
+      <c r="AB11" s="409"/>
+      <c r="AC11" s="436"/>
+      <c r="AD11" s="450"/>
+      <c r="AE11" s="451"/>
+      <c r="AF11" s="451"/>
+      <c r="AG11" s="452"/>
+      <c r="AH11" s="385"/>
+      <c r="AI11" s="386"/>
     </row>
     <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="126">
         <v>3</v>
       </c>
-      <c r="B12" s="398"/>
-      <c r="C12" s="399"/>
-      <c r="D12" s="399"/>
-      <c r="E12" s="399"/>
-      <c r="F12" s="400"/>
-      <c r="G12" s="440"/>
-      <c r="H12" s="441"/>
-      <c r="I12" s="442"/>
-      <c r="J12" s="398"/>
-      <c r="K12" s="399"/>
-      <c r="L12" s="399"/>
-      <c r="M12" s="399"/>
-      <c r="N12" s="399"/>
-      <c r="O12" s="399"/>
-      <c r="P12" s="400"/>
-      <c r="Q12" s="407"/>
-      <c r="R12" s="409"/>
-      <c r="S12" s="407"/>
-      <c r="T12" s="408"/>
-      <c r="U12" s="409"/>
-      <c r="V12" s="390"/>
-      <c r="W12" s="391"/>
-      <c r="X12" s="391"/>
-      <c r="Y12" s="391"/>
-      <c r="Z12" s="391"/>
-      <c r="AA12" s="391"/>
-      <c r="AB12" s="392"/>
-      <c r="AC12" s="430"/>
-      <c r="AD12" s="379"/>
-      <c r="AE12" s="380"/>
-      <c r="AF12" s="380"/>
-      <c r="AG12" s="381"/>
-      <c r="AH12" s="388"/>
-      <c r="AI12" s="389"/>
+      <c r="B12" s="370"/>
+      <c r="C12" s="371"/>
+      <c r="D12" s="371"/>
+      <c r="E12" s="371"/>
+      <c r="F12" s="372"/>
+      <c r="G12" s="393"/>
+      <c r="H12" s="394"/>
+      <c r="I12" s="395"/>
+      <c r="J12" s="370"/>
+      <c r="K12" s="371"/>
+      <c r="L12" s="371"/>
+      <c r="M12" s="371"/>
+      <c r="N12" s="371"/>
+      <c r="O12" s="371"/>
+      <c r="P12" s="372"/>
+      <c r="Q12" s="376"/>
+      <c r="R12" s="377"/>
+      <c r="S12" s="376"/>
+      <c r="T12" s="381"/>
+      <c r="U12" s="377"/>
+      <c r="V12" s="407"/>
+      <c r="W12" s="408"/>
+      <c r="X12" s="408"/>
+      <c r="Y12" s="408"/>
+      <c r="Z12" s="408"/>
+      <c r="AA12" s="408"/>
+      <c r="AB12" s="409"/>
+      <c r="AC12" s="436"/>
+      <c r="AD12" s="410"/>
+      <c r="AE12" s="411"/>
+      <c r="AF12" s="411"/>
+      <c r="AG12" s="412"/>
+      <c r="AH12" s="385"/>
+      <c r="AI12" s="386"/>
     </row>
     <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="126">
         <v>4</v>
       </c>
-      <c r="B13" s="398"/>
-      <c r="C13" s="399"/>
-      <c r="D13" s="399"/>
-      <c r="E13" s="399"/>
-      <c r="F13" s="400"/>
-      <c r="G13" s="440"/>
-      <c r="H13" s="441"/>
-      <c r="I13" s="442"/>
-      <c r="J13" s="398"/>
-      <c r="K13" s="399"/>
-      <c r="L13" s="399"/>
-      <c r="M13" s="399"/>
-      <c r="N13" s="399"/>
-      <c r="O13" s="399"/>
-      <c r="P13" s="400"/>
-      <c r="Q13" s="407"/>
-      <c r="R13" s="409"/>
-      <c r="S13" s="407"/>
-      <c r="T13" s="408"/>
-      <c r="U13" s="409"/>
-      <c r="V13" s="390"/>
-      <c r="W13" s="391"/>
-      <c r="X13" s="391"/>
-      <c r="Y13" s="391"/>
-      <c r="Z13" s="391"/>
-      <c r="AA13" s="391"/>
-      <c r="AB13" s="392"/>
-      <c r="AC13" s="430"/>
-      <c r="AD13" s="379"/>
-      <c r="AE13" s="380"/>
-      <c r="AF13" s="380"/>
-      <c r="AG13" s="381"/>
-      <c r="AH13" s="388"/>
-      <c r="AI13" s="389"/>
+      <c r="B13" s="370"/>
+      <c r="C13" s="371"/>
+      <c r="D13" s="371"/>
+      <c r="E13" s="371"/>
+      <c r="F13" s="372"/>
+      <c r="G13" s="393"/>
+      <c r="H13" s="394"/>
+      <c r="I13" s="395"/>
+      <c r="J13" s="370"/>
+      <c r="K13" s="371"/>
+      <c r="L13" s="371"/>
+      <c r="M13" s="371"/>
+      <c r="N13" s="371"/>
+      <c r="O13" s="371"/>
+      <c r="P13" s="372"/>
+      <c r="Q13" s="376"/>
+      <c r="R13" s="377"/>
+      <c r="S13" s="376"/>
+      <c r="T13" s="381"/>
+      <c r="U13" s="377"/>
+      <c r="V13" s="407"/>
+      <c r="W13" s="408"/>
+      <c r="X13" s="408"/>
+      <c r="Y13" s="408"/>
+      <c r="Z13" s="408"/>
+      <c r="AA13" s="408"/>
+      <c r="AB13" s="409"/>
+      <c r="AC13" s="436"/>
+      <c r="AD13" s="410"/>
+      <c r="AE13" s="411"/>
+      <c r="AF13" s="411"/>
+      <c r="AG13" s="412"/>
+      <c r="AH13" s="385"/>
+      <c r="AI13" s="386"/>
     </row>
     <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="126">
         <v>5</v>
       </c>
-      <c r="B14" s="401"/>
-      <c r="C14" s="402"/>
-      <c r="D14" s="402"/>
-      <c r="E14" s="402"/>
-      <c r="F14" s="403"/>
-      <c r="G14" s="398"/>
-      <c r="H14" s="399"/>
-      <c r="I14" s="400"/>
-      <c r="J14" s="398"/>
-      <c r="K14" s="399"/>
-      <c r="L14" s="399"/>
-      <c r="M14" s="399"/>
-      <c r="N14" s="399"/>
-      <c r="O14" s="399"/>
-      <c r="P14" s="400"/>
-      <c r="Q14" s="407"/>
-      <c r="R14" s="409"/>
-      <c r="S14" s="407"/>
-      <c r="T14" s="408"/>
-      <c r="U14" s="409"/>
-      <c r="V14" s="390"/>
-      <c r="W14" s="391"/>
-      <c r="X14" s="391"/>
-      <c r="Y14" s="391"/>
-      <c r="Z14" s="391"/>
-      <c r="AA14" s="391"/>
-      <c r="AB14" s="392"/>
-      <c r="AC14" s="430"/>
-      <c r="AD14" s="379"/>
-      <c r="AE14" s="380"/>
-      <c r="AF14" s="380"/>
-      <c r="AG14" s="381"/>
-      <c r="AH14" s="388"/>
-      <c r="AI14" s="389"/>
+      <c r="B14" s="427"/>
+      <c r="C14" s="428"/>
+      <c r="D14" s="428"/>
+      <c r="E14" s="428"/>
+      <c r="F14" s="429"/>
+      <c r="G14" s="370"/>
+      <c r="H14" s="371"/>
+      <c r="I14" s="372"/>
+      <c r="J14" s="370"/>
+      <c r="K14" s="371"/>
+      <c r="L14" s="371"/>
+      <c r="M14" s="371"/>
+      <c r="N14" s="371"/>
+      <c r="O14" s="371"/>
+      <c r="P14" s="372"/>
+      <c r="Q14" s="376"/>
+      <c r="R14" s="377"/>
+      <c r="S14" s="376"/>
+      <c r="T14" s="381"/>
+      <c r="U14" s="377"/>
+      <c r="V14" s="407"/>
+      <c r="W14" s="408"/>
+      <c r="X14" s="408"/>
+      <c r="Y14" s="408"/>
+      <c r="Z14" s="408"/>
+      <c r="AA14" s="408"/>
+      <c r="AB14" s="409"/>
+      <c r="AC14" s="436"/>
+      <c r="AD14" s="410"/>
+      <c r="AE14" s="411"/>
+      <c r="AF14" s="411"/>
+      <c r="AG14" s="412"/>
+      <c r="AH14" s="385"/>
+      <c r="AI14" s="386"/>
     </row>
     <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="126">
         <v>6</v>
       </c>
-      <c r="B15" s="401"/>
-      <c r="C15" s="402"/>
-      <c r="D15" s="402"/>
-      <c r="E15" s="402"/>
-      <c r="F15" s="403"/>
-      <c r="G15" s="398"/>
-      <c r="H15" s="399"/>
-      <c r="I15" s="400"/>
-      <c r="J15" s="398"/>
-      <c r="K15" s="399"/>
-      <c r="L15" s="399"/>
-      <c r="M15" s="399"/>
-      <c r="N15" s="399"/>
-      <c r="O15" s="399"/>
-      <c r="P15" s="400"/>
-      <c r="Q15" s="407"/>
-      <c r="R15" s="409"/>
-      <c r="S15" s="407"/>
-      <c r="T15" s="408"/>
-      <c r="U15" s="409"/>
-      <c r="V15" s="390"/>
-      <c r="W15" s="391"/>
-      <c r="X15" s="391"/>
-      <c r="Y15" s="391"/>
-      <c r="Z15" s="391"/>
-      <c r="AA15" s="391"/>
-      <c r="AB15" s="392"/>
-      <c r="AC15" s="430"/>
-      <c r="AD15" s="379"/>
-      <c r="AE15" s="380"/>
-      <c r="AF15" s="380"/>
-      <c r="AG15" s="381"/>
-      <c r="AH15" s="388"/>
-      <c r="AI15" s="389"/>
+      <c r="B15" s="427"/>
+      <c r="C15" s="428"/>
+      <c r="D15" s="428"/>
+      <c r="E15" s="428"/>
+      <c r="F15" s="429"/>
+      <c r="G15" s="370"/>
+      <c r="H15" s="371"/>
+      <c r="I15" s="372"/>
+      <c r="J15" s="370"/>
+      <c r="K15" s="371"/>
+      <c r="L15" s="371"/>
+      <c r="M15" s="371"/>
+      <c r="N15" s="371"/>
+      <c r="O15" s="371"/>
+      <c r="P15" s="372"/>
+      <c r="Q15" s="376"/>
+      <c r="R15" s="377"/>
+      <c r="S15" s="376"/>
+      <c r="T15" s="381"/>
+      <c r="U15" s="377"/>
+      <c r="V15" s="407"/>
+      <c r="W15" s="408"/>
+      <c r="X15" s="408"/>
+      <c r="Y15" s="408"/>
+      <c r="Z15" s="408"/>
+      <c r="AA15" s="408"/>
+      <c r="AB15" s="409"/>
+      <c r="AC15" s="436"/>
+      <c r="AD15" s="410"/>
+      <c r="AE15" s="411"/>
+      <c r="AF15" s="411"/>
+      <c r="AG15" s="412"/>
+      <c r="AH15" s="385"/>
+      <c r="AI15" s="386"/>
     </row>
     <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="127">
         <v>7</v>
       </c>
-      <c r="B16" s="401"/>
-      <c r="C16" s="402"/>
-      <c r="D16" s="402"/>
-      <c r="E16" s="402"/>
-      <c r="F16" s="403"/>
-      <c r="G16" s="398"/>
-      <c r="H16" s="399"/>
-      <c r="I16" s="400"/>
-      <c r="J16" s="398"/>
-      <c r="K16" s="399"/>
-      <c r="L16" s="399"/>
-      <c r="M16" s="399"/>
-      <c r="N16" s="399"/>
-      <c r="O16" s="399"/>
-      <c r="P16" s="400"/>
-      <c r="Q16" s="407"/>
-      <c r="R16" s="409"/>
-      <c r="S16" s="407"/>
-      <c r="T16" s="408"/>
-      <c r="U16" s="409"/>
-      <c r="V16" s="390"/>
-      <c r="W16" s="391"/>
-      <c r="X16" s="391"/>
-      <c r="Y16" s="391"/>
-      <c r="Z16" s="391"/>
-      <c r="AA16" s="391"/>
-      <c r="AB16" s="392"/>
-      <c r="AC16" s="430"/>
-      <c r="AD16" s="379"/>
-      <c r="AE16" s="380"/>
-      <c r="AF16" s="380"/>
-      <c r="AG16" s="381"/>
-      <c r="AH16" s="388"/>
-      <c r="AI16" s="389"/>
+      <c r="B16" s="427"/>
+      <c r="C16" s="428"/>
+      <c r="D16" s="428"/>
+      <c r="E16" s="428"/>
+      <c r="F16" s="429"/>
+      <c r="G16" s="370"/>
+      <c r="H16" s="371"/>
+      <c r="I16" s="372"/>
+      <c r="J16" s="370"/>
+      <c r="K16" s="371"/>
+      <c r="L16" s="371"/>
+      <c r="M16" s="371"/>
+      <c r="N16" s="371"/>
+      <c r="O16" s="371"/>
+      <c r="P16" s="372"/>
+      <c r="Q16" s="376"/>
+      <c r="R16" s="377"/>
+      <c r="S16" s="376"/>
+      <c r="T16" s="381"/>
+      <c r="U16" s="377"/>
+      <c r="V16" s="407"/>
+      <c r="W16" s="408"/>
+      <c r="X16" s="408"/>
+      <c r="Y16" s="408"/>
+      <c r="Z16" s="408"/>
+      <c r="AA16" s="408"/>
+      <c r="AB16" s="409"/>
+      <c r="AC16" s="436"/>
+      <c r="AD16" s="410"/>
+      <c r="AE16" s="411"/>
+      <c r="AF16" s="411"/>
+      <c r="AG16" s="412"/>
+      <c r="AH16" s="385"/>
+      <c r="AI16" s="386"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="127">
         <v>8</v>
       </c>
-      <c r="B17" s="401"/>
-      <c r="C17" s="402"/>
-      <c r="D17" s="402"/>
-      <c r="E17" s="402"/>
-      <c r="F17" s="403"/>
-      <c r="G17" s="398"/>
-      <c r="H17" s="399"/>
-      <c r="I17" s="400"/>
-      <c r="J17" s="398"/>
-      <c r="K17" s="399"/>
-      <c r="L17" s="399"/>
-      <c r="M17" s="399"/>
-      <c r="N17" s="399"/>
-      <c r="O17" s="399"/>
-      <c r="P17" s="400"/>
-      <c r="Q17" s="407"/>
-      <c r="R17" s="409"/>
-      <c r="S17" s="407"/>
-      <c r="T17" s="408"/>
-      <c r="U17" s="409"/>
-      <c r="V17" s="390"/>
-      <c r="W17" s="391"/>
-      <c r="X17" s="391"/>
-      <c r="Y17" s="391"/>
-      <c r="Z17" s="391"/>
-      <c r="AA17" s="391"/>
-      <c r="AB17" s="392"/>
-      <c r="AC17" s="430"/>
-      <c r="AD17" s="379"/>
-      <c r="AE17" s="380"/>
-      <c r="AF17" s="380"/>
-      <c r="AG17" s="381"/>
-      <c r="AH17" s="388"/>
-      <c r="AI17" s="389"/>
+      <c r="B17" s="427"/>
+      <c r="C17" s="428"/>
+      <c r="D17" s="428"/>
+      <c r="E17" s="428"/>
+      <c r="F17" s="429"/>
+      <c r="G17" s="370"/>
+      <c r="H17" s="371"/>
+      <c r="I17" s="372"/>
+      <c r="J17" s="370"/>
+      <c r="K17" s="371"/>
+      <c r="L17" s="371"/>
+      <c r="M17" s="371"/>
+      <c r="N17" s="371"/>
+      <c r="O17" s="371"/>
+      <c r="P17" s="372"/>
+      <c r="Q17" s="376"/>
+      <c r="R17" s="377"/>
+      <c r="S17" s="376"/>
+      <c r="T17" s="381"/>
+      <c r="U17" s="377"/>
+      <c r="V17" s="407"/>
+      <c r="W17" s="408"/>
+      <c r="X17" s="408"/>
+      <c r="Y17" s="408"/>
+      <c r="Z17" s="408"/>
+      <c r="AA17" s="408"/>
+      <c r="AB17" s="409"/>
+      <c r="AC17" s="436"/>
+      <c r="AD17" s="410"/>
+      <c r="AE17" s="411"/>
+      <c r="AF17" s="411"/>
+      <c r="AG17" s="412"/>
+      <c r="AH17" s="385"/>
+      <c r="AI17" s="386"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="128">
         <v>9</v>
       </c>
-      <c r="B18" s="424"/>
-      <c r="C18" s="425"/>
-      <c r="D18" s="425"/>
-      <c r="E18" s="425"/>
-      <c r="F18" s="426"/>
-      <c r="G18" s="421"/>
-      <c r="H18" s="422"/>
-      <c r="I18" s="423"/>
-      <c r="J18" s="421"/>
-      <c r="K18" s="422"/>
-      <c r="L18" s="422"/>
-      <c r="M18" s="422"/>
-      <c r="N18" s="422"/>
-      <c r="O18" s="422"/>
-      <c r="P18" s="423"/>
-      <c r="Q18" s="418"/>
-      <c r="R18" s="420"/>
-      <c r="S18" s="418"/>
-      <c r="T18" s="419"/>
-      <c r="U18" s="420"/>
-      <c r="V18" s="413"/>
-      <c r="W18" s="414"/>
-      <c r="X18" s="414"/>
-      <c r="Y18" s="414"/>
-      <c r="Z18" s="414"/>
-      <c r="AA18" s="414"/>
-      <c r="AB18" s="415"/>
-      <c r="AC18" s="431"/>
-      <c r="AD18" s="370"/>
-      <c r="AE18" s="371"/>
-      <c r="AF18" s="371"/>
-      <c r="AG18" s="372"/>
-      <c r="AH18" s="427"/>
-      <c r="AI18" s="428"/>
+      <c r="B18" s="430"/>
+      <c r="C18" s="431"/>
+      <c r="D18" s="431"/>
+      <c r="E18" s="431"/>
+      <c r="F18" s="432"/>
+      <c r="G18" s="424"/>
+      <c r="H18" s="425"/>
+      <c r="I18" s="426"/>
+      <c r="J18" s="424"/>
+      <c r="K18" s="425"/>
+      <c r="L18" s="425"/>
+      <c r="M18" s="425"/>
+      <c r="N18" s="425"/>
+      <c r="O18" s="425"/>
+      <c r="P18" s="426"/>
+      <c r="Q18" s="421"/>
+      <c r="R18" s="423"/>
+      <c r="S18" s="421"/>
+      <c r="T18" s="422"/>
+      <c r="U18" s="423"/>
+      <c r="V18" s="416"/>
+      <c r="W18" s="417"/>
+      <c r="X18" s="417"/>
+      <c r="Y18" s="417"/>
+      <c r="Z18" s="417"/>
+      <c r="AA18" s="417"/>
+      <c r="AB18" s="418"/>
+      <c r="AC18" s="437"/>
+      <c r="AD18" s="444"/>
+      <c r="AE18" s="445"/>
+      <c r="AF18" s="445"/>
+      <c r="AG18" s="446"/>
+      <c r="AH18" s="433"/>
+      <c r="AI18" s="434"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="416"/>
-      <c r="B19" s="417"/>
-      <c r="C19" s="417"/>
-      <c r="D19" s="417"/>
-      <c r="E19" s="417"/>
-      <c r="F19" s="417"/>
+      <c r="A19" s="419"/>
+      <c r="B19" s="420"/>
+      <c r="C19" s="420"/>
+      <c r="D19" s="420"/>
+      <c r="E19" s="420"/>
+      <c r="F19" s="420"/>
       <c r="G19" s="129"/>
       <c r="H19" s="129"/>
       <c r="I19" s="129"/>
@@ -12295,23 +12310,23 @@
       <c r="AA19" s="129"/>
       <c r="AB19" s="129"/>
       <c r="AC19" s="130"/>
-      <c r="AD19" s="412"/>
-      <c r="AE19" s="412"/>
-      <c r="AF19" s="412"/>
-      <c r="AG19" s="412"/>
-      <c r="AH19" s="412"/>
+      <c r="AD19" s="415"/>
+      <c r="AE19" s="415"/>
+      <c r="AF19" s="415"/>
+      <c r="AG19" s="415"/>
+      <c r="AH19" s="415"/>
       <c r="AI19" s="65"/>
       <c r="AJ19" s="131"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="410" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="411"/>
-      <c r="C20" s="411"/>
-      <c r="D20" s="411"/>
-      <c r="E20" s="411"/>
-      <c r="F20" s="411"/>
+      <c r="A20" s="413" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="414"/>
+      <c r="C20" s="414"/>
+      <c r="D20" s="414"/>
+      <c r="E20" s="414"/>
+      <c r="F20" s="414"/>
       <c r="G20" s="132"/>
       <c r="H20" s="133"/>
       <c r="I20" s="133"/>
@@ -12858,20 +12873,72 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AH16:AI16"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
@@ -12896,72 +12963,20 @@
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="V10:AB10"/>
     <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -13000,163 +13015,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="305" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="314" t="str">
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="308" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
-      <c r="N1" s="316"/>
-      <c r="O1" s="317" t="s">
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
+      <c r="M1" s="309"/>
+      <c r="N1" s="310"/>
+      <c r="O1" s="311" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="318"/>
-      <c r="Q1" s="318"/>
-      <c r="R1" s="319"/>
-      <c r="S1" s="304" t="str">
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="296" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="305"/>
-      <c r="U1" s="305"/>
-      <c r="V1" s="305"/>
-      <c r="W1" s="305"/>
-      <c r="X1" s="305"/>
-      <c r="Y1" s="305"/>
-      <c r="Z1" s="306"/>
-      <c r="AA1" s="302" t="s">
+      <c r="T1" s="297"/>
+      <c r="U1" s="297"/>
+      <c r="V1" s="297"/>
+      <c r="W1" s="297"/>
+      <c r="X1" s="297"/>
+      <c r="Y1" s="297"/>
+      <c r="Z1" s="298"/>
+      <c r="AA1" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="303"/>
-      <c r="AC1" s="299" t="str">
+      <c r="AB1" s="307"/>
+      <c r="AC1" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="300"/>
-      <c r="AE1" s="300"/>
-      <c r="AF1" s="301"/>
-      <c r="AG1" s="326">
+      <c r="AD1" s="324"/>
+      <c r="AE1" s="324"/>
+      <c r="AF1" s="325"/>
+      <c r="AG1" s="367">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="327"/>
-      <c r="AI1" s="328"/>
+      <c r="AH1" s="368"/>
+      <c r="AI1" s="369"/>
     </row>
     <row r="2" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="305" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="314" t="str">
+      <c r="B2" s="306"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="308" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="315"/>
-      <c r="G2" s="315"/>
-      <c r="H2" s="315"/>
-      <c r="I2" s="315"/>
-      <c r="J2" s="315"/>
-      <c r="K2" s="315"/>
-      <c r="L2" s="315"/>
-      <c r="M2" s="315"/>
-      <c r="N2" s="316"/>
-      <c r="O2" s="320"/>
-      <c r="P2" s="321"/>
-      <c r="Q2" s="321"/>
-      <c r="R2" s="322"/>
-      <c r="S2" s="307"/>
-      <c r="T2" s="308"/>
-      <c r="U2" s="308"/>
-      <c r="V2" s="308"/>
-      <c r="W2" s="308"/>
-      <c r="X2" s="308"/>
-      <c r="Y2" s="308"/>
-      <c r="Z2" s="309"/>
-      <c r="AA2" s="302" t="s">
+      <c r="F2" s="309"/>
+      <c r="G2" s="309"/>
+      <c r="H2" s="309"/>
+      <c r="I2" s="309"/>
+      <c r="J2" s="309"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="309"/>
+      <c r="M2" s="309"/>
+      <c r="N2" s="310"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="315"/>
+      <c r="Q2" s="315"/>
+      <c r="R2" s="316"/>
+      <c r="S2" s="299"/>
+      <c r="T2" s="300"/>
+      <c r="U2" s="300"/>
+      <c r="V2" s="300"/>
+      <c r="W2" s="300"/>
+      <c r="X2" s="300"/>
+      <c r="Y2" s="300"/>
+      <c r="Z2" s="301"/>
+      <c r="AA2" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="303"/>
-      <c r="AC2" s="299" t="str">
+      <c r="AB2" s="307"/>
+      <c r="AC2" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="300"/>
-      <c r="AE2" s="300"/>
-      <c r="AF2" s="301"/>
-      <c r="AG2" s="326" t="str">
+      <c r="AD2" s="324"/>
+      <c r="AE2" s="324"/>
+      <c r="AF2" s="325"/>
+      <c r="AG2" s="367" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="327"/>
-      <c r="AI2" s="328"/>
+      <c r="AH2" s="368"/>
+      <c r="AI2" s="369"/>
     </row>
     <row r="3" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="305" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="314" t="str">
+      <c r="B3" s="306"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="308" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="316"/>
-      <c r="O3" s="323"/>
-      <c r="P3" s="324"/>
-      <c r="Q3" s="324"/>
-      <c r="R3" s="325"/>
-      <c r="S3" s="310"/>
-      <c r="T3" s="311"/>
-      <c r="U3" s="311"/>
-      <c r="V3" s="311"/>
-      <c r="W3" s="311"/>
-      <c r="X3" s="311"/>
-      <c r="Y3" s="311"/>
-      <c r="Z3" s="312"/>
-      <c r="AA3" s="302"/>
-      <c r="AB3" s="303"/>
-      <c r="AC3" s="299" t="str">
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="310"/>
+      <c r="O3" s="317"/>
+      <c r="P3" s="318"/>
+      <c r="Q3" s="318"/>
+      <c r="R3" s="319"/>
+      <c r="S3" s="302"/>
+      <c r="T3" s="303"/>
+      <c r="U3" s="303"/>
+      <c r="V3" s="303"/>
+      <c r="W3" s="303"/>
+      <c r="X3" s="303"/>
+      <c r="Y3" s="303"/>
+      <c r="Z3" s="304"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="307"/>
+      <c r="AC3" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="300"/>
-      <c r="AE3" s="300"/>
-      <c r="AF3" s="301"/>
-      <c r="AG3" s="326" t="str">
+      <c r="AD3" s="324"/>
+      <c r="AE3" s="324"/>
+      <c r="AF3" s="325"/>
+      <c r="AG3" s="367" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="327"/>
-      <c r="AI3" s="328"/>
+      <c r="AH3" s="368"/>
+      <c r="AI3" s="369"/>
     </row>
     <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
@@ -13197,60 +13212,60 @@
       <c r="A7" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="469" t="s">
+      <c r="B7" s="477" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="470"/>
-      <c r="D7" s="470"/>
-      <c r="E7" s="470"/>
-      <c r="F7" s="471"/>
-      <c r="G7" s="469" t="s">
+      <c r="C7" s="478"/>
+      <c r="D7" s="478"/>
+      <c r="E7" s="478"/>
+      <c r="F7" s="479"/>
+      <c r="G7" s="477" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="470"/>
-      <c r="I7" s="470"/>
-      <c r="J7" s="470"/>
-      <c r="K7" s="471"/>
-      <c r="L7" s="469" t="s">
+      <c r="H7" s="478"/>
+      <c r="I7" s="478"/>
+      <c r="J7" s="478"/>
+      <c r="K7" s="479"/>
+      <c r="L7" s="477" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="470"/>
-      <c r="N7" s="470"/>
-      <c r="O7" s="470"/>
-      <c r="P7" s="471"/>
+      <c r="M7" s="478"/>
+      <c r="N7" s="478"/>
+      <c r="O7" s="478"/>
+      <c r="P7" s="479"/>
       <c r="Q7" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="R7" s="479" t="s">
+        <v>131</v>
+      </c>
+      <c r="R7" s="471" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="479"/>
-      <c r="T7" s="479"/>
-      <c r="U7" s="479"/>
-      <c r="V7" s="480" t="s">
+      <c r="S7" s="471"/>
+      <c r="T7" s="471"/>
+      <c r="U7" s="471"/>
+      <c r="V7" s="472" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="481"/>
-      <c r="X7" s="480" t="s">
+      <c r="W7" s="473"/>
+      <c r="X7" s="472" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="481"/>
-      <c r="Z7" s="469" t="s">
+      <c r="Y7" s="473"/>
+      <c r="Z7" s="477" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="470"/>
-      <c r="AB7" s="471"/>
-      <c r="AC7" s="469" t="s">
+      <c r="AA7" s="478"/>
+      <c r="AB7" s="479"/>
+      <c r="AC7" s="477" t="s">
         <v>73</v>
       </c>
-      <c r="AD7" s="470"/>
-      <c r="AE7" s="470"/>
-      <c r="AF7" s="470"/>
-      <c r="AG7" s="470"/>
-      <c r="AH7" s="470"/>
-      <c r="AI7" s="470"/>
-      <c r="AJ7" s="470"/>
-      <c r="AK7" s="471"/>
+      <c r="AD7" s="478"/>
+      <c r="AE7" s="478"/>
+      <c r="AF7" s="478"/>
+      <c r="AG7" s="478"/>
+      <c r="AH7" s="478"/>
+      <c r="AI7" s="478"/>
+      <c r="AJ7" s="478"/>
+      <c r="AK7" s="479"/>
       <c r="AL7" s="65"/>
       <c r="AM7" s="65"/>
       <c r="AN7" s="65"/>
@@ -13310,48 +13325,48 @@
       <c r="A8" s="67">
         <v>1</v>
       </c>
-      <c r="B8" s="461" t="s">
+      <c r="B8" s="458" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="462"/>
-      <c r="D8" s="462"/>
-      <c r="E8" s="462"/>
-      <c r="F8" s="463"/>
-      <c r="G8" s="458" t="s">
+      <c r="C8" s="459"/>
+      <c r="D8" s="459"/>
+      <c r="E8" s="459"/>
+      <c r="F8" s="460"/>
+      <c r="G8" s="461" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="459"/>
-      <c r="I8" s="459"/>
-      <c r="J8" s="459"/>
-      <c r="K8" s="460"/>
-      <c r="L8" s="461"/>
-      <c r="M8" s="462"/>
-      <c r="N8" s="462"/>
-      <c r="O8" s="462"/>
-      <c r="P8" s="463"/>
+      <c r="H8" s="462"/>
+      <c r="I8" s="462"/>
+      <c r="J8" s="462"/>
+      <c r="K8" s="463"/>
+      <c r="L8" s="458"/>
+      <c r="M8" s="459"/>
+      <c r="N8" s="459"/>
+      <c r="O8" s="459"/>
+      <c r="P8" s="460"/>
       <c r="Q8" s="68"/>
-      <c r="R8" s="461"/>
-      <c r="S8" s="462"/>
-      <c r="T8" s="462"/>
-      <c r="U8" s="463"/>
-      <c r="V8" s="467" t="s">
+      <c r="R8" s="458"/>
+      <c r="S8" s="459"/>
+      <c r="T8" s="459"/>
+      <c r="U8" s="460"/>
+      <c r="V8" s="464" t="s">
         <v>76</v>
       </c>
-      <c r="W8" s="468"/>
-      <c r="X8" s="472"/>
-      <c r="Y8" s="473"/>
-      <c r="Z8" s="461"/>
-      <c r="AA8" s="462"/>
-      <c r="AB8" s="463"/>
-      <c r="AC8" s="461"/>
-      <c r="AD8" s="462"/>
-      <c r="AE8" s="462"/>
-      <c r="AF8" s="462"/>
-      <c r="AG8" s="462"/>
-      <c r="AH8" s="462"/>
-      <c r="AI8" s="462"/>
-      <c r="AJ8" s="462"/>
-      <c r="AK8" s="463"/>
+      <c r="W8" s="465"/>
+      <c r="X8" s="480"/>
+      <c r="Y8" s="481"/>
+      <c r="Z8" s="458"/>
+      <c r="AA8" s="459"/>
+      <c r="AB8" s="460"/>
+      <c r="AC8" s="458"/>
+      <c r="AD8" s="459"/>
+      <c r="AE8" s="459"/>
+      <c r="AF8" s="459"/>
+      <c r="AG8" s="459"/>
+      <c r="AH8" s="459"/>
+      <c r="AI8" s="459"/>
+      <c r="AJ8" s="459"/>
+      <c r="AK8" s="460"/>
       <c r="AL8" s="66"/>
       <c r="AM8" s="66"/>
       <c r="AN8" s="66"/>
@@ -13410,54 +13425,54 @@
       <c r="A9" s="67">
         <v>2</v>
       </c>
-      <c r="B9" s="461" t="s">
+      <c r="B9" s="458" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="462"/>
-      <c r="D9" s="462"/>
-      <c r="E9" s="462"/>
-      <c r="F9" s="463"/>
-      <c r="G9" s="458" t="s">
+      <c r="C9" s="459"/>
+      <c r="D9" s="459"/>
+      <c r="E9" s="459"/>
+      <c r="F9" s="460"/>
+      <c r="G9" s="461" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="459"/>
-      <c r="I9" s="459"/>
-      <c r="J9" s="459"/>
-      <c r="K9" s="460"/>
-      <c r="L9" s="461" t="s">
+      <c r="H9" s="462"/>
+      <c r="I9" s="462"/>
+      <c r="J9" s="462"/>
+      <c r="K9" s="463"/>
+      <c r="L9" s="458" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="462"/>
-      <c r="N9" s="462"/>
-      <c r="O9" s="462"/>
-      <c r="P9" s="463"/>
+      <c r="M9" s="459"/>
+      <c r="N9" s="459"/>
+      <c r="O9" s="459"/>
+      <c r="P9" s="460"/>
       <c r="Q9" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="R9" s="461" t="s">
+      <c r="R9" s="458" t="s">
         <v>80</v>
       </c>
-      <c r="S9" s="462"/>
-      <c r="T9" s="462"/>
-      <c r="U9" s="463"/>
-      <c r="V9" s="467">
+      <c r="S9" s="459"/>
+      <c r="T9" s="459"/>
+      <c r="U9" s="460"/>
+      <c r="V9" s="464">
         <v>1</v>
       </c>
-      <c r="W9" s="468"/>
-      <c r="X9" s="472"/>
-      <c r="Y9" s="473"/>
-      <c r="Z9" s="461"/>
-      <c r="AA9" s="462"/>
-      <c r="AB9" s="463"/>
-      <c r="AC9" s="461"/>
-      <c r="AD9" s="462"/>
-      <c r="AE9" s="462"/>
-      <c r="AF9" s="462"/>
-      <c r="AG9" s="462"/>
-      <c r="AH9" s="462"/>
-      <c r="AI9" s="462"/>
-      <c r="AJ9" s="462"/>
-      <c r="AK9" s="463"/>
+      <c r="W9" s="465"/>
+      <c r="X9" s="480"/>
+      <c r="Y9" s="481"/>
+      <c r="Z9" s="458"/>
+      <c r="AA9" s="459"/>
+      <c r="AB9" s="460"/>
+      <c r="AC9" s="458"/>
+      <c r="AD9" s="459"/>
+      <c r="AE9" s="459"/>
+      <c r="AF9" s="459"/>
+      <c r="AG9" s="459"/>
+      <c r="AH9" s="459"/>
+      <c r="AI9" s="459"/>
+      <c r="AJ9" s="459"/>
+      <c r="AK9" s="460"/>
       <c r="AL9" s="66"/>
       <c r="AM9" s="66"/>
       <c r="AN9" s="66"/>
@@ -13516,54 +13531,54 @@
       <c r="A10" s="67">
         <v>3</v>
       </c>
-      <c r="B10" s="461" t="s">
+      <c r="B10" s="458" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="462"/>
-      <c r="D10" s="462"/>
-      <c r="E10" s="462"/>
-      <c r="F10" s="463"/>
-      <c r="G10" s="458" t="s">
+      <c r="C10" s="459"/>
+      <c r="D10" s="459"/>
+      <c r="E10" s="459"/>
+      <c r="F10" s="460"/>
+      <c r="G10" s="461" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="459"/>
-      <c r="I10" s="459"/>
-      <c r="J10" s="459"/>
-      <c r="K10" s="460"/>
-      <c r="L10" s="461" t="s">
+      <c r="H10" s="462"/>
+      <c r="I10" s="462"/>
+      <c r="J10" s="462"/>
+      <c r="K10" s="463"/>
+      <c r="L10" s="458" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="462"/>
-      <c r="N10" s="462"/>
-      <c r="O10" s="462"/>
-      <c r="P10" s="463"/>
+      <c r="M10" s="459"/>
+      <c r="N10" s="459"/>
+      <c r="O10" s="459"/>
+      <c r="P10" s="460"/>
       <c r="Q10" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="R10" s="461" t="s">
+      <c r="R10" s="458" t="s">
         <v>83</v>
       </c>
-      <c r="S10" s="462"/>
-      <c r="T10" s="462"/>
-      <c r="U10" s="463"/>
-      <c r="V10" s="467">
+      <c r="S10" s="459"/>
+      <c r="T10" s="459"/>
+      <c r="U10" s="460"/>
+      <c r="V10" s="464">
         <v>1</v>
       </c>
-      <c r="W10" s="468"/>
-      <c r="X10" s="464"/>
-      <c r="Y10" s="466"/>
-      <c r="Z10" s="461"/>
-      <c r="AA10" s="462"/>
-      <c r="AB10" s="463"/>
-      <c r="AC10" s="461"/>
-      <c r="AD10" s="462"/>
-      <c r="AE10" s="462"/>
-      <c r="AF10" s="462"/>
-      <c r="AG10" s="462"/>
-      <c r="AH10" s="462"/>
-      <c r="AI10" s="462"/>
-      <c r="AJ10" s="462"/>
-      <c r="AK10" s="463"/>
+      <c r="W10" s="465"/>
+      <c r="X10" s="474"/>
+      <c r="Y10" s="476"/>
+      <c r="Z10" s="458"/>
+      <c r="AA10" s="459"/>
+      <c r="AB10" s="460"/>
+      <c r="AC10" s="458"/>
+      <c r="AD10" s="459"/>
+      <c r="AE10" s="459"/>
+      <c r="AF10" s="459"/>
+      <c r="AG10" s="459"/>
+      <c r="AH10" s="459"/>
+      <c r="AI10" s="459"/>
+      <c r="AJ10" s="459"/>
+      <c r="AK10" s="460"/>
       <c r="AL10" s="66"/>
       <c r="AM10" s="66"/>
       <c r="AN10" s="66"/>
@@ -13622,40 +13637,40 @@
       <c r="A11" s="67">
         <v>4</v>
       </c>
-      <c r="B11" s="461" t="s">
+      <c r="B11" s="458" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="462"/>
-      <c r="D11" s="462"/>
-      <c r="E11" s="462"/>
-      <c r="F11" s="463"/>
-      <c r="G11" s="458" t="s">
+      <c r="C11" s="459"/>
+      <c r="D11" s="459"/>
+      <c r="E11" s="459"/>
+      <c r="F11" s="460"/>
+      <c r="G11" s="461" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="459"/>
-      <c r="I11" s="459"/>
-      <c r="J11" s="459"/>
-      <c r="K11" s="460"/>
-      <c r="L11" s="461" t="s">
+      <c r="H11" s="462"/>
+      <c r="I11" s="462"/>
+      <c r="J11" s="462"/>
+      <c r="K11" s="463"/>
+      <c r="L11" s="458" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="462"/>
-      <c r="N11" s="462"/>
-      <c r="O11" s="462"/>
-      <c r="P11" s="463"/>
+      <c r="M11" s="459"/>
+      <c r="N11" s="459"/>
+      <c r="O11" s="459"/>
+      <c r="P11" s="460"/>
       <c r="Q11" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="R11" s="461" t="s">
+      <c r="R11" s="458" t="s">
         <v>80</v>
       </c>
-      <c r="S11" s="462"/>
-      <c r="T11" s="462"/>
-      <c r="U11" s="463"/>
-      <c r="V11" s="467">
+      <c r="S11" s="459"/>
+      <c r="T11" s="459"/>
+      <c r="U11" s="460"/>
+      <c r="V11" s="464">
         <v>1</v>
       </c>
-      <c r="W11" s="468"/>
+      <c r="W11" s="465"/>
       <c r="X11" s="69"/>
       <c r="Y11" s="70"/>
       <c r="Z11" s="71"/>
@@ -13726,28 +13741,28 @@
     </row>
     <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="67"/>
-      <c r="B12" s="461"/>
-      <c r="C12" s="462"/>
-      <c r="D12" s="462"/>
-      <c r="E12" s="462"/>
-      <c r="F12" s="463"/>
-      <c r="G12" s="464"/>
-      <c r="H12" s="465"/>
-      <c r="I12" s="465"/>
-      <c r="J12" s="465"/>
-      <c r="K12" s="466"/>
-      <c r="L12" s="464"/>
-      <c r="M12" s="465"/>
-      <c r="N12" s="465"/>
-      <c r="O12" s="465"/>
-      <c r="P12" s="466"/>
+      <c r="B12" s="458"/>
+      <c r="C12" s="459"/>
+      <c r="D12" s="459"/>
+      <c r="E12" s="459"/>
+      <c r="F12" s="460"/>
+      <c r="G12" s="474"/>
+      <c r="H12" s="475"/>
+      <c r="I12" s="475"/>
+      <c r="J12" s="475"/>
+      <c r="K12" s="476"/>
+      <c r="L12" s="474"/>
+      <c r="M12" s="475"/>
+      <c r="N12" s="475"/>
+      <c r="O12" s="475"/>
+      <c r="P12" s="476"/>
       <c r="Q12" s="68"/>
-      <c r="R12" s="461"/>
-      <c r="S12" s="462"/>
-      <c r="T12" s="462"/>
-      <c r="U12" s="463"/>
-      <c r="V12" s="467"/>
-      <c r="W12" s="468"/>
+      <c r="R12" s="458"/>
+      <c r="S12" s="459"/>
+      <c r="T12" s="459"/>
+      <c r="U12" s="460"/>
+      <c r="V12" s="464"/>
+      <c r="W12" s="465"/>
       <c r="X12" s="69"/>
       <c r="Y12" s="70"/>
       <c r="Z12" s="71"/>
@@ -13919,47 +13934,47 @@
       <c r="CR14" s="81"/>
     </row>
     <row r="15" spans="1:96" s="87" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="474" t="s">
+      <c r="A15" s="466" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="467"/>
+      <c r="C15" s="467"/>
+      <c r="D15" s="467"/>
+      <c r="E15" s="467"/>
+      <c r="F15" s="467"/>
+      <c r="G15" s="467"/>
+      <c r="H15" s="467"/>
+      <c r="I15" s="467"/>
+      <c r="J15" s="467"/>
+      <c r="K15" s="467"/>
+      <c r="L15" s="467"/>
+      <c r="M15" s="467"/>
+      <c r="N15" s="467"/>
+      <c r="O15" s="467"/>
+      <c r="P15" s="467"/>
+      <c r="Q15" s="467"/>
+      <c r="R15" s="467"/>
+      <c r="S15" s="467"/>
+      <c r="T15" s="467"/>
+      <c r="U15" s="467"/>
+      <c r="V15" s="467"/>
+      <c r="W15" s="467"/>
+      <c r="X15" s="467"/>
+      <c r="Y15" s="468" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="475"/>
-      <c r="C15" s="475"/>
-      <c r="D15" s="475"/>
-      <c r="E15" s="475"/>
-      <c r="F15" s="475"/>
-      <c r="G15" s="475"/>
-      <c r="H15" s="475"/>
-      <c r="I15" s="475"/>
-      <c r="J15" s="475"/>
-      <c r="K15" s="475"/>
-      <c r="L15" s="475"/>
-      <c r="M15" s="475"/>
-      <c r="N15" s="475"/>
-      <c r="O15" s="475"/>
-      <c r="P15" s="475"/>
-      <c r="Q15" s="475"/>
-      <c r="R15" s="475"/>
-      <c r="S15" s="475"/>
-      <c r="T15" s="475"/>
-      <c r="U15" s="475"/>
-      <c r="V15" s="475"/>
-      <c r="W15" s="475"/>
-      <c r="X15" s="475"/>
-      <c r="Y15" s="476" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z15" s="477"/>
-      <c r="AA15" s="477"/>
-      <c r="AB15" s="477"/>
-      <c r="AC15" s="477"/>
-      <c r="AD15" s="477"/>
-      <c r="AE15" s="477"/>
-      <c r="AF15" s="477"/>
-      <c r="AG15" s="477"/>
-      <c r="AH15" s="477"/>
-      <c r="AI15" s="477"/>
-      <c r="AJ15" s="477"/>
-      <c r="AK15" s="478"/>
+      <c r="Z15" s="469"/>
+      <c r="AA15" s="469"/>
+      <c r="AB15" s="469"/>
+      <c r="AC15" s="469"/>
+      <c r="AD15" s="469"/>
+      <c r="AE15" s="469"/>
+      <c r="AF15" s="469"/>
+      <c r="AG15" s="469"/>
+      <c r="AH15" s="469"/>
+      <c r="AI15" s="469"/>
+      <c r="AJ15" s="469"/>
+      <c r="AK15" s="470"/>
     </row>
     <row r="16" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="88"/>
@@ -14606,11 +14621,46 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="A15:X15"/>
     <mergeCell ref="Y15:AK15"/>
     <mergeCell ref="R7:U7"/>
@@ -14627,46 +14677,11 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="AC7:AK7"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="2">

--- a/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10101P_Customer_Search_Response_Message_(JSON).xlsx
+++ b/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10101P_Customer_Search_Response_Message_(JSON).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3536AF3-6A53-416E-A3CA-7A67AB1E42F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A7B8AC-D9C9-4474-BF14-A257401399F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2970" windowWidth="24000" windowHeight="10575" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2700" windowWidth="25530" windowHeight="9795" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" state="hidden" r:id="rId1"/>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t>client_id</t>
-  </si>
-  <si>
-    <t>○</t>
   </si>
   <si>
     <t>Numbers</t>
@@ -723,6 +720,9 @@
   <si>
     <t>3.1. Client list</t>
     <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -2173,9 +2173,153 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2215,134 +2359,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2362,77 +2449,128 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2443,128 +2581,227 @@
     <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2593,15 +2830,6 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2614,220 +2842,16 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2839,14 +2863,35 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2857,65 +2902,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6150,12 +6150,12 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="237">
+      <c r="I25" s="242">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43718</v>
       </c>
-      <c r="J25" s="237"/>
-      <c r="K25" s="237"/>
+      <c r="J25" s="242"/>
+      <c r="K25" s="242"/>
       <c r="L25" s="33"/>
     </row>
     <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6786,155 +6786,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="286" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="253" t="s">
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="241" t="s">
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="289" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="242"/>
-      <c r="Q1" s="242"/>
-      <c r="R1" s="243"/>
-      <c r="S1" s="285" t="s">
+      <c r="P1" s="290"/>
+      <c r="Q1" s="290"/>
+      <c r="R1" s="291"/>
+      <c r="S1" s="255" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="286"/>
-      <c r="U1" s="286"/>
-      <c r="V1" s="286"/>
-      <c r="W1" s="286"/>
-      <c r="X1" s="286"/>
-      <c r="Y1" s="286"/>
-      <c r="Z1" s="287"/>
-      <c r="AA1" s="238" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="240"/>
-      <c r="AC1" s="276" t="str">
+      <c r="AB1" s="288"/>
+      <c r="AC1" s="243" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="277"/>
-      <c r="AE1" s="277"/>
-      <c r="AF1" s="278"/>
-      <c r="AG1" s="279">
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="245"/>
+      <c r="AG1" s="246">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="280"/>
-      <c r="AI1" s="281"/>
+      <c r="AH1" s="247"/>
+      <c r="AI1" s="248"/>
       <c r="AK1" s="25"/>
       <c r="AL1" s="25"/>
       <c r="AM1" s="25"/>
       <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="286" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="253" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="249" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="288"/>
-      <c r="T2" s="289"/>
-      <c r="U2" s="289"/>
-      <c r="V2" s="289"/>
-      <c r="W2" s="289"/>
-      <c r="X2" s="289"/>
-      <c r="Y2" s="289"/>
-      <c r="Z2" s="290"/>
-      <c r="AA2" s="238" t="s">
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="292"/>
+      <c r="P2" s="293"/>
+      <c r="Q2" s="293"/>
+      <c r="R2" s="294"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="286" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="240"/>
-      <c r="AC2" s="282" t="str">
+      <c r="AB2" s="288"/>
+      <c r="AC2" s="252" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="283"/>
-      <c r="AE2" s="283"/>
-      <c r="AF2" s="284"/>
-      <c r="AG2" s="279" t="str">
+      <c r="AD2" s="253"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="254"/>
+      <c r="AG2" s="246" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="280"/>
-      <c r="AI2" s="281"/>
+      <c r="AH2" s="247"/>
+      <c r="AI2" s="248"/>
       <c r="AK2" s="25"/>
       <c r="AL2" s="25"/>
       <c r="AM2" s="25"/>
       <c r="AN2" s="25"/>
     </row>
     <row r="3" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="286" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="250" t="s">
+      <c r="B3" s="287"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="298" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="252"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="248"/>
-      <c r="Q3" s="248"/>
-      <c r="R3" s="249"/>
-      <c r="S3" s="291"/>
-      <c r="T3" s="292"/>
-      <c r="U3" s="292"/>
-      <c r="V3" s="292"/>
-      <c r="W3" s="292"/>
-      <c r="X3" s="292"/>
-      <c r="Y3" s="292"/>
-      <c r="Z3" s="293"/>
-      <c r="AA3" s="238"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="276"/>
-      <c r="AD3" s="277"/>
-      <c r="AE3" s="277"/>
-      <c r="AF3" s="278"/>
-      <c r="AG3" s="279"/>
-      <c r="AH3" s="280"/>
-      <c r="AI3" s="281"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="295"/>
+      <c r="P3" s="296"/>
+      <c r="Q3" s="296"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="286"/>
+      <c r="AB3" s="288"/>
+      <c r="AC3" s="243"/>
+      <c r="AD3" s="244"/>
+      <c r="AE3" s="244"/>
+      <c r="AF3" s="245"/>
+      <c r="AG3" s="246"/>
+      <c r="AH3" s="247"/>
+      <c r="AI3" s="248"/>
       <c r="AK3" s="25"/>
       <c r="AL3" s="25"/>
       <c r="AM3" s="25"/>
@@ -6981,98 +6981,98 @@
       <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="263" t="s">
+      <c r="B7" s="264" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="265"/>
-      <c r="D7" s="263" t="s">
+      <c r="C7" s="266"/>
+      <c r="D7" s="264" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="264"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="263" t="s">
+      <c r="E7" s="265"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="264"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="275" t="s">
+      <c r="H7" s="265"/>
+      <c r="I7" s="266"/>
+      <c r="J7" s="285" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="264"/>
-      <c r="L7" s="264"/>
-      <c r="M7" s="264"/>
-      <c r="N7" s="264"/>
-      <c r="O7" s="264"/>
-      <c r="P7" s="265"/>
-      <c r="Q7" s="263" t="s">
+      <c r="K7" s="265"/>
+      <c r="L7" s="265"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="265"/>
+      <c r="P7" s="266"/>
+      <c r="Q7" s="264" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="264"/>
-      <c r="S7" s="264"/>
-      <c r="T7" s="264"/>
-      <c r="U7" s="264"/>
-      <c r="V7" s="264"/>
-      <c r="W7" s="264"/>
-      <c r="X7" s="264"/>
-      <c r="Y7" s="264"/>
-      <c r="Z7" s="264"/>
-      <c r="AA7" s="264"/>
-      <c r="AB7" s="264"/>
-      <c r="AC7" s="264"/>
-      <c r="AD7" s="264"/>
-      <c r="AE7" s="265"/>
-      <c r="AF7" s="263" t="s">
+      <c r="R7" s="265"/>
+      <c r="S7" s="265"/>
+      <c r="T7" s="265"/>
+      <c r="U7" s="265"/>
+      <c r="V7" s="265"/>
+      <c r="W7" s="265"/>
+      <c r="X7" s="265"/>
+      <c r="Y7" s="265"/>
+      <c r="Z7" s="265"/>
+      <c r="AA7" s="265"/>
+      <c r="AB7" s="265"/>
+      <c r="AC7" s="265"/>
+      <c r="AD7" s="265"/>
+      <c r="AE7" s="266"/>
+      <c r="AF7" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="264"/>
-      <c r="AH7" s="264"/>
-      <c r="AI7" s="265"/>
+      <c r="AG7" s="265"/>
+      <c r="AH7" s="265"/>
+      <c r="AI7" s="266"/>
       <c r="AJ7" s="18"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="57">
         <v>1</v>
       </c>
-      <c r="B8" s="266" t="s">
+      <c r="B8" s="276" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="267"/>
-      <c r="D8" s="268">
+      <c r="C8" s="277"/>
+      <c r="D8" s="278">
         <v>43718</v>
       </c>
-      <c r="E8" s="269"/>
-      <c r="F8" s="270"/>
-      <c r="G8" s="266" t="s">
+      <c r="E8" s="279"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="276" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="271"/>
-      <c r="I8" s="267"/>
-      <c r="J8" s="272" t="s">
+      <c r="H8" s="281"/>
+      <c r="I8" s="277"/>
+      <c r="J8" s="282" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="273"/>
-      <c r="L8" s="273"/>
-      <c r="M8" s="273"/>
-      <c r="N8" s="273"/>
-      <c r="O8" s="273"/>
-      <c r="P8" s="274"/>
-      <c r="Q8" s="272" t="s">
+      <c r="K8" s="283"/>
+      <c r="L8" s="283"/>
+      <c r="M8" s="283"/>
+      <c r="N8" s="283"/>
+      <c r="O8" s="283"/>
+      <c r="P8" s="284"/>
+      <c r="Q8" s="282" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="273"/>
-      <c r="S8" s="273"/>
-      <c r="T8" s="273"/>
-      <c r="U8" s="273"/>
-      <c r="V8" s="273"/>
-      <c r="W8" s="273"/>
-      <c r="X8" s="273"/>
-      <c r="Y8" s="273"/>
-      <c r="Z8" s="273"/>
-      <c r="AA8" s="273"/>
-      <c r="AB8" s="273"/>
-      <c r="AC8" s="273"/>
-      <c r="AD8" s="273"/>
-      <c r="AE8" s="274"/>
+      <c r="R8" s="283"/>
+      <c r="S8" s="283"/>
+      <c r="T8" s="283"/>
+      <c r="U8" s="283"/>
+      <c r="V8" s="283"/>
+      <c r="W8" s="283"/>
+      <c r="X8" s="283"/>
+      <c r="Y8" s="283"/>
+      <c r="Z8" s="283"/>
+      <c r="AA8" s="283"/>
+      <c r="AB8" s="283"/>
+      <c r="AC8" s="283"/>
+      <c r="AD8" s="283"/>
+      <c r="AE8" s="284"/>
       <c r="AF8" s="49" t="s">
         <v>47</v>
       </c>
@@ -7083,36 +7083,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="58"/>
-      <c r="B9" s="254"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="258"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="259"/>
-      <c r="I9" s="255"/>
-      <c r="J9" s="260"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="261"/>
-      <c r="M9" s="261"/>
-      <c r="N9" s="261"/>
-      <c r="O9" s="261"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="260"/>
-      <c r="R9" s="261"/>
-      <c r="S9" s="261"/>
-      <c r="T9" s="261"/>
-      <c r="U9" s="261"/>
-      <c r="V9" s="261"/>
-      <c r="W9" s="261"/>
-      <c r="X9" s="261"/>
-      <c r="Y9" s="261"/>
-      <c r="Z9" s="261"/>
-      <c r="AA9" s="261"/>
-      <c r="AB9" s="261"/>
-      <c r="AC9" s="261"/>
-      <c r="AD9" s="261"/>
-      <c r="AE9" s="262"/>
+      <c r="B9" s="267"/>
+      <c r="C9" s="268"/>
+      <c r="D9" s="269"/>
+      <c r="E9" s="270"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="272"/>
+      <c r="I9" s="268"/>
+      <c r="J9" s="273"/>
+      <c r="K9" s="274"/>
+      <c r="L9" s="274"/>
+      <c r="M9" s="274"/>
+      <c r="N9" s="274"/>
+      <c r="O9" s="274"/>
+      <c r="P9" s="275"/>
+      <c r="Q9" s="273"/>
+      <c r="R9" s="274"/>
+      <c r="S9" s="274"/>
+      <c r="T9" s="274"/>
+      <c r="U9" s="274"/>
+      <c r="V9" s="274"/>
+      <c r="W9" s="274"/>
+      <c r="X9" s="274"/>
+      <c r="Y9" s="274"/>
+      <c r="Z9" s="274"/>
+      <c r="AA9" s="274"/>
+      <c r="AB9" s="274"/>
+      <c r="AC9" s="274"/>
+      <c r="AD9" s="274"/>
+      <c r="AE9" s="275"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="47"/>
       <c r="AH9" s="47"/>
@@ -7121,36 +7121,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="58"/>
-      <c r="B10" s="254"/>
-      <c r="C10" s="255"/>
-      <c r="D10" s="256"/>
-      <c r="E10" s="257"/>
-      <c r="F10" s="258"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="259"/>
-      <c r="I10" s="255"/>
-      <c r="J10" s="260"/>
-      <c r="K10" s="261"/>
-      <c r="L10" s="261"/>
-      <c r="M10" s="261"/>
-      <c r="N10" s="261"/>
-      <c r="O10" s="261"/>
-      <c r="P10" s="262"/>
-      <c r="Q10" s="260"/>
-      <c r="R10" s="261"/>
-      <c r="S10" s="261"/>
-      <c r="T10" s="261"/>
-      <c r="U10" s="261"/>
-      <c r="V10" s="261"/>
-      <c r="W10" s="261"/>
-      <c r="X10" s="261"/>
-      <c r="Y10" s="261"/>
-      <c r="Z10" s="261"/>
-      <c r="AA10" s="261"/>
-      <c r="AB10" s="261"/>
-      <c r="AC10" s="261"/>
-      <c r="AD10" s="261"/>
-      <c r="AE10" s="262"/>
+      <c r="B10" s="267"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="271"/>
+      <c r="G10" s="267"/>
+      <c r="H10" s="272"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="273"/>
+      <c r="K10" s="274"/>
+      <c r="L10" s="274"/>
+      <c r="M10" s="274"/>
+      <c r="N10" s="274"/>
+      <c r="O10" s="274"/>
+      <c r="P10" s="275"/>
+      <c r="Q10" s="273"/>
+      <c r="R10" s="274"/>
+      <c r="S10" s="274"/>
+      <c r="T10" s="274"/>
+      <c r="U10" s="274"/>
+      <c r="V10" s="274"/>
+      <c r="W10" s="274"/>
+      <c r="X10" s="274"/>
+      <c r="Y10" s="274"/>
+      <c r="Z10" s="274"/>
+      <c r="AA10" s="274"/>
+      <c r="AB10" s="274"/>
+      <c r="AC10" s="274"/>
+      <c r="AD10" s="274"/>
+      <c r="AE10" s="275"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="47"/>
       <c r="AH10" s="47"/>
@@ -7158,36 +7158,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="58"/>
-      <c r="B11" s="254"/>
-      <c r="C11" s="255"/>
-      <c r="D11" s="256"/>
-      <c r="E11" s="257"/>
-      <c r="F11" s="258"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="255"/>
-      <c r="J11" s="260"/>
-      <c r="K11" s="261"/>
-      <c r="L11" s="261"/>
-      <c r="M11" s="261"/>
-      <c r="N11" s="261"/>
-      <c r="O11" s="261"/>
-      <c r="P11" s="262"/>
-      <c r="Q11" s="260"/>
-      <c r="R11" s="261"/>
-      <c r="S11" s="261"/>
-      <c r="T11" s="261"/>
-      <c r="U11" s="261"/>
-      <c r="V11" s="261"/>
-      <c r="W11" s="261"/>
-      <c r="X11" s="261"/>
-      <c r="Y11" s="261"/>
-      <c r="Z11" s="261"/>
-      <c r="AA11" s="261"/>
-      <c r="AB11" s="261"/>
-      <c r="AC11" s="261"/>
-      <c r="AD11" s="261"/>
-      <c r="AE11" s="262"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="268"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="270"/>
+      <c r="F11" s="271"/>
+      <c r="G11" s="267"/>
+      <c r="H11" s="272"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="273"/>
+      <c r="K11" s="274"/>
+      <c r="L11" s="274"/>
+      <c r="M11" s="274"/>
+      <c r="N11" s="274"/>
+      <c r="O11" s="274"/>
+      <c r="P11" s="275"/>
+      <c r="Q11" s="273"/>
+      <c r="R11" s="274"/>
+      <c r="S11" s="274"/>
+      <c r="T11" s="274"/>
+      <c r="U11" s="274"/>
+      <c r="V11" s="274"/>
+      <c r="W11" s="274"/>
+      <c r="X11" s="274"/>
+      <c r="Y11" s="274"/>
+      <c r="Z11" s="274"/>
+      <c r="AA11" s="274"/>
+      <c r="AB11" s="274"/>
+      <c r="AC11" s="274"/>
+      <c r="AD11" s="274"/>
+      <c r="AE11" s="275"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="47"/>
       <c r="AH11" s="47"/>
@@ -7195,36 +7195,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="58"/>
-      <c r="B12" s="254"/>
-      <c r="C12" s="255"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="257"/>
-      <c r="F12" s="258"/>
-      <c r="G12" s="254"/>
-      <c r="H12" s="259"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="260"/>
-      <c r="K12" s="261"/>
-      <c r="L12" s="261"/>
-      <c r="M12" s="261"/>
-      <c r="N12" s="261"/>
-      <c r="O12" s="261"/>
-      <c r="P12" s="262"/>
-      <c r="Q12" s="260"/>
-      <c r="R12" s="261"/>
-      <c r="S12" s="261"/>
-      <c r="T12" s="261"/>
-      <c r="U12" s="261"/>
-      <c r="V12" s="261"/>
-      <c r="W12" s="261"/>
-      <c r="X12" s="261"/>
-      <c r="Y12" s="261"/>
-      <c r="Z12" s="261"/>
-      <c r="AA12" s="261"/>
-      <c r="AB12" s="261"/>
-      <c r="AC12" s="261"/>
-      <c r="AD12" s="261"/>
-      <c r="AE12" s="262"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="268"/>
+      <c r="D12" s="269"/>
+      <c r="E12" s="270"/>
+      <c r="F12" s="271"/>
+      <c r="G12" s="267"/>
+      <c r="H12" s="272"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="273"/>
+      <c r="K12" s="274"/>
+      <c r="L12" s="274"/>
+      <c r="M12" s="274"/>
+      <c r="N12" s="274"/>
+      <c r="O12" s="274"/>
+      <c r="P12" s="275"/>
+      <c r="Q12" s="273"/>
+      <c r="R12" s="274"/>
+      <c r="S12" s="274"/>
+      <c r="T12" s="274"/>
+      <c r="U12" s="274"/>
+      <c r="V12" s="274"/>
+      <c r="W12" s="274"/>
+      <c r="X12" s="274"/>
+      <c r="Y12" s="274"/>
+      <c r="Z12" s="274"/>
+      <c r="AA12" s="274"/>
+      <c r="AB12" s="274"/>
+      <c r="AC12" s="274"/>
+      <c r="AD12" s="274"/>
+      <c r="AE12" s="275"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="47"/>
       <c r="AH12" s="47"/>
@@ -7232,36 +7232,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="58"/>
-      <c r="B13" s="254"/>
-      <c r="C13" s="255"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="257"/>
-      <c r="F13" s="258"/>
-      <c r="G13" s="254"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="255"/>
-      <c r="J13" s="260"/>
-      <c r="K13" s="261"/>
-      <c r="L13" s="261"/>
-      <c r="M13" s="261"/>
-      <c r="N13" s="261"/>
-      <c r="O13" s="261"/>
-      <c r="P13" s="262"/>
-      <c r="Q13" s="260"/>
-      <c r="R13" s="261"/>
-      <c r="S13" s="261"/>
-      <c r="T13" s="261"/>
-      <c r="U13" s="261"/>
-      <c r="V13" s="261"/>
-      <c r="W13" s="261"/>
-      <c r="X13" s="261"/>
-      <c r="Y13" s="261"/>
-      <c r="Z13" s="261"/>
-      <c r="AA13" s="261"/>
-      <c r="AB13" s="261"/>
-      <c r="AC13" s="261"/>
-      <c r="AD13" s="261"/>
-      <c r="AE13" s="262"/>
+      <c r="B13" s="267"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="271"/>
+      <c r="G13" s="267"/>
+      <c r="H13" s="272"/>
+      <c r="I13" s="268"/>
+      <c r="J13" s="273"/>
+      <c r="K13" s="274"/>
+      <c r="L13" s="274"/>
+      <c r="M13" s="274"/>
+      <c r="N13" s="274"/>
+      <c r="O13" s="274"/>
+      <c r="P13" s="275"/>
+      <c r="Q13" s="273"/>
+      <c r="R13" s="274"/>
+      <c r="S13" s="274"/>
+      <c r="T13" s="274"/>
+      <c r="U13" s="274"/>
+      <c r="V13" s="274"/>
+      <c r="W13" s="274"/>
+      <c r="X13" s="274"/>
+      <c r="Y13" s="274"/>
+      <c r="Z13" s="274"/>
+      <c r="AA13" s="274"/>
+      <c r="AB13" s="274"/>
+      <c r="AC13" s="274"/>
+      <c r="AD13" s="274"/>
+      <c r="AE13" s="275"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="47"/>
       <c r="AH13" s="47"/>
@@ -8009,14 +8009,35 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -8033,35 +8054,14 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8217,162 +8217,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="312" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="315" t="s">
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="316"/>
-      <c r="Q1" s="316"/>
-      <c r="R1" s="317"/>
-      <c r="S1" s="302" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="303"/>
-      <c r="U1" s="303"/>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
-      <c r="Z1" s="304"/>
-      <c r="AA1" s="300" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="301"/>
-      <c r="AC1" s="297" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="298"/>
-      <c r="AE1" s="298"/>
-      <c r="AF1" s="299"/>
-      <c r="AG1" s="294">
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="328"/>
+      <c r="AG1" s="323">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="295"/>
-      <c r="AI1" s="296"/>
+      <c r="AH1" s="324"/>
+      <c r="AI1" s="325"/>
     </row>
     <row r="2" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="300" t="s">
+      <c r="A2" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="311"/>
-      <c r="C2" s="311"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="312" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="314"/>
-      <c r="O2" s="318"/>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
-      <c r="R2" s="320"/>
-      <c r="S2" s="305"/>
-      <c r="T2" s="306"/>
-      <c r="U2" s="306"/>
-      <c r="V2" s="306"/>
-      <c r="W2" s="306"/>
-      <c r="X2" s="306"/>
-      <c r="Y2" s="306"/>
-      <c r="Z2" s="307"/>
-      <c r="AA2" s="300" t="s">
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="301"/>
-      <c r="AC2" s="297" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="298"/>
-      <c r="AE2" s="298"/>
-      <c r="AF2" s="299"/>
-      <c r="AG2" s="294" t="str">
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="295"/>
-      <c r="AI2" s="296"/>
+      <c r="AH2" s="324"/>
+      <c r="AI2" s="325"/>
     </row>
     <row r="3" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="308" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="312" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="313"/>
-      <c r="K3" s="313"/>
-      <c r="L3" s="313"/>
-      <c r="M3" s="313"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="321"/>
-      <c r="P3" s="322"/>
-      <c r="Q3" s="322"/>
-      <c r="R3" s="323"/>
-      <c r="S3" s="308"/>
-      <c r="T3" s="309"/>
-      <c r="U3" s="309"/>
-      <c r="V3" s="309"/>
-      <c r="W3" s="309"/>
-      <c r="X3" s="309"/>
-      <c r="Y3" s="309"/>
-      <c r="Z3" s="310"/>
-      <c r="AA3" s="300"/>
-      <c r="AB3" s="301"/>
-      <c r="AC3" s="297" t="str">
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="298"/>
-      <c r="AE3" s="298"/>
-      <c r="AF3" s="299"/>
-      <c r="AG3" s="294" t="str">
+      <c r="AD3" s="327"/>
+      <c r="AE3" s="327"/>
+      <c r="AF3" s="328"/>
+      <c r="AG3" s="323" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="295"/>
-      <c r="AI3" s="296"/>
+      <c r="AH3" s="324"/>
+      <c r="AI3" s="325"/>
     </row>
     <row r="4" spans="1:35" s="94" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="198" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="198"/>
       <c r="C4" s="198"/>
@@ -8427,7 +8427,7 @@
       <c r="O5" s="198"/>
       <c r="P5" s="198"/>
       <c r="Q5" s="200" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R5" s="198"/>
       <c r="S5" s="198"/>
@@ -8455,7 +8455,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="203"/>
       <c r="B7" s="204" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="204"/>
       <c r="D7" s="59"/>
@@ -8531,7 +8531,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="203"/>
       <c r="B9" s="204" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="204"/>
       <c r="D9" s="59"/>
@@ -8607,7 +8607,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="203"/>
       <c r="B11" s="61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="203"/>
@@ -9803,6 +9803,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9813,13 +9820,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -9845,158 +9845,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="308" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="312" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="315" t="s">
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="314" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="316"/>
-      <c r="Q1" s="316"/>
-      <c r="R1" s="317"/>
-      <c r="S1" s="302" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="303"/>
-      <c r="U1" s="303"/>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
-      <c r="Z1" s="304"/>
-      <c r="AA1" s="300" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="301"/>
-      <c r="AC1" s="297" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="298"/>
-      <c r="AE1" s="298"/>
-      <c r="AF1" s="299"/>
-      <c r="AG1" s="324">
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="328"/>
+      <c r="AG1" s="370">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="325"/>
-      <c r="AI1" s="326"/>
+      <c r="AH1" s="371"/>
+      <c r="AI1" s="372"/>
     </row>
     <row r="2" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="300" t="s">
+      <c r="A2" s="308" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="311"/>
-      <c r="C2" s="311"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="312" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="314"/>
-      <c r="O2" s="318"/>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
-      <c r="R2" s="320"/>
-      <c r="S2" s="305"/>
-      <c r="T2" s="306"/>
-      <c r="U2" s="306"/>
-      <c r="V2" s="306"/>
-      <c r="W2" s="306"/>
-      <c r="X2" s="306"/>
-      <c r="Y2" s="306"/>
-      <c r="Z2" s="307"/>
-      <c r="AA2" s="300" t="s">
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="301"/>
-      <c r="AC2" s="297" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="298"/>
-      <c r="AE2" s="298"/>
-      <c r="AF2" s="299"/>
-      <c r="AG2" s="324" t="str">
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="325"/>
-      <c r="AI2" s="326"/>
+      <c r="AH2" s="371"/>
+      <c r="AI2" s="372"/>
     </row>
     <row r="3" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="308" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="312" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="313"/>
-      <c r="K3" s="313"/>
-      <c r="L3" s="313"/>
-      <c r="M3" s="313"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="321"/>
-      <c r="P3" s="322"/>
-      <c r="Q3" s="322"/>
-      <c r="R3" s="323"/>
-      <c r="S3" s="308"/>
-      <c r="T3" s="309"/>
-      <c r="U3" s="309"/>
-      <c r="V3" s="309"/>
-      <c r="W3" s="309"/>
-      <c r="X3" s="309"/>
-      <c r="Y3" s="309"/>
-      <c r="Z3" s="310"/>
-      <c r="AA3" s="300"/>
-      <c r="AB3" s="301"/>
-      <c r="AC3" s="297" t="str">
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="298"/>
-      <c r="AE3" s="298"/>
-      <c r="AF3" s="299"/>
-      <c r="AG3" s="324" t="str">
+      <c r="AD3" s="327"/>
+      <c r="AE3" s="327"/>
+      <c r="AF3" s="328"/>
+      <c r="AG3" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="325"/>
-      <c r="AI3" s="326"/>
+      <c r="AH3" s="371"/>
+      <c r="AI3" s="372"/>
     </row>
     <row r="4" spans="1:35" s="149" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="128"/>
@@ -10009,7 +10009,7 @@
     </row>
     <row r="5" spans="1:35" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="106"/>
     </row>
@@ -10018,12 +10018,12 @@
       <c r="C6" s="106"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="334" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="335"/>
-      <c r="C7" s="335"/>
-      <c r="D7" s="336"/>
+      <c r="A7" s="329" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="338"/>
+      <c r="C7" s="338"/>
+      <c r="D7" s="339"/>
       <c r="E7" s="151"/>
       <c r="F7" s="151"/>
       <c r="G7" s="151"/>
@@ -10036,82 +10036,82 @@
       <c r="N7" s="151"/>
       <c r="O7" s="151"/>
       <c r="P7" s="151"/>
-      <c r="Q7" s="367" t="s">
+      <c r="Q7" s="343" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" s="344"/>
+      <c r="S7" s="344"/>
+      <c r="T7" s="345"/>
+      <c r="U7" s="332" t="s">
+        <v>98</v>
+      </c>
+      <c r="V7" s="333"/>
+      <c r="W7" s="333"/>
+      <c r="X7" s="333"/>
+      <c r="Y7" s="333"/>
+      <c r="Z7" s="333"/>
+      <c r="AA7" s="333"/>
+      <c r="AB7" s="333"/>
+      <c r="AC7" s="333"/>
+      <c r="AD7" s="333"/>
+      <c r="AE7" s="333"/>
+      <c r="AF7" s="333"/>
+      <c r="AG7" s="333"/>
+      <c r="AH7" s="333"/>
+      <c r="AI7" s="334"/>
+    </row>
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="340" t="s">
         <v>124</v>
       </c>
-      <c r="R7" s="356"/>
-      <c r="S7" s="356"/>
-      <c r="T7" s="357"/>
-      <c r="U7" s="361" t="s">
+      <c r="B8" s="341"/>
+      <c r="C8" s="341"/>
+      <c r="D8" s="342"/>
+      <c r="E8" s="335" t="s">
         <v>99</v>
       </c>
-      <c r="V7" s="362"/>
-      <c r="W7" s="362"/>
-      <c r="X7" s="362"/>
-      <c r="Y7" s="362"/>
-      <c r="Z7" s="362"/>
-      <c r="AA7" s="362"/>
-      <c r="AB7" s="362"/>
-      <c r="AC7" s="362"/>
-      <c r="AD7" s="362"/>
-      <c r="AE7" s="362"/>
-      <c r="AF7" s="362"/>
-      <c r="AG7" s="362"/>
-      <c r="AH7" s="362"/>
-      <c r="AI7" s="363"/>
-    </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="364" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="365"/>
-      <c r="C8" s="365"/>
-      <c r="D8" s="366"/>
-      <c r="E8" s="346" t="s">
+      <c r="F8" s="336"/>
+      <c r="G8" s="336"/>
+      <c r="H8" s="336"/>
+      <c r="I8" s="336"/>
+      <c r="J8" s="336"/>
+      <c r="K8" s="336"/>
+      <c r="L8" s="336"/>
+      <c r="M8" s="336"/>
+      <c r="N8" s="336"/>
+      <c r="O8" s="336"/>
+      <c r="P8" s="336"/>
+      <c r="Q8" s="329" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="347"/>
-      <c r="G8" s="347"/>
-      <c r="H8" s="347"/>
-      <c r="I8" s="347"/>
-      <c r="J8" s="347"/>
-      <c r="K8" s="347"/>
-      <c r="L8" s="347"/>
-      <c r="M8" s="347"/>
-      <c r="N8" s="347"/>
-      <c r="O8" s="347"/>
-      <c r="P8" s="347"/>
-      <c r="Q8" s="334" t="s">
+      <c r="R8" s="338"/>
+      <c r="S8" s="338"/>
+      <c r="T8" s="339"/>
+      <c r="U8" s="335" t="s">
         <v>101</v>
       </c>
-      <c r="R8" s="335"/>
-      <c r="S8" s="335"/>
-      <c r="T8" s="336"/>
-      <c r="U8" s="346" t="s">
+      <c r="V8" s="336"/>
+      <c r="W8" s="336"/>
+      <c r="X8" s="336"/>
+      <c r="Y8" s="336"/>
+      <c r="Z8" s="336"/>
+      <c r="AA8" s="336"/>
+      <c r="AB8" s="336"/>
+      <c r="AC8" s="336"/>
+      <c r="AD8" s="336"/>
+      <c r="AE8" s="336"/>
+      <c r="AF8" s="336"/>
+      <c r="AG8" s="336"/>
+      <c r="AH8" s="336"/>
+      <c r="AI8" s="337"/>
+    </row>
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="329" t="s">
         <v>102</v>
       </c>
-      <c r="V8" s="347"/>
-      <c r="W8" s="347"/>
-      <c r="X8" s="347"/>
-      <c r="Y8" s="347"/>
-      <c r="Z8" s="347"/>
-      <c r="AA8" s="347"/>
-      <c r="AB8" s="347"/>
-      <c r="AC8" s="347"/>
-      <c r="AD8" s="347"/>
-      <c r="AE8" s="347"/>
-      <c r="AF8" s="347"/>
-      <c r="AG8" s="347"/>
-      <c r="AH8" s="347"/>
-      <c r="AI8" s="348"/>
-    </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="334" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="335"/>
-      <c r="C9" s="335"/>
-      <c r="D9" s="336"/>
+      <c r="B9" s="338"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="339"/>
       <c r="E9" s="153"/>
       <c r="F9" s="153"/>
       <c r="G9" s="153"/>
@@ -10147,7 +10147,7 @@
     <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="156"/>
       <c r="B10" s="157" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="157"/>
       <c r="D10" s="157"/>
@@ -10261,7 +10261,7 @@
       <c r="A13" s="161"/>
       <c r="B13" s="162"/>
       <c r="C13" s="163" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="163"/>
       <c r="E13" s="163"/>
@@ -10297,12 +10297,12 @@
       <c r="AI13" s="164"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="334" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="328"/>
-      <c r="C14" s="328"/>
-      <c r="D14" s="329"/>
+      <c r="A14" s="329" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="330"/>
+      <c r="C14" s="330"/>
+      <c r="D14" s="331"/>
       <c r="E14" s="154"/>
       <c r="F14" s="154"/>
       <c r="G14" s="154"/>
@@ -10447,12 +10447,12 @@
       <c r="AI17" s="164"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="349" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="350"/>
-      <c r="C18" s="350"/>
-      <c r="D18" s="351"/>
+      <c r="A18" s="346" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="347"/>
+      <c r="C18" s="347"/>
+      <c r="D18" s="348"/>
       <c r="E18" s="166"/>
       <c r="F18" s="167"/>
       <c r="G18" s="139"/>
@@ -10465,12 +10465,12 @@
       <c r="N18" s="139"/>
       <c r="O18" s="137"/>
       <c r="P18" s="139"/>
-      <c r="Q18" s="349" t="s">
-        <v>108</v>
-      </c>
-      <c r="R18" s="350"/>
-      <c r="S18" s="350"/>
-      <c r="T18" s="351"/>
+      <c r="Q18" s="346" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" s="347"/>
+      <c r="S18" s="347"/>
+      <c r="T18" s="348"/>
       <c r="U18" s="157"/>
       <c r="V18" s="157"/>
       <c r="W18" s="157"/>
@@ -10495,7 +10495,7 @@
       <c r="E19" s="166"/>
       <c r="F19" s="167"/>
       <c r="G19" s="167" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H19" s="139"/>
       <c r="I19" s="139"/>
@@ -10506,7 +10506,7 @@
       <c r="N19" s="139"/>
       <c r="O19" s="139"/>
       <c r="P19" s="139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="169"/>
       <c r="R19" s="170"/>
@@ -10522,14 +10522,14 @@
       <c r="AB19" s="148"/>
       <c r="AC19" s="148"/>
       <c r="AD19" s="172" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE19" s="148"/>
       <c r="AF19" s="148"/>
       <c r="AG19" s="157"/>
       <c r="AH19" s="157"/>
       <c r="AI19" s="158" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10570,55 +10570,55 @@
       <c r="AI20" s="158"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="334" t="s">
+      <c r="A21" s="329" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="338"/>
+      <c r="C21" s="338"/>
+      <c r="D21" s="339"/>
+      <c r="E21" s="335" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="335"/>
-      <c r="C21" s="335"/>
-      <c r="D21" s="336"/>
-      <c r="E21" s="346" t="s">
+      <c r="F21" s="336"/>
+      <c r="G21" s="336"/>
+      <c r="H21" s="336"/>
+      <c r="I21" s="336"/>
+      <c r="J21" s="336"/>
+      <c r="K21" s="336"/>
+      <c r="L21" s="336"/>
+      <c r="M21" s="336"/>
+      <c r="N21" s="336"/>
+      <c r="O21" s="336"/>
+      <c r="P21" s="337"/>
+      <c r="Q21" s="329" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="347"/>
-      <c r="G21" s="347"/>
-      <c r="H21" s="347"/>
-      <c r="I21" s="347"/>
-      <c r="J21" s="347"/>
-      <c r="K21" s="347"/>
-      <c r="L21" s="347"/>
-      <c r="M21" s="347"/>
-      <c r="N21" s="347"/>
-      <c r="O21" s="347"/>
-      <c r="P21" s="348"/>
-      <c r="Q21" s="334" t="s">
+      <c r="R21" s="338"/>
+      <c r="S21" s="338"/>
+      <c r="T21" s="339"/>
+      <c r="U21" s="349"/>
+      <c r="V21" s="350"/>
+      <c r="W21" s="350"/>
+      <c r="X21" s="350"/>
+      <c r="Y21" s="350"/>
+      <c r="Z21" s="350"/>
+      <c r="AA21" s="350"/>
+      <c r="AB21" s="350"/>
+      <c r="AC21" s="350"/>
+      <c r="AD21" s="350"/>
+      <c r="AE21" s="350"/>
+      <c r="AF21" s="350"/>
+      <c r="AG21" s="350"/>
+      <c r="AH21" s="350"/>
+      <c r="AI21" s="351"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="352" t="s">
         <v>113</v>
       </c>
-      <c r="R21" s="335"/>
-      <c r="S21" s="335"/>
-      <c r="T21" s="336"/>
-      <c r="U21" s="352"/>
-      <c r="V21" s="353"/>
-      <c r="W21" s="353"/>
-      <c r="X21" s="353"/>
-      <c r="Y21" s="353"/>
-      <c r="Z21" s="353"/>
-      <c r="AA21" s="353"/>
-      <c r="AB21" s="353"/>
-      <c r="AC21" s="353"/>
-      <c r="AD21" s="353"/>
-      <c r="AE21" s="353"/>
-      <c r="AF21" s="353"/>
-      <c r="AG21" s="353"/>
-      <c r="AH21" s="353"/>
-      <c r="AI21" s="354"/>
-    </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="355" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="356"/>
-      <c r="C22" s="356"/>
-      <c r="D22" s="357"/>
+      <c r="B22" s="344"/>
+      <c r="C22" s="344"/>
+      <c r="D22" s="345"/>
       <c r="E22" s="176"/>
       <c r="F22" s="177"/>
       <c r="G22" s="154"/>
@@ -10631,12 +10631,12 @@
       <c r="N22" s="154"/>
       <c r="O22" s="153"/>
       <c r="P22" s="154"/>
-      <c r="Q22" s="355" t="s">
-        <v>115</v>
-      </c>
-      <c r="R22" s="356"/>
-      <c r="S22" s="356"/>
-      <c r="T22" s="357"/>
+      <c r="Q22" s="352" t="s">
+        <v>114</v>
+      </c>
+      <c r="R22" s="344"/>
+      <c r="S22" s="344"/>
+      <c r="T22" s="345"/>
       <c r="U22" s="130"/>
       <c r="V22" s="131"/>
       <c r="W22" s="178"/>
@@ -10661,7 +10661,7 @@
       <c r="E23" s="180"/>
       <c r="F23" s="181"/>
       <c r="G23" s="181" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H23" s="162"/>
       <c r="I23" s="162"/>
@@ -10672,7 +10672,7 @@
       <c r="N23" s="162"/>
       <c r="O23" s="162"/>
       <c r="P23" s="162" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="173"/>
       <c r="R23" s="174"/>
@@ -10685,7 +10685,7 @@
       <c r="Y23" s="183"/>
       <c r="Z23" s="145"/>
       <c r="AA23" s="184" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB23" s="145"/>
       <c r="AC23" s="145"/>
@@ -10695,42 +10695,42 @@
       <c r="AG23" s="184"/>
       <c r="AH23" s="183"/>
       <c r="AI23" s="146" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="343" t="s">
+      <c r="A24" s="367" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="368"/>
+      <c r="C24" s="368"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="335" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="344"/>
-      <c r="C24" s="344"/>
-      <c r="D24" s="345"/>
-      <c r="E24" s="346" t="s">
+      <c r="F24" s="336"/>
+      <c r="G24" s="336"/>
+      <c r="H24" s="336"/>
+      <c r="I24" s="336"/>
+      <c r="J24" s="336"/>
+      <c r="K24" s="336"/>
+      <c r="L24" s="336"/>
+      <c r="M24" s="336"/>
+      <c r="N24" s="336"/>
+      <c r="O24" s="336"/>
+      <c r="P24" s="337"/>
+      <c r="Q24" s="353" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="347"/>
-      <c r="G24" s="347"/>
-      <c r="H24" s="347"/>
-      <c r="I24" s="347"/>
-      <c r="J24" s="347"/>
-      <c r="K24" s="347"/>
-      <c r="L24" s="347"/>
-      <c r="M24" s="347"/>
-      <c r="N24" s="347"/>
-      <c r="O24" s="347"/>
-      <c r="P24" s="348"/>
-      <c r="Q24" s="358" t="s">
+      <c r="R24" s="354"/>
+      <c r="S24" s="354"/>
+      <c r="T24" s="355"/>
+      <c r="U24" s="359"/>
+      <c r="V24" s="360"/>
+      <c r="W24" s="360"/>
+      <c r="X24" s="360"/>
+      <c r="Y24" s="185" t="s">
         <v>118</v>
-      </c>
-      <c r="R24" s="359"/>
-      <c r="S24" s="359"/>
-      <c r="T24" s="360"/>
-      <c r="U24" s="332"/>
-      <c r="V24" s="333"/>
-      <c r="W24" s="333"/>
-      <c r="X24" s="333"/>
-      <c r="Y24" s="185" t="s">
-        <v>119</v>
       </c>
       <c r="Z24" s="186"/>
       <c r="AA24" s="186"/>
@@ -10744,45 +10744,45 @@
       <c r="AI24" s="187"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="339" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="340"/>
-      <c r="C25" s="340"/>
-      <c r="D25" s="341"/>
+      <c r="A25" s="363" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="364"/>
+      <c r="C25" s="364"/>
+      <c r="D25" s="365"/>
       <c r="E25" s="176"/>
       <c r="F25" s="188"/>
       <c r="G25" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="357"/>
+      <c r="I25" s="358"/>
+      <c r="J25" s="358"/>
+      <c r="K25" s="358"/>
+      <c r="L25" s="358"/>
+      <c r="M25" s="358"/>
+      <c r="N25" s="358"/>
+      <c r="O25" s="358"/>
+      <c r="P25" s="358"/>
+      <c r="Q25" s="154" t="s">
         <v>109</v>
-      </c>
-      <c r="H25" s="330"/>
-      <c r="I25" s="331"/>
-      <c r="J25" s="331"/>
-      <c r="K25" s="331"/>
-      <c r="L25" s="331"/>
-      <c r="M25" s="331"/>
-      <c r="N25" s="331"/>
-      <c r="O25" s="331"/>
-      <c r="P25" s="331"/>
-      <c r="Q25" s="154" t="s">
-        <v>110</v>
       </c>
       <c r="R25" s="154"/>
       <c r="S25" s="177"/>
       <c r="T25" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="U25" s="366"/>
+      <c r="V25" s="366"/>
+      <c r="W25" s="366"/>
+      <c r="X25" s="366"/>
+      <c r="Y25" s="366"/>
+      <c r="Z25" s="366"/>
+      <c r="AA25" s="366"/>
+      <c r="AB25" s="366"/>
+      <c r="AC25" s="366"/>
+      <c r="AD25" s="154" t="s">
         <v>109</v>
-      </c>
-      <c r="U25" s="342"/>
-      <c r="V25" s="342"/>
-      <c r="W25" s="342"/>
-      <c r="X25" s="342"/>
-      <c r="Y25" s="342"/>
-      <c r="Z25" s="342"/>
-      <c r="AA25" s="342"/>
-      <c r="AB25" s="342"/>
-      <c r="AC25" s="342"/>
-      <c r="AD25" s="154" t="s">
-        <v>110</v>
       </c>
       <c r="AE25" s="154"/>
       <c r="AF25" s="154"/>
@@ -10798,36 +10798,36 @@
       <c r="E26" s="156"/>
       <c r="F26" s="192"/>
       <c r="G26" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="362"/>
+      <c r="I26" s="362"/>
+      <c r="J26" s="362"/>
+      <c r="K26" s="362"/>
+      <c r="L26" s="362"/>
+      <c r="M26" s="362"/>
+      <c r="N26" s="362"/>
+      <c r="O26" s="362"/>
+      <c r="P26" s="362"/>
+      <c r="Q26" s="148" t="s">
         <v>109</v>
-      </c>
-      <c r="H26" s="338"/>
-      <c r="I26" s="338"/>
-      <c r="J26" s="338"/>
-      <c r="K26" s="338"/>
-      <c r="L26" s="338"/>
-      <c r="M26" s="338"/>
-      <c r="N26" s="338"/>
-      <c r="O26" s="338"/>
-      <c r="P26" s="338"/>
-      <c r="Q26" s="148" t="s">
-        <v>110</v>
       </c>
       <c r="R26" s="148"/>
       <c r="S26" s="172"/>
       <c r="T26" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="U26" s="362"/>
+      <c r="V26" s="362"/>
+      <c r="W26" s="362"/>
+      <c r="X26" s="362"/>
+      <c r="Y26" s="362"/>
+      <c r="Z26" s="362"/>
+      <c r="AA26" s="362"/>
+      <c r="AB26" s="362"/>
+      <c r="AC26" s="362"/>
+      <c r="AD26" s="148" t="s">
         <v>109</v>
-      </c>
-      <c r="U26" s="338"/>
-      <c r="V26" s="338"/>
-      <c r="W26" s="338"/>
-      <c r="X26" s="338"/>
-      <c r="Y26" s="338"/>
-      <c r="Z26" s="338"/>
-      <c r="AA26" s="338"/>
-      <c r="AB26" s="338"/>
-      <c r="AC26" s="338"/>
-      <c r="AD26" s="148" t="s">
-        <v>110</v>
       </c>
       <c r="AE26" s="148"/>
       <c r="AF26" s="148"/>
@@ -10843,50 +10843,50 @@
       <c r="E27" s="180"/>
       <c r="F27" s="196"/>
       <c r="G27" s="181" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="361"/>
+      <c r="I27" s="361"/>
+      <c r="J27" s="361"/>
+      <c r="K27" s="361"/>
+      <c r="L27" s="361"/>
+      <c r="M27" s="361"/>
+      <c r="N27" s="361"/>
+      <c r="O27" s="361"/>
+      <c r="P27" s="361"/>
+      <c r="Q27" s="162" t="s">
         <v>109</v>
-      </c>
-      <c r="H27" s="337"/>
-      <c r="I27" s="337"/>
-      <c r="J27" s="337"/>
-      <c r="K27" s="337"/>
-      <c r="L27" s="337"/>
-      <c r="M27" s="337"/>
-      <c r="N27" s="337"/>
-      <c r="O27" s="337"/>
-      <c r="P27" s="337"/>
-      <c r="Q27" s="162" t="s">
-        <v>110</v>
       </c>
       <c r="R27" s="162"/>
       <c r="S27" s="181"/>
       <c r="T27" s="181" t="s">
+        <v>108</v>
+      </c>
+      <c r="U27" s="361"/>
+      <c r="V27" s="361"/>
+      <c r="W27" s="361"/>
+      <c r="X27" s="361"/>
+      <c r="Y27" s="361"/>
+      <c r="Z27" s="361"/>
+      <c r="AA27" s="361"/>
+      <c r="AB27" s="361"/>
+      <c r="AC27" s="361"/>
+      <c r="AD27" s="361"/>
+      <c r="AE27" s="361"/>
+      <c r="AF27" s="361"/>
+      <c r="AG27" s="361"/>
+      <c r="AH27" s="361"/>
+      <c r="AI27" s="164" t="s">
         <v>109</v>
       </c>
-      <c r="U27" s="337"/>
-      <c r="V27" s="337"/>
-      <c r="W27" s="337"/>
-      <c r="X27" s="337"/>
-      <c r="Y27" s="337"/>
-      <c r="Z27" s="337"/>
-      <c r="AA27" s="337"/>
-      <c r="AB27" s="337"/>
-      <c r="AC27" s="337"/>
-      <c r="AD27" s="337"/>
-      <c r="AE27" s="337"/>
-      <c r="AF27" s="337"/>
-      <c r="AG27" s="337"/>
-      <c r="AH27" s="337"/>
-      <c r="AI27" s="164" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="327" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="328"/>
-      <c r="C28" s="328"/>
-      <c r="D28" s="329"/>
+      <c r="A28" s="356" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="330"/>
+      <c r="C28" s="330"/>
+      <c r="D28" s="331"/>
       <c r="E28" s="154"/>
       <c r="F28" s="154"/>
       <c r="G28" s="154"/>
@@ -11032,21 +11032,23 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11061,23 +11063,21 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11620,158 +11620,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="308" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="312" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="315" t="s">
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="314" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="316"/>
-      <c r="Q1" s="316"/>
-      <c r="R1" s="317"/>
-      <c r="S1" s="302" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="303"/>
-      <c r="U1" s="303"/>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
-      <c r="Z1" s="304"/>
-      <c r="AA1" s="300" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="301"/>
-      <c r="AC1" s="297" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="298"/>
-      <c r="AE1" s="298"/>
-      <c r="AF1" s="299"/>
-      <c r="AG1" s="324">
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="328"/>
+      <c r="AG1" s="370">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="325"/>
-      <c r="AI1" s="326"/>
+      <c r="AH1" s="371"/>
+      <c r="AI1" s="372"/>
     </row>
     <row r="2" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="300" t="s">
+      <c r="A2" s="308" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="311"/>
-      <c r="C2" s="311"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="312" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="314"/>
-      <c r="O2" s="318"/>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
-      <c r="R2" s="320"/>
-      <c r="S2" s="305"/>
-      <c r="T2" s="306"/>
-      <c r="U2" s="306"/>
-      <c r="V2" s="306"/>
-      <c r="W2" s="306"/>
-      <c r="X2" s="306"/>
-      <c r="Y2" s="306"/>
-      <c r="Z2" s="307"/>
-      <c r="AA2" s="300" t="s">
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="301"/>
-      <c r="AC2" s="297" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="298"/>
-      <c r="AE2" s="298"/>
-      <c r="AF2" s="299"/>
-      <c r="AG2" s="324" t="str">
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="325"/>
-      <c r="AI2" s="326"/>
+      <c r="AH2" s="371"/>
+      <c r="AI2" s="372"/>
     </row>
     <row r="3" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="308" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="312" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="313"/>
-      <c r="K3" s="313"/>
-      <c r="L3" s="313"/>
-      <c r="M3" s="313"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="321"/>
-      <c r="P3" s="322"/>
-      <c r="Q3" s="322"/>
-      <c r="R3" s="323"/>
-      <c r="S3" s="308"/>
-      <c r="T3" s="309"/>
-      <c r="U3" s="309"/>
-      <c r="V3" s="309"/>
-      <c r="W3" s="309"/>
-      <c r="X3" s="309"/>
-      <c r="Y3" s="309"/>
-      <c r="Z3" s="310"/>
-      <c r="AA3" s="300"/>
-      <c r="AB3" s="301"/>
-      <c r="AC3" s="297" t="str">
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="298"/>
-      <c r="AE3" s="298"/>
-      <c r="AF3" s="299"/>
-      <c r="AG3" s="324" t="str">
+      <c r="AD3" s="327"/>
+      <c r="AE3" s="327"/>
+      <c r="AF3" s="328"/>
+      <c r="AG3" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="325"/>
-      <c r="AI3" s="326"/>
+      <c r="AH3" s="371"/>
+      <c r="AI3" s="372"/>
     </row>
     <row r="4" spans="1:36" s="107" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="108"/>
@@ -11832,7 +11832,7 @@
     </row>
     <row r="6" spans="1:36" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="119" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="120"/>
     </row>
@@ -11841,461 +11841,461 @@
       <c r="C7" s="120"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="436" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="384"/>
-      <c r="C8" s="384"/>
-      <c r="D8" s="384"/>
-      <c r="E8" s="384"/>
-      <c r="F8" s="384"/>
-      <c r="G8" s="384"/>
-      <c r="H8" s="384"/>
-      <c r="I8" s="384"/>
-      <c r="J8" s="384"/>
-      <c r="K8" s="384"/>
-      <c r="L8" s="384"/>
-      <c r="M8" s="384"/>
-      <c r="N8" s="384"/>
-      <c r="O8" s="384"/>
-      <c r="P8" s="384"/>
-      <c r="Q8" s="384"/>
-      <c r="R8" s="384"/>
-      <c r="S8" s="384"/>
-      <c r="T8" s="384"/>
-      <c r="U8" s="384"/>
-      <c r="V8" s="384"/>
-      <c r="W8" s="384"/>
-      <c r="X8" s="384"/>
-      <c r="Y8" s="384"/>
-      <c r="Z8" s="384"/>
-      <c r="AA8" s="384"/>
-      <c r="AB8" s="437"/>
-      <c r="AC8" s="383" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD8" s="384"/>
-      <c r="AE8" s="385"/>
-      <c r="AF8" s="380"/>
-      <c r="AG8" s="381"/>
-      <c r="AH8" s="381"/>
-      <c r="AI8" s="382"/>
+      <c r="A8" s="393" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="394"/>
+      <c r="C8" s="394"/>
+      <c r="D8" s="394"/>
+      <c r="E8" s="394"/>
+      <c r="F8" s="394"/>
+      <c r="G8" s="394"/>
+      <c r="H8" s="394"/>
+      <c r="I8" s="394"/>
+      <c r="J8" s="394"/>
+      <c r="K8" s="394"/>
+      <c r="L8" s="394"/>
+      <c r="M8" s="394"/>
+      <c r="N8" s="394"/>
+      <c r="O8" s="394"/>
+      <c r="P8" s="394"/>
+      <c r="Q8" s="394"/>
+      <c r="R8" s="394"/>
+      <c r="S8" s="394"/>
+      <c r="T8" s="394"/>
+      <c r="U8" s="394"/>
+      <c r="V8" s="394"/>
+      <c r="W8" s="394"/>
+      <c r="X8" s="394"/>
+      <c r="Y8" s="394"/>
+      <c r="Z8" s="394"/>
+      <c r="AA8" s="394"/>
+      <c r="AB8" s="395"/>
+      <c r="AC8" s="459" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD8" s="394"/>
+      <c r="AE8" s="460"/>
+      <c r="AF8" s="456"/>
+      <c r="AG8" s="457"/>
+      <c r="AH8" s="457"/>
+      <c r="AI8" s="458"/>
     </row>
     <row r="9" spans="1:36" s="122" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="376" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="430" t="s">
+      <c r="C9" s="390"/>
+      <c r="D9" s="390"/>
+      <c r="E9" s="390"/>
+      <c r="F9" s="391"/>
+      <c r="G9" s="376" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="431"/>
-      <c r="D9" s="431"/>
-      <c r="E9" s="431"/>
-      <c r="F9" s="432"/>
-      <c r="G9" s="430" t="s">
+      <c r="H9" s="377"/>
+      <c r="I9" s="378"/>
+      <c r="J9" s="376" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="433"/>
-      <c r="I9" s="435"/>
-      <c r="J9" s="430" t="s">
+      <c r="K9" s="377"/>
+      <c r="L9" s="377"/>
+      <c r="M9" s="377"/>
+      <c r="N9" s="377"/>
+      <c r="O9" s="377"/>
+      <c r="P9" s="378"/>
+      <c r="Q9" s="381" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="433"/>
-      <c r="L9" s="433"/>
-      <c r="M9" s="433"/>
-      <c r="N9" s="433"/>
-      <c r="O9" s="433"/>
-      <c r="P9" s="435"/>
-      <c r="Q9" s="450" t="s">
+      <c r="R9" s="383"/>
+      <c r="S9" s="381" t="s">
         <v>91</v>
       </c>
-      <c r="R9" s="452"/>
-      <c r="S9" s="450" t="s">
+      <c r="T9" s="382"/>
+      <c r="U9" s="383"/>
+      <c r="V9" s="376" t="s">
         <v>92</v>
       </c>
-      <c r="T9" s="451"/>
-      <c r="U9" s="452"/>
-      <c r="V9" s="430" t="s">
+      <c r="W9" s="377"/>
+      <c r="X9" s="377"/>
+      <c r="Y9" s="377"/>
+      <c r="Z9" s="377"/>
+      <c r="AA9" s="377"/>
+      <c r="AB9" s="392"/>
+      <c r="AC9" s="404" t="s">
         <v>93</v>
       </c>
-      <c r="W9" s="433"/>
-      <c r="X9" s="433"/>
-      <c r="Y9" s="433"/>
-      <c r="Z9" s="433"/>
-      <c r="AA9" s="433"/>
-      <c r="AB9" s="434"/>
-      <c r="AC9" s="444" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD9" s="445"/>
-      <c r="AE9" s="445"/>
-      <c r="AF9" s="445"/>
-      <c r="AG9" s="445"/>
-      <c r="AH9" s="446" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI9" s="446"/>
+      <c r="AD9" s="405"/>
+      <c r="AE9" s="405"/>
+      <c r="AF9" s="405"/>
+      <c r="AG9" s="405"/>
+      <c r="AH9" s="406" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI9" s="406"/>
     </row>
     <row r="10" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="123">
         <v>1</v>
       </c>
-      <c r="B10" s="393" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="394"/>
-      <c r="D10" s="394"/>
-      <c r="E10" s="394"/>
-      <c r="F10" s="395"/>
-      <c r="G10" s="441"/>
-      <c r="H10" s="442"/>
-      <c r="I10" s="443"/>
-      <c r="J10" s="453"/>
-      <c r="K10" s="454"/>
-      <c r="L10" s="454"/>
-      <c r="M10" s="454"/>
-      <c r="N10" s="454"/>
-      <c r="O10" s="454"/>
-      <c r="P10" s="455"/>
-      <c r="Q10" s="402"/>
-      <c r="R10" s="404"/>
-      <c r="S10" s="402"/>
-      <c r="T10" s="403"/>
-      <c r="U10" s="404"/>
-      <c r="V10" s="447"/>
-      <c r="W10" s="448"/>
-      <c r="X10" s="448"/>
-      <c r="Y10" s="448"/>
-      <c r="Z10" s="448"/>
-      <c r="AA10" s="448"/>
-      <c r="AB10" s="449"/>
-      <c r="AC10" s="427"/>
-      <c r="AD10" s="371"/>
-      <c r="AE10" s="372"/>
-      <c r="AF10" s="372"/>
-      <c r="AG10" s="373"/>
-      <c r="AH10" s="391"/>
-      <c r="AI10" s="392"/>
+      <c r="B10" s="443" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="444"/>
+      <c r="D10" s="444"/>
+      <c r="E10" s="444"/>
+      <c r="F10" s="445"/>
+      <c r="G10" s="401"/>
+      <c r="H10" s="402"/>
+      <c r="I10" s="403"/>
+      <c r="J10" s="385"/>
+      <c r="K10" s="386"/>
+      <c r="L10" s="386"/>
+      <c r="M10" s="386"/>
+      <c r="N10" s="386"/>
+      <c r="O10" s="386"/>
+      <c r="P10" s="387"/>
+      <c r="Q10" s="399"/>
+      <c r="R10" s="400"/>
+      <c r="S10" s="399"/>
+      <c r="T10" s="446"/>
+      <c r="U10" s="400"/>
+      <c r="V10" s="407"/>
+      <c r="W10" s="408"/>
+      <c r="X10" s="408"/>
+      <c r="Y10" s="408"/>
+      <c r="Z10" s="408"/>
+      <c r="AA10" s="408"/>
+      <c r="AB10" s="409"/>
+      <c r="AC10" s="438"/>
+      <c r="AD10" s="450"/>
+      <c r="AE10" s="451"/>
+      <c r="AF10" s="451"/>
+      <c r="AG10" s="452"/>
+      <c r="AH10" s="441"/>
+      <c r="AI10" s="442"/>
     </row>
     <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="124">
         <v>2</v>
       </c>
-      <c r="B11" s="396"/>
-      <c r="C11" s="397"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="397"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="438"/>
-      <c r="H11" s="439"/>
-      <c r="I11" s="440"/>
-      <c r="J11" s="396"/>
-      <c r="K11" s="397"/>
-      <c r="L11" s="397"/>
-      <c r="M11" s="397"/>
-      <c r="N11" s="397"/>
-      <c r="O11" s="397"/>
-      <c r="P11" s="398"/>
-      <c r="Q11" s="405"/>
-      <c r="R11" s="407"/>
-      <c r="S11" s="405"/>
-      <c r="T11" s="406"/>
-      <c r="U11" s="407"/>
-      <c r="V11" s="388"/>
-      <c r="W11" s="389"/>
-      <c r="X11" s="389"/>
-      <c r="Y11" s="389"/>
-      <c r="Z11" s="389"/>
-      <c r="AA11" s="389"/>
-      <c r="AB11" s="390"/>
-      <c r="AC11" s="428"/>
-      <c r="AD11" s="374"/>
-      <c r="AE11" s="375"/>
-      <c r="AF11" s="375"/>
-      <c r="AG11" s="376"/>
-      <c r="AH11" s="386"/>
-      <c r="AI11" s="387"/>
+      <c r="B11" s="373"/>
+      <c r="C11" s="374"/>
+      <c r="D11" s="374"/>
+      <c r="E11" s="374"/>
+      <c r="F11" s="375"/>
+      <c r="G11" s="396"/>
+      <c r="H11" s="397"/>
+      <c r="I11" s="398"/>
+      <c r="J11" s="373"/>
+      <c r="K11" s="374"/>
+      <c r="L11" s="374"/>
+      <c r="M11" s="374"/>
+      <c r="N11" s="374"/>
+      <c r="O11" s="374"/>
+      <c r="P11" s="375"/>
+      <c r="Q11" s="379"/>
+      <c r="R11" s="380"/>
+      <c r="S11" s="379"/>
+      <c r="T11" s="384"/>
+      <c r="U11" s="380"/>
+      <c r="V11" s="410"/>
+      <c r="W11" s="411"/>
+      <c r="X11" s="411"/>
+      <c r="Y11" s="411"/>
+      <c r="Z11" s="411"/>
+      <c r="AA11" s="411"/>
+      <c r="AB11" s="412"/>
+      <c r="AC11" s="439"/>
+      <c r="AD11" s="453"/>
+      <c r="AE11" s="454"/>
+      <c r="AF11" s="454"/>
+      <c r="AG11" s="455"/>
+      <c r="AH11" s="388"/>
+      <c r="AI11" s="389"/>
     </row>
     <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="124">
         <v>3</v>
       </c>
-      <c r="B12" s="396"/>
-      <c r="C12" s="397"/>
-      <c r="D12" s="397"/>
-      <c r="E12" s="397"/>
-      <c r="F12" s="398"/>
-      <c r="G12" s="438"/>
-      <c r="H12" s="439"/>
-      <c r="I12" s="440"/>
-      <c r="J12" s="396"/>
-      <c r="K12" s="397"/>
-      <c r="L12" s="397"/>
-      <c r="M12" s="397"/>
-      <c r="N12" s="397"/>
-      <c r="O12" s="397"/>
-      <c r="P12" s="398"/>
-      <c r="Q12" s="405"/>
-      <c r="R12" s="407"/>
-      <c r="S12" s="405"/>
-      <c r="T12" s="406"/>
-      <c r="U12" s="407"/>
-      <c r="V12" s="388"/>
-      <c r="W12" s="389"/>
-      <c r="X12" s="389"/>
-      <c r="Y12" s="389"/>
-      <c r="Z12" s="389"/>
-      <c r="AA12" s="389"/>
-      <c r="AB12" s="390"/>
-      <c r="AC12" s="428"/>
-      <c r="AD12" s="377"/>
-      <c r="AE12" s="378"/>
-      <c r="AF12" s="378"/>
-      <c r="AG12" s="379"/>
-      <c r="AH12" s="386"/>
-      <c r="AI12" s="387"/>
+      <c r="B12" s="373"/>
+      <c r="C12" s="374"/>
+      <c r="D12" s="374"/>
+      <c r="E12" s="374"/>
+      <c r="F12" s="375"/>
+      <c r="G12" s="396"/>
+      <c r="H12" s="397"/>
+      <c r="I12" s="398"/>
+      <c r="J12" s="373"/>
+      <c r="K12" s="374"/>
+      <c r="L12" s="374"/>
+      <c r="M12" s="374"/>
+      <c r="N12" s="374"/>
+      <c r="O12" s="374"/>
+      <c r="P12" s="375"/>
+      <c r="Q12" s="379"/>
+      <c r="R12" s="380"/>
+      <c r="S12" s="379"/>
+      <c r="T12" s="384"/>
+      <c r="U12" s="380"/>
+      <c r="V12" s="410"/>
+      <c r="W12" s="411"/>
+      <c r="X12" s="411"/>
+      <c r="Y12" s="411"/>
+      <c r="Z12" s="411"/>
+      <c r="AA12" s="411"/>
+      <c r="AB12" s="412"/>
+      <c r="AC12" s="439"/>
+      <c r="AD12" s="413"/>
+      <c r="AE12" s="414"/>
+      <c r="AF12" s="414"/>
+      <c r="AG12" s="415"/>
+      <c r="AH12" s="388"/>
+      <c r="AI12" s="389"/>
     </row>
     <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="124">
         <v>4</v>
       </c>
-      <c r="B13" s="396"/>
-      <c r="C13" s="397"/>
-      <c r="D13" s="397"/>
-      <c r="E13" s="397"/>
-      <c r="F13" s="398"/>
-      <c r="G13" s="438"/>
-      <c r="H13" s="439"/>
-      <c r="I13" s="440"/>
-      <c r="J13" s="396"/>
-      <c r="K13" s="397"/>
-      <c r="L13" s="397"/>
-      <c r="M13" s="397"/>
-      <c r="N13" s="397"/>
-      <c r="O13" s="397"/>
-      <c r="P13" s="398"/>
-      <c r="Q13" s="405"/>
-      <c r="R13" s="407"/>
-      <c r="S13" s="405"/>
-      <c r="T13" s="406"/>
-      <c r="U13" s="407"/>
-      <c r="V13" s="388"/>
-      <c r="W13" s="389"/>
-      <c r="X13" s="389"/>
-      <c r="Y13" s="389"/>
-      <c r="Z13" s="389"/>
-      <c r="AA13" s="389"/>
-      <c r="AB13" s="390"/>
-      <c r="AC13" s="428"/>
-      <c r="AD13" s="377"/>
-      <c r="AE13" s="378"/>
-      <c r="AF13" s="378"/>
-      <c r="AG13" s="379"/>
-      <c r="AH13" s="386"/>
-      <c r="AI13" s="387"/>
+      <c r="B13" s="373"/>
+      <c r="C13" s="374"/>
+      <c r="D13" s="374"/>
+      <c r="E13" s="374"/>
+      <c r="F13" s="375"/>
+      <c r="G13" s="396"/>
+      <c r="H13" s="397"/>
+      <c r="I13" s="398"/>
+      <c r="J13" s="373"/>
+      <c r="K13" s="374"/>
+      <c r="L13" s="374"/>
+      <c r="M13" s="374"/>
+      <c r="N13" s="374"/>
+      <c r="O13" s="374"/>
+      <c r="P13" s="375"/>
+      <c r="Q13" s="379"/>
+      <c r="R13" s="380"/>
+      <c r="S13" s="379"/>
+      <c r="T13" s="384"/>
+      <c r="U13" s="380"/>
+      <c r="V13" s="410"/>
+      <c r="W13" s="411"/>
+      <c r="X13" s="411"/>
+      <c r="Y13" s="411"/>
+      <c r="Z13" s="411"/>
+      <c r="AA13" s="411"/>
+      <c r="AB13" s="412"/>
+      <c r="AC13" s="439"/>
+      <c r="AD13" s="413"/>
+      <c r="AE13" s="414"/>
+      <c r="AF13" s="414"/>
+      <c r="AG13" s="415"/>
+      <c r="AH13" s="388"/>
+      <c r="AI13" s="389"/>
     </row>
     <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="124">
         <v>5</v>
       </c>
-      <c r="B14" s="399"/>
-      <c r="C14" s="400"/>
-      <c r="D14" s="400"/>
-      <c r="E14" s="400"/>
-      <c r="F14" s="401"/>
-      <c r="G14" s="396"/>
-      <c r="H14" s="397"/>
-      <c r="I14" s="398"/>
-      <c r="J14" s="396"/>
-      <c r="K14" s="397"/>
-      <c r="L14" s="397"/>
-      <c r="M14" s="397"/>
-      <c r="N14" s="397"/>
-      <c r="O14" s="397"/>
-      <c r="P14" s="398"/>
-      <c r="Q14" s="405"/>
-      <c r="R14" s="407"/>
-      <c r="S14" s="405"/>
-      <c r="T14" s="406"/>
-      <c r="U14" s="407"/>
-      <c r="V14" s="388"/>
-      <c r="W14" s="389"/>
-      <c r="X14" s="389"/>
-      <c r="Y14" s="389"/>
-      <c r="Z14" s="389"/>
-      <c r="AA14" s="389"/>
-      <c r="AB14" s="390"/>
-      <c r="AC14" s="428"/>
-      <c r="AD14" s="377"/>
-      <c r="AE14" s="378"/>
-      <c r="AF14" s="378"/>
-      <c r="AG14" s="379"/>
-      <c r="AH14" s="386"/>
-      <c r="AI14" s="387"/>
+      <c r="B14" s="430"/>
+      <c r="C14" s="431"/>
+      <c r="D14" s="431"/>
+      <c r="E14" s="431"/>
+      <c r="F14" s="432"/>
+      <c r="G14" s="373"/>
+      <c r="H14" s="374"/>
+      <c r="I14" s="375"/>
+      <c r="J14" s="373"/>
+      <c r="K14" s="374"/>
+      <c r="L14" s="374"/>
+      <c r="M14" s="374"/>
+      <c r="N14" s="374"/>
+      <c r="O14" s="374"/>
+      <c r="P14" s="375"/>
+      <c r="Q14" s="379"/>
+      <c r="R14" s="380"/>
+      <c r="S14" s="379"/>
+      <c r="T14" s="384"/>
+      <c r="U14" s="380"/>
+      <c r="V14" s="410"/>
+      <c r="W14" s="411"/>
+      <c r="X14" s="411"/>
+      <c r="Y14" s="411"/>
+      <c r="Z14" s="411"/>
+      <c r="AA14" s="411"/>
+      <c r="AB14" s="412"/>
+      <c r="AC14" s="439"/>
+      <c r="AD14" s="413"/>
+      <c r="AE14" s="414"/>
+      <c r="AF14" s="414"/>
+      <c r="AG14" s="415"/>
+      <c r="AH14" s="388"/>
+      <c r="AI14" s="389"/>
     </row>
     <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="124">
         <v>6</v>
       </c>
-      <c r="B15" s="399"/>
-      <c r="C15" s="400"/>
-      <c r="D15" s="400"/>
-      <c r="E15" s="400"/>
-      <c r="F15" s="401"/>
-      <c r="G15" s="396"/>
-      <c r="H15" s="397"/>
-      <c r="I15" s="398"/>
-      <c r="J15" s="396"/>
-      <c r="K15" s="397"/>
-      <c r="L15" s="397"/>
-      <c r="M15" s="397"/>
-      <c r="N15" s="397"/>
-      <c r="O15" s="397"/>
-      <c r="P15" s="398"/>
-      <c r="Q15" s="405"/>
-      <c r="R15" s="407"/>
-      <c r="S15" s="405"/>
-      <c r="T15" s="406"/>
-      <c r="U15" s="407"/>
-      <c r="V15" s="388"/>
-      <c r="W15" s="389"/>
-      <c r="X15" s="389"/>
-      <c r="Y15" s="389"/>
-      <c r="Z15" s="389"/>
-      <c r="AA15" s="389"/>
-      <c r="AB15" s="390"/>
-      <c r="AC15" s="428"/>
-      <c r="AD15" s="377"/>
-      <c r="AE15" s="378"/>
-      <c r="AF15" s="378"/>
-      <c r="AG15" s="379"/>
-      <c r="AH15" s="386"/>
-      <c r="AI15" s="387"/>
+      <c r="B15" s="430"/>
+      <c r="C15" s="431"/>
+      <c r="D15" s="431"/>
+      <c r="E15" s="431"/>
+      <c r="F15" s="432"/>
+      <c r="G15" s="373"/>
+      <c r="H15" s="374"/>
+      <c r="I15" s="375"/>
+      <c r="J15" s="373"/>
+      <c r="K15" s="374"/>
+      <c r="L15" s="374"/>
+      <c r="M15" s="374"/>
+      <c r="N15" s="374"/>
+      <c r="O15" s="374"/>
+      <c r="P15" s="375"/>
+      <c r="Q15" s="379"/>
+      <c r="R15" s="380"/>
+      <c r="S15" s="379"/>
+      <c r="T15" s="384"/>
+      <c r="U15" s="380"/>
+      <c r="V15" s="410"/>
+      <c r="W15" s="411"/>
+      <c r="X15" s="411"/>
+      <c r="Y15" s="411"/>
+      <c r="Z15" s="411"/>
+      <c r="AA15" s="411"/>
+      <c r="AB15" s="412"/>
+      <c r="AC15" s="439"/>
+      <c r="AD15" s="413"/>
+      <c r="AE15" s="414"/>
+      <c r="AF15" s="414"/>
+      <c r="AG15" s="415"/>
+      <c r="AH15" s="388"/>
+      <c r="AI15" s="389"/>
     </row>
     <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125">
         <v>7</v>
       </c>
-      <c r="B16" s="399"/>
-      <c r="C16" s="400"/>
-      <c r="D16" s="400"/>
-      <c r="E16" s="400"/>
-      <c r="F16" s="401"/>
-      <c r="G16" s="396"/>
-      <c r="H16" s="397"/>
-      <c r="I16" s="398"/>
-      <c r="J16" s="396"/>
-      <c r="K16" s="397"/>
-      <c r="L16" s="397"/>
-      <c r="M16" s="397"/>
-      <c r="N16" s="397"/>
-      <c r="O16" s="397"/>
-      <c r="P16" s="398"/>
-      <c r="Q16" s="405"/>
-      <c r="R16" s="407"/>
-      <c r="S16" s="405"/>
-      <c r="T16" s="406"/>
-      <c r="U16" s="407"/>
-      <c r="V16" s="388"/>
-      <c r="W16" s="389"/>
-      <c r="X16" s="389"/>
-      <c r="Y16" s="389"/>
-      <c r="Z16" s="389"/>
-      <c r="AA16" s="389"/>
-      <c r="AB16" s="390"/>
-      <c r="AC16" s="428"/>
-      <c r="AD16" s="377"/>
-      <c r="AE16" s="378"/>
-      <c r="AF16" s="378"/>
-      <c r="AG16" s="379"/>
-      <c r="AH16" s="386"/>
-      <c r="AI16" s="387"/>
+      <c r="B16" s="430"/>
+      <c r="C16" s="431"/>
+      <c r="D16" s="431"/>
+      <c r="E16" s="431"/>
+      <c r="F16" s="432"/>
+      <c r="G16" s="373"/>
+      <c r="H16" s="374"/>
+      <c r="I16" s="375"/>
+      <c r="J16" s="373"/>
+      <c r="K16" s="374"/>
+      <c r="L16" s="374"/>
+      <c r="M16" s="374"/>
+      <c r="N16" s="374"/>
+      <c r="O16" s="374"/>
+      <c r="P16" s="375"/>
+      <c r="Q16" s="379"/>
+      <c r="R16" s="380"/>
+      <c r="S16" s="379"/>
+      <c r="T16" s="384"/>
+      <c r="U16" s="380"/>
+      <c r="V16" s="410"/>
+      <c r="W16" s="411"/>
+      <c r="X16" s="411"/>
+      <c r="Y16" s="411"/>
+      <c r="Z16" s="411"/>
+      <c r="AA16" s="411"/>
+      <c r="AB16" s="412"/>
+      <c r="AC16" s="439"/>
+      <c r="AD16" s="413"/>
+      <c r="AE16" s="414"/>
+      <c r="AF16" s="414"/>
+      <c r="AG16" s="415"/>
+      <c r="AH16" s="388"/>
+      <c r="AI16" s="389"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="125">
         <v>8</v>
       </c>
-      <c r="B17" s="399"/>
-      <c r="C17" s="400"/>
-      <c r="D17" s="400"/>
-      <c r="E17" s="400"/>
-      <c r="F17" s="401"/>
-      <c r="G17" s="396"/>
-      <c r="H17" s="397"/>
-      <c r="I17" s="398"/>
-      <c r="J17" s="396"/>
-      <c r="K17" s="397"/>
-      <c r="L17" s="397"/>
-      <c r="M17" s="397"/>
-      <c r="N17" s="397"/>
-      <c r="O17" s="397"/>
-      <c r="P17" s="398"/>
-      <c r="Q17" s="405"/>
-      <c r="R17" s="407"/>
-      <c r="S17" s="405"/>
-      <c r="T17" s="406"/>
-      <c r="U17" s="407"/>
-      <c r="V17" s="388"/>
-      <c r="W17" s="389"/>
-      <c r="X17" s="389"/>
-      <c r="Y17" s="389"/>
-      <c r="Z17" s="389"/>
-      <c r="AA17" s="389"/>
-      <c r="AB17" s="390"/>
-      <c r="AC17" s="428"/>
-      <c r="AD17" s="377"/>
-      <c r="AE17" s="378"/>
-      <c r="AF17" s="378"/>
-      <c r="AG17" s="379"/>
-      <c r="AH17" s="386"/>
-      <c r="AI17" s="387"/>
+      <c r="B17" s="430"/>
+      <c r="C17" s="431"/>
+      <c r="D17" s="431"/>
+      <c r="E17" s="431"/>
+      <c r="F17" s="432"/>
+      <c r="G17" s="373"/>
+      <c r="H17" s="374"/>
+      <c r="I17" s="375"/>
+      <c r="J17" s="373"/>
+      <c r="K17" s="374"/>
+      <c r="L17" s="374"/>
+      <c r="M17" s="374"/>
+      <c r="N17" s="374"/>
+      <c r="O17" s="374"/>
+      <c r="P17" s="375"/>
+      <c r="Q17" s="379"/>
+      <c r="R17" s="380"/>
+      <c r="S17" s="379"/>
+      <c r="T17" s="384"/>
+      <c r="U17" s="380"/>
+      <c r="V17" s="410"/>
+      <c r="W17" s="411"/>
+      <c r="X17" s="411"/>
+      <c r="Y17" s="411"/>
+      <c r="Z17" s="411"/>
+      <c r="AA17" s="411"/>
+      <c r="AB17" s="412"/>
+      <c r="AC17" s="439"/>
+      <c r="AD17" s="413"/>
+      <c r="AE17" s="414"/>
+      <c r="AF17" s="414"/>
+      <c r="AG17" s="415"/>
+      <c r="AH17" s="388"/>
+      <c r="AI17" s="389"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="126">
         <v>9</v>
       </c>
-      <c r="B18" s="422"/>
-      <c r="C18" s="423"/>
-      <c r="D18" s="423"/>
-      <c r="E18" s="423"/>
-      <c r="F18" s="424"/>
-      <c r="G18" s="419"/>
-      <c r="H18" s="420"/>
-      <c r="I18" s="421"/>
-      <c r="J18" s="419"/>
-      <c r="K18" s="420"/>
-      <c r="L18" s="420"/>
-      <c r="M18" s="420"/>
-      <c r="N18" s="420"/>
-      <c r="O18" s="420"/>
-      <c r="P18" s="421"/>
-      <c r="Q18" s="416"/>
-      <c r="R18" s="418"/>
-      <c r="S18" s="416"/>
-      <c r="T18" s="417"/>
-      <c r="U18" s="418"/>
-      <c r="V18" s="411"/>
-      <c r="W18" s="412"/>
-      <c r="X18" s="412"/>
-      <c r="Y18" s="412"/>
-      <c r="Z18" s="412"/>
-      <c r="AA18" s="412"/>
-      <c r="AB18" s="413"/>
-      <c r="AC18" s="429"/>
-      <c r="AD18" s="368"/>
-      <c r="AE18" s="369"/>
-      <c r="AF18" s="369"/>
-      <c r="AG18" s="370"/>
-      <c r="AH18" s="425"/>
-      <c r="AI18" s="426"/>
+      <c r="B18" s="433"/>
+      <c r="C18" s="434"/>
+      <c r="D18" s="434"/>
+      <c r="E18" s="434"/>
+      <c r="F18" s="435"/>
+      <c r="G18" s="427"/>
+      <c r="H18" s="428"/>
+      <c r="I18" s="429"/>
+      <c r="J18" s="427"/>
+      <c r="K18" s="428"/>
+      <c r="L18" s="428"/>
+      <c r="M18" s="428"/>
+      <c r="N18" s="428"/>
+      <c r="O18" s="428"/>
+      <c r="P18" s="429"/>
+      <c r="Q18" s="424"/>
+      <c r="R18" s="426"/>
+      <c r="S18" s="424"/>
+      <c r="T18" s="425"/>
+      <c r="U18" s="426"/>
+      <c r="V18" s="419"/>
+      <c r="W18" s="420"/>
+      <c r="X18" s="420"/>
+      <c r="Y18" s="420"/>
+      <c r="Z18" s="420"/>
+      <c r="AA18" s="420"/>
+      <c r="AB18" s="421"/>
+      <c r="AC18" s="440"/>
+      <c r="AD18" s="447"/>
+      <c r="AE18" s="448"/>
+      <c r="AF18" s="448"/>
+      <c r="AG18" s="449"/>
+      <c r="AH18" s="436"/>
+      <c r="AI18" s="437"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="414"/>
-      <c r="B19" s="415"/>
-      <c r="C19" s="415"/>
-      <c r="D19" s="415"/>
-      <c r="E19" s="415"/>
-      <c r="F19" s="415"/>
+      <c r="A19" s="422"/>
+      <c r="B19" s="423"/>
+      <c r="C19" s="423"/>
+      <c r="D19" s="423"/>
+      <c r="E19" s="423"/>
+      <c r="F19" s="423"/>
       <c r="G19" s="127"/>
       <c r="H19" s="127"/>
       <c r="I19" s="127"/>
@@ -12319,23 +12319,23 @@
       <c r="AA19" s="127"/>
       <c r="AB19" s="127"/>
       <c r="AC19" s="128"/>
-      <c r="AD19" s="410"/>
-      <c r="AE19" s="410"/>
-      <c r="AF19" s="410"/>
-      <c r="AG19" s="410"/>
-      <c r="AH19" s="410"/>
+      <c r="AD19" s="418"/>
+      <c r="AE19" s="418"/>
+      <c r="AF19" s="418"/>
+      <c r="AG19" s="418"/>
+      <c r="AH19" s="418"/>
       <c r="AI19" s="63"/>
       <c r="AJ19" s="129"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="408" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="409"/>
-      <c r="C20" s="409"/>
-      <c r="D20" s="409"/>
-      <c r="E20" s="409"/>
-      <c r="F20" s="409"/>
+      <c r="A20" s="416" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="417"/>
+      <c r="C20" s="417"/>
+      <c r="D20" s="417"/>
+      <c r="E20" s="417"/>
+      <c r="F20" s="417"/>
       <c r="G20" s="130"/>
       <c r="H20" s="131"/>
       <c r="I20" s="131"/>
@@ -12882,20 +12882,72 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AH16:AI16"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
@@ -12920,72 +12972,20 @@
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="V10:AB10"/>
     <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -13026,163 +13026,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="308" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="312" t="str">
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="315" t="s">
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="316"/>
-      <c r="Q1" s="316"/>
-      <c r="R1" s="317"/>
-      <c r="S1" s="302" t="str">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="S1" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="303"/>
-      <c r="U1" s="303"/>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
-      <c r="Z1" s="304"/>
-      <c r="AA1" s="300" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="300"/>
+      <c r="V1" s="300"/>
+      <c r="W1" s="300"/>
+      <c r="X1" s="300"/>
+      <c r="Y1" s="300"/>
+      <c r="Z1" s="301"/>
+      <c r="AA1" s="308" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="301"/>
-      <c r="AC1" s="297" t="str">
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="298"/>
-      <c r="AE1" s="298"/>
-      <c r="AF1" s="299"/>
-      <c r="AG1" s="324">
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="328"/>
+      <c r="AG1" s="370">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="325"/>
-      <c r="AI1" s="326"/>
+      <c r="AH1" s="371"/>
+      <c r="AI1" s="372"/>
     </row>
     <row r="2" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="300" t="s">
+      <c r="A2" s="308" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="311"/>
-      <c r="C2" s="311"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="312" t="str">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="314"/>
-      <c r="O2" s="318"/>
-      <c r="P2" s="319"/>
-      <c r="Q2" s="319"/>
-      <c r="R2" s="320"/>
-      <c r="S2" s="305"/>
-      <c r="T2" s="306"/>
-      <c r="U2" s="306"/>
-      <c r="V2" s="306"/>
-      <c r="W2" s="306"/>
-      <c r="X2" s="306"/>
-      <c r="Y2" s="306"/>
-      <c r="Z2" s="307"/>
-      <c r="AA2" s="300" t="s">
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
+      <c r="H2" s="312"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="318"/>
+      <c r="Q2" s="318"/>
+      <c r="R2" s="319"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="308" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="301"/>
-      <c r="AC2" s="297" t="str">
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="298"/>
-      <c r="AE2" s="298"/>
-      <c r="AF2" s="299"/>
-      <c r="AG2" s="324" t="str">
+      <c r="AD2" s="327"/>
+      <c r="AE2" s="327"/>
+      <c r="AF2" s="328"/>
+      <c r="AG2" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="325"/>
-      <c r="AI2" s="326"/>
+      <c r="AH2" s="371"/>
+      <c r="AI2" s="372"/>
     </row>
     <row r="3" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="308" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="312" t="str">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="313"/>
-      <c r="K3" s="313"/>
-      <c r="L3" s="313"/>
-      <c r="M3" s="313"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="321"/>
-      <c r="P3" s="322"/>
-      <c r="Q3" s="322"/>
-      <c r="R3" s="323"/>
-      <c r="S3" s="308"/>
-      <c r="T3" s="309"/>
-      <c r="U3" s="309"/>
-      <c r="V3" s="309"/>
-      <c r="W3" s="309"/>
-      <c r="X3" s="309"/>
-      <c r="Y3" s="309"/>
-      <c r="Z3" s="310"/>
-      <c r="AA3" s="300"/>
-      <c r="AB3" s="301"/>
-      <c r="AC3" s="297" t="str">
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="313"/>
+      <c r="O3" s="320"/>
+      <c r="P3" s="321"/>
+      <c r="Q3" s="321"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="305"/>
+      <c r="T3" s="306"/>
+      <c r="U3" s="306"/>
+      <c r="V3" s="306"/>
+      <c r="W3" s="306"/>
+      <c r="X3" s="306"/>
+      <c r="Y3" s="306"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="308"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="298"/>
-      <c r="AE3" s="298"/>
-      <c r="AF3" s="299"/>
-      <c r="AG3" s="324" t="str">
+      <c r="AD3" s="327"/>
+      <c r="AE3" s="327"/>
+      <c r="AF3" s="328"/>
+      <c r="AG3" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="325"/>
-      <c r="AI3" s="326"/>
+      <c r="AH3" s="371"/>
+      <c r="AI3" s="372"/>
     </row>
     <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
@@ -13219,165 +13219,165 @@
       <c r="AB6" s="62"/>
       <c r="AC6" s="62"/>
     </row>
-    <row r="7" spans="1:96" s="484" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="476" t="s">
+    <row r="7" spans="1:96" s="241" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="477" t="s">
+      <c r="B7" s="480" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="478"/>
-      <c r="D7" s="478"/>
-      <c r="E7" s="478"/>
-      <c r="F7" s="479"/>
-      <c r="G7" s="477" t="s">
+      <c r="C7" s="481"/>
+      <c r="D7" s="481"/>
+      <c r="E7" s="481"/>
+      <c r="F7" s="482"/>
+      <c r="G7" s="480" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="478"/>
-      <c r="I7" s="478"/>
-      <c r="J7" s="478"/>
-      <c r="K7" s="479"/>
-      <c r="L7" s="477" t="s">
+      <c r="H7" s="481"/>
+      <c r="I7" s="481"/>
+      <c r="J7" s="481"/>
+      <c r="K7" s="482"/>
+      <c r="L7" s="480" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="478"/>
-      <c r="N7" s="478"/>
-      <c r="O7" s="478"/>
-      <c r="P7" s="479"/>
-      <c r="Q7" s="480" t="s">
-        <v>131</v>
-      </c>
-      <c r="R7" s="481" t="s">
+      <c r="M7" s="481"/>
+      <c r="N7" s="481"/>
+      <c r="O7" s="481"/>
+      <c r="P7" s="482"/>
+      <c r="Q7" s="238" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" s="474" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="481"/>
-      <c r="T7" s="481"/>
-      <c r="U7" s="481"/>
-      <c r="V7" s="474" t="s">
+      <c r="S7" s="474"/>
+      <c r="T7" s="474"/>
+      <c r="U7" s="474"/>
+      <c r="V7" s="475" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="475"/>
-      <c r="X7" s="474" t="s">
+      <c r="W7" s="476"/>
+      <c r="X7" s="475" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="475"/>
-      <c r="Z7" s="477" t="s">
+      <c r="Y7" s="476"/>
+      <c r="Z7" s="480" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="478"/>
-      <c r="AB7" s="479"/>
-      <c r="AC7" s="477" t="s">
+      <c r="AA7" s="481"/>
+      <c r="AB7" s="482"/>
+      <c r="AC7" s="480" t="s">
         <v>73</v>
       </c>
-      <c r="AD7" s="478"/>
-      <c r="AE7" s="478"/>
-      <c r="AF7" s="478"/>
-      <c r="AG7" s="478"/>
-      <c r="AH7" s="478"/>
-      <c r="AI7" s="478"/>
-      <c r="AJ7" s="478"/>
-      <c r="AK7" s="479"/>
-      <c r="AL7" s="482"/>
-      <c r="AM7" s="482"/>
-      <c r="AN7" s="482"/>
-      <c r="AO7" s="482"/>
-      <c r="AP7" s="482"/>
-      <c r="AQ7" s="482"/>
-      <c r="AR7" s="482"/>
-      <c r="AS7" s="482"/>
-      <c r="AT7" s="482"/>
-      <c r="AU7" s="482"/>
-      <c r="AV7" s="482"/>
-      <c r="AW7" s="482"/>
-      <c r="AX7" s="482"/>
-      <c r="AY7" s="482"/>
-      <c r="AZ7" s="482"/>
-      <c r="BA7" s="482"/>
-      <c r="BB7" s="482"/>
-      <c r="BC7" s="482"/>
-      <c r="BD7" s="482"/>
-      <c r="BE7" s="482"/>
-      <c r="BF7" s="482"/>
-      <c r="BG7" s="482"/>
-      <c r="BH7" s="482"/>
-      <c r="BI7" s="482"/>
-      <c r="BJ7" s="482"/>
-      <c r="BK7" s="482"/>
-      <c r="BL7" s="482"/>
-      <c r="BM7" s="482"/>
-      <c r="BN7" s="482"/>
-      <c r="BO7" s="482"/>
-      <c r="BP7" s="482"/>
-      <c r="BQ7" s="482"/>
-      <c r="BR7" s="482"/>
-      <c r="BS7" s="482"/>
-      <c r="BT7" s="482"/>
-      <c r="BU7" s="482"/>
-      <c r="BV7" s="482"/>
-      <c r="BW7" s="482"/>
-      <c r="BX7" s="482"/>
-      <c r="BY7" s="482"/>
-      <c r="BZ7" s="482"/>
-      <c r="CA7" s="482"/>
-      <c r="CB7" s="482"/>
-      <c r="CC7" s="483"/>
-      <c r="CD7" s="483"/>
-      <c r="CE7" s="483"/>
-      <c r="CF7" s="483"/>
-      <c r="CG7" s="483"/>
-      <c r="CH7" s="483"/>
-      <c r="CI7" s="483"/>
-      <c r="CJ7" s="483"/>
-      <c r="CK7" s="483"/>
-      <c r="CL7" s="483"/>
-      <c r="CM7" s="483"/>
+      <c r="AD7" s="481"/>
+      <c r="AE7" s="481"/>
+      <c r="AF7" s="481"/>
+      <c r="AG7" s="481"/>
+      <c r="AH7" s="481"/>
+      <c r="AI7" s="481"/>
+      <c r="AJ7" s="481"/>
+      <c r="AK7" s="482"/>
+      <c r="AL7" s="239"/>
+      <c r="AM7" s="239"/>
+      <c r="AN7" s="239"/>
+      <c r="AO7" s="239"/>
+      <c r="AP7" s="239"/>
+      <c r="AQ7" s="239"/>
+      <c r="AR7" s="239"/>
+      <c r="AS7" s="239"/>
+      <c r="AT7" s="239"/>
+      <c r="AU7" s="239"/>
+      <c r="AV7" s="239"/>
+      <c r="AW7" s="239"/>
+      <c r="AX7" s="239"/>
+      <c r="AY7" s="239"/>
+      <c r="AZ7" s="239"/>
+      <c r="BA7" s="239"/>
+      <c r="BB7" s="239"/>
+      <c r="BC7" s="239"/>
+      <c r="BD7" s="239"/>
+      <c r="BE7" s="239"/>
+      <c r="BF7" s="239"/>
+      <c r="BG7" s="239"/>
+      <c r="BH7" s="239"/>
+      <c r="BI7" s="239"/>
+      <c r="BJ7" s="239"/>
+      <c r="BK7" s="239"/>
+      <c r="BL7" s="239"/>
+      <c r="BM7" s="239"/>
+      <c r="BN7" s="239"/>
+      <c r="BO7" s="239"/>
+      <c r="BP7" s="239"/>
+      <c r="BQ7" s="239"/>
+      <c r="BR7" s="239"/>
+      <c r="BS7" s="239"/>
+      <c r="BT7" s="239"/>
+      <c r="BU7" s="239"/>
+      <c r="BV7" s="239"/>
+      <c r="BW7" s="239"/>
+      <c r="BX7" s="239"/>
+      <c r="BY7" s="239"/>
+      <c r="BZ7" s="239"/>
+      <c r="CA7" s="239"/>
+      <c r="CB7" s="239"/>
+      <c r="CC7" s="240"/>
+      <c r="CD7" s="240"/>
+      <c r="CE7" s="240"/>
+      <c r="CF7" s="240"/>
+      <c r="CG7" s="240"/>
+      <c r="CH7" s="240"/>
+      <c r="CI7" s="240"/>
+      <c r="CJ7" s="240"/>
+      <c r="CK7" s="240"/>
+      <c r="CL7" s="240"/>
+      <c r="CM7" s="240"/>
     </row>
     <row r="8" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="65">
         <v>1</v>
       </c>
-      <c r="B8" s="459" t="s">
+      <c r="B8" s="461" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="460"/>
-      <c r="D8" s="460"/>
-      <c r="E8" s="460"/>
-      <c r="F8" s="461"/>
-      <c r="G8" s="456" t="s">
+      <c r="C8" s="462"/>
+      <c r="D8" s="462"/>
+      <c r="E8" s="462"/>
+      <c r="F8" s="463"/>
+      <c r="G8" s="464" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="457"/>
-      <c r="I8" s="457"/>
-      <c r="J8" s="457"/>
-      <c r="K8" s="458"/>
-      <c r="L8" s="459"/>
-      <c r="M8" s="460"/>
-      <c r="N8" s="460"/>
-      <c r="O8" s="460"/>
-      <c r="P8" s="461"/>
+      <c r="H8" s="465"/>
+      <c r="I8" s="465"/>
+      <c r="J8" s="465"/>
+      <c r="K8" s="466"/>
+      <c r="L8" s="461"/>
+      <c r="M8" s="462"/>
+      <c r="N8" s="462"/>
+      <c r="O8" s="462"/>
+      <c r="P8" s="463"/>
       <c r="Q8" s="66"/>
-      <c r="R8" s="459"/>
-      <c r="S8" s="460"/>
-      <c r="T8" s="460"/>
-      <c r="U8" s="461"/>
-      <c r="V8" s="465" t="s">
+      <c r="R8" s="461"/>
+      <c r="S8" s="462"/>
+      <c r="T8" s="462"/>
+      <c r="U8" s="463"/>
+      <c r="V8" s="467" t="s">
         <v>76</v>
       </c>
-      <c r="W8" s="466"/>
-      <c r="X8" s="467"/>
-      <c r="Y8" s="468"/>
-      <c r="Z8" s="459"/>
-      <c r="AA8" s="460"/>
-      <c r="AB8" s="461"/>
-      <c r="AC8" s="459"/>
-      <c r="AD8" s="460"/>
-      <c r="AE8" s="460"/>
-      <c r="AF8" s="460"/>
-      <c r="AG8" s="460"/>
-      <c r="AH8" s="460"/>
-      <c r="AI8" s="460"/>
-      <c r="AJ8" s="460"/>
-      <c r="AK8" s="461"/>
+      <c r="W8" s="468"/>
+      <c r="X8" s="483"/>
+      <c r="Y8" s="484"/>
+      <c r="Z8" s="461"/>
+      <c r="AA8" s="462"/>
+      <c r="AB8" s="463"/>
+      <c r="AC8" s="461"/>
+      <c r="AD8" s="462"/>
+      <c r="AE8" s="462"/>
+      <c r="AF8" s="462"/>
+      <c r="AG8" s="462"/>
+      <c r="AH8" s="462"/>
+      <c r="AI8" s="462"/>
+      <c r="AJ8" s="462"/>
+      <c r="AK8" s="463"/>
       <c r="AL8" s="64"/>
       <c r="AM8" s="64"/>
       <c r="AN8" s="64"/>
@@ -13436,54 +13436,54 @@
       <c r="A9" s="65">
         <v>2</v>
       </c>
-      <c r="B9" s="459" t="s">
+      <c r="B9" s="461" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="460"/>
-      <c r="D9" s="460"/>
-      <c r="E9" s="460"/>
-      <c r="F9" s="461"/>
-      <c r="G9" s="456" t="s">
+      <c r="C9" s="462"/>
+      <c r="D9" s="462"/>
+      <c r="E9" s="462"/>
+      <c r="F9" s="463"/>
+      <c r="G9" s="464" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="457"/>
-      <c r="I9" s="457"/>
-      <c r="J9" s="457"/>
-      <c r="K9" s="458"/>
-      <c r="L9" s="459" t="s">
+      <c r="H9" s="465"/>
+      <c r="I9" s="465"/>
+      <c r="J9" s="465"/>
+      <c r="K9" s="466"/>
+      <c r="L9" s="461" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="460"/>
-      <c r="N9" s="460"/>
-      <c r="O9" s="460"/>
-      <c r="P9" s="461"/>
+      <c r="M9" s="462"/>
+      <c r="N9" s="462"/>
+      <c r="O9" s="462"/>
+      <c r="P9" s="463"/>
       <c r="Q9" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="R9" s="461" t="s">
         <v>79</v>
       </c>
-      <c r="R9" s="459" t="s">
-        <v>80</v>
-      </c>
-      <c r="S9" s="460"/>
-      <c r="T9" s="460"/>
-      <c r="U9" s="461"/>
-      <c r="V9" s="465">
+      <c r="S9" s="462"/>
+      <c r="T9" s="462"/>
+      <c r="U9" s="463"/>
+      <c r="V9" s="467">
         <v>1</v>
       </c>
-      <c r="W9" s="466"/>
-      <c r="X9" s="467"/>
-      <c r="Y9" s="468"/>
-      <c r="Z9" s="459"/>
-      <c r="AA9" s="460"/>
-      <c r="AB9" s="461"/>
-      <c r="AC9" s="459"/>
-      <c r="AD9" s="460"/>
-      <c r="AE9" s="460"/>
-      <c r="AF9" s="460"/>
-      <c r="AG9" s="460"/>
-      <c r="AH9" s="460"/>
-      <c r="AI9" s="460"/>
-      <c r="AJ9" s="460"/>
-      <c r="AK9" s="461"/>
+      <c r="W9" s="468"/>
+      <c r="X9" s="483"/>
+      <c r="Y9" s="484"/>
+      <c r="Z9" s="461"/>
+      <c r="AA9" s="462"/>
+      <c r="AB9" s="463"/>
+      <c r="AC9" s="461"/>
+      <c r="AD9" s="462"/>
+      <c r="AE9" s="462"/>
+      <c r="AF9" s="462"/>
+      <c r="AG9" s="462"/>
+      <c r="AH9" s="462"/>
+      <c r="AI9" s="462"/>
+      <c r="AJ9" s="462"/>
+      <c r="AK9" s="463"/>
       <c r="AL9" s="64"/>
       <c r="AM9" s="64"/>
       <c r="AN9" s="64"/>
@@ -13542,54 +13542,54 @@
       <c r="A10" s="65">
         <v>3</v>
       </c>
-      <c r="B10" s="459" t="s">
+      <c r="B10" s="461" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="462"/>
+      <c r="D10" s="462"/>
+      <c r="E10" s="462"/>
+      <c r="F10" s="463"/>
+      <c r="G10" s="464" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="460"/>
-      <c r="D10" s="460"/>
-      <c r="E10" s="460"/>
-      <c r="F10" s="461"/>
-      <c r="G10" s="456" t="s">
+      <c r="H10" s="465"/>
+      <c r="I10" s="465"/>
+      <c r="J10" s="465"/>
+      <c r="K10" s="466"/>
+      <c r="L10" s="461" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="462"/>
+      <c r="N10" s="462"/>
+      <c r="O10" s="462"/>
+      <c r="P10" s="463"/>
+      <c r="Q10" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="R10" s="461" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="457"/>
-      <c r="I10" s="457"/>
-      <c r="J10" s="457"/>
-      <c r="K10" s="458"/>
-      <c r="L10" s="459" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="460"/>
-      <c r="N10" s="460"/>
-      <c r="O10" s="460"/>
-      <c r="P10" s="461"/>
-      <c r="Q10" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" s="459" t="s">
-        <v>83</v>
-      </c>
-      <c r="S10" s="460"/>
-      <c r="T10" s="460"/>
-      <c r="U10" s="461"/>
-      <c r="V10" s="465">
+      <c r="S10" s="462"/>
+      <c r="T10" s="462"/>
+      <c r="U10" s="463"/>
+      <c r="V10" s="467">
         <v>1</v>
       </c>
-      <c r="W10" s="466"/>
-      <c r="X10" s="462"/>
-      <c r="Y10" s="464"/>
-      <c r="Z10" s="459"/>
-      <c r="AA10" s="460"/>
-      <c r="AB10" s="461"/>
-      <c r="AC10" s="459"/>
-      <c r="AD10" s="460"/>
-      <c r="AE10" s="460"/>
-      <c r="AF10" s="460"/>
-      <c r="AG10" s="460"/>
-      <c r="AH10" s="460"/>
-      <c r="AI10" s="460"/>
-      <c r="AJ10" s="460"/>
-      <c r="AK10" s="461"/>
+      <c r="W10" s="468"/>
+      <c r="X10" s="477"/>
+      <c r="Y10" s="479"/>
+      <c r="Z10" s="461"/>
+      <c r="AA10" s="462"/>
+      <c r="AB10" s="463"/>
+      <c r="AC10" s="461"/>
+      <c r="AD10" s="462"/>
+      <c r="AE10" s="462"/>
+      <c r="AF10" s="462"/>
+      <c r="AG10" s="462"/>
+      <c r="AH10" s="462"/>
+      <c r="AI10" s="462"/>
+      <c r="AJ10" s="462"/>
+      <c r="AK10" s="463"/>
       <c r="AL10" s="64"/>
       <c r="AM10" s="64"/>
       <c r="AN10" s="64"/>
@@ -13648,40 +13648,40 @@
       <c r="A11" s="65">
         <v>4</v>
       </c>
-      <c r="B11" s="459" t="s">
+      <c r="B11" s="461" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="462"/>
+      <c r="D11" s="462"/>
+      <c r="E11" s="462"/>
+      <c r="F11" s="463"/>
+      <c r="G11" s="464" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="460"/>
-      <c r="D11" s="460"/>
-      <c r="E11" s="460"/>
-      <c r="F11" s="461"/>
-      <c r="G11" s="456" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="457"/>
-      <c r="I11" s="457"/>
-      <c r="J11" s="457"/>
-      <c r="K11" s="458"/>
-      <c r="L11" s="459" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="460"/>
-      <c r="N11" s="460"/>
-      <c r="O11" s="460"/>
-      <c r="P11" s="461"/>
+      <c r="H11" s="465"/>
+      <c r="I11" s="465"/>
+      <c r="J11" s="465"/>
+      <c r="K11" s="466"/>
+      <c r="L11" s="461" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="462"/>
+      <c r="N11" s="462"/>
+      <c r="O11" s="462"/>
+      <c r="P11" s="463"/>
       <c r="Q11" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="R11" s="461" t="s">
         <v>79</v>
       </c>
-      <c r="R11" s="459" t="s">
-        <v>80</v>
-      </c>
-      <c r="S11" s="460"/>
-      <c r="T11" s="460"/>
-      <c r="U11" s="461"/>
-      <c r="V11" s="465">
+      <c r="S11" s="462"/>
+      <c r="T11" s="462"/>
+      <c r="U11" s="463"/>
+      <c r="V11" s="467">
         <v>1</v>
       </c>
-      <c r="W11" s="466"/>
+      <c r="W11" s="468"/>
       <c r="X11" s="67"/>
       <c r="Y11" s="68"/>
       <c r="Z11" s="69"/>
@@ -13752,28 +13752,28 @@
     </row>
     <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="65"/>
-      <c r="B12" s="459"/>
-      <c r="C12" s="460"/>
-      <c r="D12" s="460"/>
-      <c r="E12" s="460"/>
-      <c r="F12" s="461"/>
-      <c r="G12" s="462"/>
-      <c r="H12" s="463"/>
-      <c r="I12" s="463"/>
-      <c r="J12" s="463"/>
-      <c r="K12" s="464"/>
-      <c r="L12" s="462"/>
-      <c r="M12" s="463"/>
-      <c r="N12" s="463"/>
-      <c r="O12" s="463"/>
-      <c r="P12" s="464"/>
+      <c r="B12" s="461"/>
+      <c r="C12" s="462"/>
+      <c r="D12" s="462"/>
+      <c r="E12" s="462"/>
+      <c r="F12" s="463"/>
+      <c r="G12" s="477"/>
+      <c r="H12" s="478"/>
+      <c r="I12" s="478"/>
+      <c r="J12" s="478"/>
+      <c r="K12" s="479"/>
+      <c r="L12" s="477"/>
+      <c r="M12" s="478"/>
+      <c r="N12" s="478"/>
+      <c r="O12" s="478"/>
+      <c r="P12" s="479"/>
       <c r="Q12" s="66"/>
-      <c r="R12" s="459"/>
-      <c r="S12" s="460"/>
-      <c r="T12" s="460"/>
-      <c r="U12" s="461"/>
-      <c r="V12" s="465"/>
-      <c r="W12" s="466"/>
+      <c r="R12" s="461"/>
+      <c r="S12" s="462"/>
+      <c r="T12" s="462"/>
+      <c r="U12" s="463"/>
+      <c r="V12" s="467"/>
+      <c r="W12" s="468"/>
       <c r="X12" s="67"/>
       <c r="Y12" s="68"/>
       <c r="Z12" s="69"/>
@@ -13946,7 +13946,7 @@
     </row>
     <row r="15" spans="1:96" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="469" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="470"/>
       <c r="C15" s="470"/>
@@ -13972,7 +13972,7 @@
       <c r="W15" s="470"/>
       <c r="X15" s="470"/>
       <c r="Y15" s="471" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z15" s="472"/>
       <c r="AA15" s="472"/>
@@ -14632,11 +14632,46 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="A15:X15"/>
     <mergeCell ref="Y15:AK15"/>
     <mergeCell ref="R7:U7"/>
@@ -14653,52 +14688,14 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="AC7:AK7"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q8:Q12" xr:uid="{00000000-0002-0000-0500-000000000000}">
-      <formula1>"○"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8:R12" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>データ型</formula1>
     </dataValidation>

--- a/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10101P_Customer_Search_Response_Message_(JSON).xlsx
+++ b/en/Sample_Project/Design_Document/B1_Customer_Management_System/030_Application_Design/030_Interface_Design/External_Interface_Design_Document_B10101P_Customer_Search_Response_Message_(JSON).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A7B8AC-D9C9-4474-BF14-A257401399F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C05E883-2F26-4AEB-B27E-D1EDA1D045CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2700" windowWidth="25530" windowHeight="9795" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="6990" windowWidth="24675" windowHeight="6930" tabRatio="641" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" state="hidden" r:id="rId1"/>
@@ -2191,6 +2191,120 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2209,15 +2323,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2254,110 +2359,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2386,15 +2410,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2432,30 +2450,114 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2467,21 +2569,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2494,92 +2581,89 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="20" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2590,20 +2674,158 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2614,9 +2836,6 @@
     <xf numFmtId="9" fontId="20" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2626,224 +2845,14 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2854,14 +2863,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2869,6 +2878,21 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2892,30 +2916,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2945,7 +2945,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2985,7 +2985,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3013,7 +3013,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6786,155 +6786,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="243" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="249" t="s">
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="258" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="289" t="s">
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="290"/>
-      <c r="Q1" s="290"/>
-      <c r="R1" s="291"/>
-      <c r="S1" s="255" t="s">
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="290" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
-      <c r="X1" s="256"/>
-      <c r="Y1" s="256"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="286" t="s">
+      <c r="T1" s="291"/>
+      <c r="U1" s="291"/>
+      <c r="V1" s="291"/>
+      <c r="W1" s="291"/>
+      <c r="X1" s="291"/>
+      <c r="Y1" s="291"/>
+      <c r="Z1" s="292"/>
+      <c r="AA1" s="243" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="288"/>
-      <c r="AC1" s="243" t="str">
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="281" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="244"/>
-      <c r="AE1" s="244"/>
-      <c r="AF1" s="245"/>
-      <c r="AG1" s="246">
+      <c r="AD1" s="282"/>
+      <c r="AE1" s="282"/>
+      <c r="AF1" s="283"/>
+      <c r="AG1" s="284">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="247"/>
-      <c r="AI1" s="248"/>
+      <c r="AH1" s="285"/>
+      <c r="AI1" s="286"/>
       <c r="AK1" s="25"/>
       <c r="AL1" s="25"/>
       <c r="AM1" s="25"/>
       <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="249" t="s">
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="258" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="292"/>
-      <c r="P2" s="293"/>
-      <c r="Q2" s="293"/>
-      <c r="R2" s="294"/>
-      <c r="S2" s="258"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="286" t="s">
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="257"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="293"/>
+      <c r="T2" s="294"/>
+      <c r="U2" s="294"/>
+      <c r="V2" s="294"/>
+      <c r="W2" s="294"/>
+      <c r="X2" s="294"/>
+      <c r="Y2" s="294"/>
+      <c r="Z2" s="295"/>
+      <c r="AA2" s="243" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="288"/>
-      <c r="AC2" s="252" t="str">
+      <c r="AB2" s="245"/>
+      <c r="AC2" s="287" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="253"/>
-      <c r="AE2" s="253"/>
-      <c r="AF2" s="254"/>
-      <c r="AG2" s="246" t="str">
+      <c r="AD2" s="288"/>
+      <c r="AE2" s="288"/>
+      <c r="AF2" s="289"/>
+      <c r="AG2" s="284" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="247"/>
-      <c r="AI2" s="248"/>
+      <c r="AH2" s="285"/>
+      <c r="AI2" s="286"/>
       <c r="AK2" s="25"/>
       <c r="AL2" s="25"/>
       <c r="AM2" s="25"/>
       <c r="AN2" s="25"/>
     </row>
     <row r="3" spans="1:40" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="286" t="s">
+      <c r="A3" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="287"/>
-      <c r="C3" s="287"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="298" t="s">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="255" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="295"/>
-      <c r="P3" s="296"/>
-      <c r="Q3" s="296"/>
-      <c r="R3" s="297"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="262"/>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="286"/>
-      <c r="AB3" s="288"/>
-      <c r="AC3" s="243"/>
-      <c r="AD3" s="244"/>
-      <c r="AE3" s="244"/>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="246"/>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="248"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="296"/>
+      <c r="T3" s="297"/>
+      <c r="U3" s="297"/>
+      <c r="V3" s="297"/>
+      <c r="W3" s="297"/>
+      <c r="X3" s="297"/>
+      <c r="Y3" s="297"/>
+      <c r="Z3" s="298"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="281"/>
+      <c r="AD3" s="282"/>
+      <c r="AE3" s="282"/>
+      <c r="AF3" s="283"/>
+      <c r="AG3" s="284"/>
+      <c r="AH3" s="285"/>
+      <c r="AI3" s="286"/>
       <c r="AK3" s="25"/>
       <c r="AL3" s="25"/>
       <c r="AM3" s="25"/>
@@ -6981,98 +6981,98 @@
       <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="264" t="s">
+      <c r="B7" s="268" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="266"/>
-      <c r="D7" s="264" t="s">
+      <c r="C7" s="270"/>
+      <c r="D7" s="268" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="265"/>
-      <c r="F7" s="266"/>
-      <c r="G7" s="264" t="s">
+      <c r="E7" s="269"/>
+      <c r="F7" s="270"/>
+      <c r="G7" s="268" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="265"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="285" t="s">
+      <c r="H7" s="269"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="280" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="265"/>
-      <c r="L7" s="265"/>
-      <c r="M7" s="265"/>
-      <c r="N7" s="265"/>
-      <c r="O7" s="265"/>
-      <c r="P7" s="266"/>
-      <c r="Q7" s="264" t="s">
+      <c r="K7" s="269"/>
+      <c r="L7" s="269"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="269"/>
+      <c r="O7" s="269"/>
+      <c r="P7" s="270"/>
+      <c r="Q7" s="268" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="265"/>
-      <c r="S7" s="265"/>
-      <c r="T7" s="265"/>
-      <c r="U7" s="265"/>
-      <c r="V7" s="265"/>
-      <c r="W7" s="265"/>
-      <c r="X7" s="265"/>
-      <c r="Y7" s="265"/>
-      <c r="Z7" s="265"/>
-      <c r="AA7" s="265"/>
-      <c r="AB7" s="265"/>
-      <c r="AC7" s="265"/>
-      <c r="AD7" s="265"/>
-      <c r="AE7" s="266"/>
-      <c r="AF7" s="264" t="s">
+      <c r="R7" s="269"/>
+      <c r="S7" s="269"/>
+      <c r="T7" s="269"/>
+      <c r="U7" s="269"/>
+      <c r="V7" s="269"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
+      <c r="AA7" s="269"/>
+      <c r="AB7" s="269"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="269"/>
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="268" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="265"/>
-      <c r="AH7" s="265"/>
-      <c r="AI7" s="266"/>
+      <c r="AG7" s="269"/>
+      <c r="AH7" s="269"/>
+      <c r="AI7" s="270"/>
       <c r="AJ7" s="18"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="57">
         <v>1</v>
       </c>
-      <c r="B8" s="276" t="s">
+      <c r="B8" s="271" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="277"/>
-      <c r="D8" s="278">
+      <c r="C8" s="272"/>
+      <c r="D8" s="273">
         <v>43718</v>
       </c>
-      <c r="E8" s="279"/>
-      <c r="F8" s="280"/>
-      <c r="G8" s="276" t="s">
+      <c r="E8" s="274"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="271" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="281"/>
-      <c r="I8" s="277"/>
-      <c r="J8" s="282" t="s">
+      <c r="H8" s="276"/>
+      <c r="I8" s="272"/>
+      <c r="J8" s="277" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="283"/>
-      <c r="L8" s="283"/>
-      <c r="M8" s="283"/>
-      <c r="N8" s="283"/>
-      <c r="O8" s="283"/>
-      <c r="P8" s="284"/>
-      <c r="Q8" s="282" t="s">
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="278"/>
+      <c r="N8" s="278"/>
+      <c r="O8" s="278"/>
+      <c r="P8" s="279"/>
+      <c r="Q8" s="277" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="283"/>
-      <c r="S8" s="283"/>
-      <c r="T8" s="283"/>
-      <c r="U8" s="283"/>
-      <c r="V8" s="283"/>
-      <c r="W8" s="283"/>
-      <c r="X8" s="283"/>
-      <c r="Y8" s="283"/>
-      <c r="Z8" s="283"/>
-      <c r="AA8" s="283"/>
-      <c r="AB8" s="283"/>
-      <c r="AC8" s="283"/>
-      <c r="AD8" s="283"/>
-      <c r="AE8" s="284"/>
+      <c r="R8" s="278"/>
+      <c r="S8" s="278"/>
+      <c r="T8" s="278"/>
+      <c r="U8" s="278"/>
+      <c r="V8" s="278"/>
+      <c r="W8" s="278"/>
+      <c r="X8" s="278"/>
+      <c r="Y8" s="278"/>
+      <c r="Z8" s="278"/>
+      <c r="AA8" s="278"/>
+      <c r="AB8" s="278"/>
+      <c r="AC8" s="278"/>
+      <c r="AD8" s="278"/>
+      <c r="AE8" s="279"/>
       <c r="AF8" s="49" t="s">
         <v>47</v>
       </c>
@@ -7083,36 +7083,36 @@
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="58"/>
-      <c r="B9" s="267"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="269"/>
-      <c r="E9" s="270"/>
-      <c r="F9" s="271"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="272"/>
-      <c r="I9" s="268"/>
-      <c r="J9" s="273"/>
-      <c r="K9" s="274"/>
-      <c r="L9" s="274"/>
-      <c r="M9" s="274"/>
-      <c r="N9" s="274"/>
-      <c r="O9" s="274"/>
-      <c r="P9" s="275"/>
-      <c r="Q9" s="273"/>
-      <c r="R9" s="274"/>
-      <c r="S9" s="274"/>
-      <c r="T9" s="274"/>
-      <c r="U9" s="274"/>
-      <c r="V9" s="274"/>
-      <c r="W9" s="274"/>
-      <c r="X9" s="274"/>
-      <c r="Y9" s="274"/>
-      <c r="Z9" s="274"/>
-      <c r="AA9" s="274"/>
-      <c r="AB9" s="274"/>
-      <c r="AC9" s="274"/>
-      <c r="AD9" s="274"/>
-      <c r="AE9" s="275"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="259"/>
+      <c r="H9" s="264"/>
+      <c r="I9" s="260"/>
+      <c r="J9" s="265"/>
+      <c r="K9" s="266"/>
+      <c r="L9" s="266"/>
+      <c r="M9" s="266"/>
+      <c r="N9" s="266"/>
+      <c r="O9" s="266"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="265"/>
+      <c r="R9" s="266"/>
+      <c r="S9" s="266"/>
+      <c r="T9" s="266"/>
+      <c r="U9" s="266"/>
+      <c r="V9" s="266"/>
+      <c r="W9" s="266"/>
+      <c r="X9" s="266"/>
+      <c r="Y9" s="266"/>
+      <c r="Z9" s="266"/>
+      <c r="AA9" s="266"/>
+      <c r="AB9" s="266"/>
+      <c r="AC9" s="266"/>
+      <c r="AD9" s="266"/>
+      <c r="AE9" s="267"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="47"/>
       <c r="AH9" s="47"/>
@@ -7121,36 +7121,36 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="58"/>
-      <c r="B10" s="267"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="271"/>
-      <c r="G10" s="267"/>
-      <c r="H10" s="272"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="273"/>
-      <c r="K10" s="274"/>
-      <c r="L10" s="274"/>
-      <c r="M10" s="274"/>
-      <c r="N10" s="274"/>
-      <c r="O10" s="274"/>
-      <c r="P10" s="275"/>
-      <c r="Q10" s="273"/>
-      <c r="R10" s="274"/>
-      <c r="S10" s="274"/>
-      <c r="T10" s="274"/>
-      <c r="U10" s="274"/>
-      <c r="V10" s="274"/>
-      <c r="W10" s="274"/>
-      <c r="X10" s="274"/>
-      <c r="Y10" s="274"/>
-      <c r="Z10" s="274"/>
-      <c r="AA10" s="274"/>
-      <c r="AB10" s="274"/>
-      <c r="AC10" s="274"/>
-      <c r="AD10" s="274"/>
-      <c r="AE10" s="275"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="259"/>
+      <c r="H10" s="264"/>
+      <c r="I10" s="260"/>
+      <c r="J10" s="265"/>
+      <c r="K10" s="266"/>
+      <c r="L10" s="266"/>
+      <c r="M10" s="266"/>
+      <c r="N10" s="266"/>
+      <c r="O10" s="266"/>
+      <c r="P10" s="267"/>
+      <c r="Q10" s="265"/>
+      <c r="R10" s="266"/>
+      <c r="S10" s="266"/>
+      <c r="T10" s="266"/>
+      <c r="U10" s="266"/>
+      <c r="V10" s="266"/>
+      <c r="W10" s="266"/>
+      <c r="X10" s="266"/>
+      <c r="Y10" s="266"/>
+      <c r="Z10" s="266"/>
+      <c r="AA10" s="266"/>
+      <c r="AB10" s="266"/>
+      <c r="AC10" s="266"/>
+      <c r="AD10" s="266"/>
+      <c r="AE10" s="267"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="47"/>
       <c r="AH10" s="47"/>
@@ -7158,36 +7158,36 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="58"/>
-      <c r="B11" s="267"/>
-      <c r="C11" s="268"/>
-      <c r="D11" s="269"/>
-      <c r="E11" s="270"/>
-      <c r="F11" s="271"/>
-      <c r="G11" s="267"/>
-      <c r="H11" s="272"/>
-      <c r="I11" s="268"/>
-      <c r="J11" s="273"/>
-      <c r="K11" s="274"/>
-      <c r="L11" s="274"/>
-      <c r="M11" s="274"/>
-      <c r="N11" s="274"/>
-      <c r="O11" s="274"/>
-      <c r="P11" s="275"/>
-      <c r="Q11" s="273"/>
-      <c r="R11" s="274"/>
-      <c r="S11" s="274"/>
-      <c r="T11" s="274"/>
-      <c r="U11" s="274"/>
-      <c r="V11" s="274"/>
-      <c r="W11" s="274"/>
-      <c r="X11" s="274"/>
-      <c r="Y11" s="274"/>
-      <c r="Z11" s="274"/>
-      <c r="AA11" s="274"/>
-      <c r="AB11" s="274"/>
-      <c r="AC11" s="274"/>
-      <c r="AD11" s="274"/>
-      <c r="AE11" s="275"/>
+      <c r="B11" s="259"/>
+      <c r="C11" s="260"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="264"/>
+      <c r="I11" s="260"/>
+      <c r="J11" s="265"/>
+      <c r="K11" s="266"/>
+      <c r="L11" s="266"/>
+      <c r="M11" s="266"/>
+      <c r="N11" s="266"/>
+      <c r="O11" s="266"/>
+      <c r="P11" s="267"/>
+      <c r="Q11" s="265"/>
+      <c r="R11" s="266"/>
+      <c r="S11" s="266"/>
+      <c r="T11" s="266"/>
+      <c r="U11" s="266"/>
+      <c r="V11" s="266"/>
+      <c r="W11" s="266"/>
+      <c r="X11" s="266"/>
+      <c r="Y11" s="266"/>
+      <c r="Z11" s="266"/>
+      <c r="AA11" s="266"/>
+      <c r="AB11" s="266"/>
+      <c r="AC11" s="266"/>
+      <c r="AD11" s="266"/>
+      <c r="AE11" s="267"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="47"/>
       <c r="AH11" s="47"/>
@@ -7195,36 +7195,36 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="58"/>
-      <c r="B12" s="267"/>
-      <c r="C12" s="268"/>
-      <c r="D12" s="269"/>
-      <c r="E12" s="270"/>
-      <c r="F12" s="271"/>
-      <c r="G12" s="267"/>
-      <c r="H12" s="272"/>
-      <c r="I12" s="268"/>
-      <c r="J12" s="273"/>
-      <c r="K12" s="274"/>
-      <c r="L12" s="274"/>
-      <c r="M12" s="274"/>
-      <c r="N12" s="274"/>
-      <c r="O12" s="274"/>
-      <c r="P12" s="275"/>
-      <c r="Q12" s="273"/>
-      <c r="R12" s="274"/>
-      <c r="S12" s="274"/>
-      <c r="T12" s="274"/>
-      <c r="U12" s="274"/>
-      <c r="V12" s="274"/>
-      <c r="W12" s="274"/>
-      <c r="X12" s="274"/>
-      <c r="Y12" s="274"/>
-      <c r="Z12" s="274"/>
-      <c r="AA12" s="274"/>
-      <c r="AB12" s="274"/>
-      <c r="AC12" s="274"/>
-      <c r="AD12" s="274"/>
-      <c r="AE12" s="275"/>
+      <c r="B12" s="259"/>
+      <c r="C12" s="260"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="264"/>
+      <c r="I12" s="260"/>
+      <c r="J12" s="265"/>
+      <c r="K12" s="266"/>
+      <c r="L12" s="266"/>
+      <c r="M12" s="266"/>
+      <c r="N12" s="266"/>
+      <c r="O12" s="266"/>
+      <c r="P12" s="267"/>
+      <c r="Q12" s="265"/>
+      <c r="R12" s="266"/>
+      <c r="S12" s="266"/>
+      <c r="T12" s="266"/>
+      <c r="U12" s="266"/>
+      <c r="V12" s="266"/>
+      <c r="W12" s="266"/>
+      <c r="X12" s="266"/>
+      <c r="Y12" s="266"/>
+      <c r="Z12" s="266"/>
+      <c r="AA12" s="266"/>
+      <c r="AB12" s="266"/>
+      <c r="AC12" s="266"/>
+      <c r="AD12" s="266"/>
+      <c r="AE12" s="267"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="47"/>
       <c r="AH12" s="47"/>
@@ -7232,36 +7232,36 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="58"/>
-      <c r="B13" s="267"/>
-      <c r="C13" s="268"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="271"/>
-      <c r="G13" s="267"/>
-      <c r="H13" s="272"/>
-      <c r="I13" s="268"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="274"/>
-      <c r="L13" s="274"/>
-      <c r="M13" s="274"/>
-      <c r="N13" s="274"/>
-      <c r="O13" s="274"/>
-      <c r="P13" s="275"/>
-      <c r="Q13" s="273"/>
-      <c r="R13" s="274"/>
-      <c r="S13" s="274"/>
-      <c r="T13" s="274"/>
-      <c r="U13" s="274"/>
-      <c r="V13" s="274"/>
-      <c r="W13" s="274"/>
-      <c r="X13" s="274"/>
-      <c r="Y13" s="274"/>
-      <c r="Z13" s="274"/>
-      <c r="AA13" s="274"/>
-      <c r="AB13" s="274"/>
-      <c r="AC13" s="274"/>
-      <c r="AD13" s="274"/>
-      <c r="AE13" s="275"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="260"/>
+      <c r="D13" s="261"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="264"/>
+      <c r="I13" s="260"/>
+      <c r="J13" s="265"/>
+      <c r="K13" s="266"/>
+      <c r="L13" s="266"/>
+      <c r="M13" s="266"/>
+      <c r="N13" s="266"/>
+      <c r="O13" s="266"/>
+      <c r="P13" s="267"/>
+      <c r="Q13" s="265"/>
+      <c r="R13" s="266"/>
+      <c r="S13" s="266"/>
+      <c r="T13" s="266"/>
+      <c r="U13" s="266"/>
+      <c r="V13" s="266"/>
+      <c r="W13" s="266"/>
+      <c r="X13" s="266"/>
+      <c r="Y13" s="266"/>
+      <c r="Z13" s="266"/>
+      <c r="AA13" s="266"/>
+      <c r="AB13" s="266"/>
+      <c r="AC13" s="266"/>
+      <c r="AD13" s="266"/>
+      <c r="AE13" s="267"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="47"/>
       <c r="AH13" s="47"/>
@@ -8009,35 +8009,14 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:F9"/>
@@ -8054,14 +8033,35 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -8217,158 +8217,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="311" t="str">
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="314" t="s">
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="315"/>
-      <c r="Q1" s="315"/>
-      <c r="R1" s="316"/>
-      <c r="S1" s="299" t="str">
+      <c r="P1" s="321"/>
+      <c r="Q1" s="321"/>
+      <c r="R1" s="322"/>
+      <c r="S1" s="307" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="300"/>
-      <c r="U1" s="300"/>
-      <c r="V1" s="300"/>
-      <c r="W1" s="300"/>
-      <c r="X1" s="300"/>
-      <c r="Y1" s="300"/>
-      <c r="Z1" s="301"/>
-      <c r="AA1" s="308" t="s">
+      <c r="T1" s="308"/>
+      <c r="U1" s="308"/>
+      <c r="V1" s="308"/>
+      <c r="W1" s="308"/>
+      <c r="X1" s="308"/>
+      <c r="Y1" s="308"/>
+      <c r="Z1" s="309"/>
+      <c r="AA1" s="305" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="310"/>
-      <c r="AC1" s="326" t="str">
+      <c r="AB1" s="306"/>
+      <c r="AC1" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="327"/>
-      <c r="AE1" s="327"/>
-      <c r="AF1" s="328"/>
-      <c r="AG1" s="323">
+      <c r="AD1" s="303"/>
+      <c r="AE1" s="303"/>
+      <c r="AF1" s="304"/>
+      <c r="AG1" s="299">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="324"/>
-      <c r="AI1" s="325"/>
+      <c r="AH1" s="300"/>
+      <c r="AI1" s="301"/>
     </row>
     <row r="2" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="311" t="str">
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="312"/>
-      <c r="J2" s="312"/>
-      <c r="K2" s="312"/>
-      <c r="L2" s="312"/>
-      <c r="M2" s="312"/>
-      <c r="N2" s="313"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="318"/>
-      <c r="Q2" s="318"/>
-      <c r="R2" s="319"/>
-      <c r="S2" s="302"/>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="308" t="s">
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="323"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="325"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="311"/>
+      <c r="W2" s="311"/>
+      <c r="X2" s="311"/>
+      <c r="Y2" s="311"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="305" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="310"/>
-      <c r="AC2" s="326" t="str">
+      <c r="AB2" s="306"/>
+      <c r="AC2" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="327"/>
-      <c r="AE2" s="327"/>
-      <c r="AF2" s="328"/>
-      <c r="AG2" s="323" t="str">
+      <c r="AD2" s="303"/>
+      <c r="AE2" s="303"/>
+      <c r="AF2" s="304"/>
+      <c r="AG2" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="324"/>
-      <c r="AI2" s="325"/>
+      <c r="AH2" s="300"/>
+      <c r="AI2" s="301"/>
     </row>
     <row r="3" spans="1:35" s="108" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="305" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="311" t="str">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="312"/>
-      <c r="G3" s="312"/>
-      <c r="H3" s="312"/>
-      <c r="I3" s="312"/>
-      <c r="J3" s="312"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="312"/>
-      <c r="M3" s="312"/>
-      <c r="N3" s="313"/>
-      <c r="O3" s="320"/>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="321"/>
-      <c r="R3" s="322"/>
-      <c r="S3" s="305"/>
-      <c r="T3" s="306"/>
-      <c r="U3" s="306"/>
-      <c r="V3" s="306"/>
-      <c r="W3" s="306"/>
-      <c r="X3" s="306"/>
-      <c r="Y3" s="306"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="308"/>
-      <c r="AB3" s="310"/>
-      <c r="AC3" s="326" t="str">
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="319"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="327"/>
+      <c r="Q3" s="327"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="313"/>
+      <c r="T3" s="314"/>
+      <c r="U3" s="314"/>
+      <c r="V3" s="314"/>
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
+      <c r="Y3" s="314"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="327"/>
-      <c r="AE3" s="327"/>
-      <c r="AF3" s="328"/>
-      <c r="AG3" s="323" t="str">
+      <c r="AD3" s="303"/>
+      <c r="AE3" s="303"/>
+      <c r="AF3" s="304"/>
+      <c r="AG3" s="299" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="324"/>
-      <c r="AI3" s="325"/>
+      <c r="AH3" s="300"/>
+      <c r="AI3" s="301"/>
     </row>
     <row r="4" spans="1:35" s="94" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="198" t="s">
@@ -9803,13 +9803,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9820,6 +9813,13 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -9845,158 +9845,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="305" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="311" t="str">
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="314" t="s">
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="320" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="315"/>
-      <c r="Q1" s="315"/>
-      <c r="R1" s="316"/>
-      <c r="S1" s="299" t="str">
+      <c r="P1" s="321"/>
+      <c r="Q1" s="321"/>
+      <c r="R1" s="322"/>
+      <c r="S1" s="307" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="300"/>
-      <c r="U1" s="300"/>
-      <c r="V1" s="300"/>
-      <c r="W1" s="300"/>
-      <c r="X1" s="300"/>
-      <c r="Y1" s="300"/>
-      <c r="Z1" s="301"/>
-      <c r="AA1" s="308" t="s">
+      <c r="T1" s="308"/>
+      <c r="U1" s="308"/>
+      <c r="V1" s="308"/>
+      <c r="W1" s="308"/>
+      <c r="X1" s="308"/>
+      <c r="Y1" s="308"/>
+      <c r="Z1" s="309"/>
+      <c r="AA1" s="305" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="310"/>
-      <c r="AC1" s="326" t="str">
+      <c r="AB1" s="306"/>
+      <c r="AC1" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="327"/>
-      <c r="AE1" s="327"/>
-      <c r="AF1" s="328"/>
-      <c r="AG1" s="370">
+      <c r="AD1" s="303"/>
+      <c r="AE1" s="303"/>
+      <c r="AF1" s="304"/>
+      <c r="AG1" s="329">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="371"/>
-      <c r="AI1" s="372"/>
+      <c r="AH1" s="330"/>
+      <c r="AI1" s="331"/>
     </row>
     <row r="2" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="305" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="311" t="str">
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="312"/>
-      <c r="J2" s="312"/>
-      <c r="K2" s="312"/>
-      <c r="L2" s="312"/>
-      <c r="M2" s="312"/>
-      <c r="N2" s="313"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="318"/>
-      <c r="Q2" s="318"/>
-      <c r="R2" s="319"/>
-      <c r="S2" s="302"/>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="308" t="s">
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="323"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="325"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="311"/>
+      <c r="W2" s="311"/>
+      <c r="X2" s="311"/>
+      <c r="Y2" s="311"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="305" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="310"/>
-      <c r="AC2" s="326" t="str">
+      <c r="AB2" s="306"/>
+      <c r="AC2" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="327"/>
-      <c r="AE2" s="327"/>
-      <c r="AF2" s="328"/>
-      <c r="AG2" s="370" t="str">
+      <c r="AD2" s="303"/>
+      <c r="AE2" s="303"/>
+      <c r="AF2" s="304"/>
+      <c r="AG2" s="329" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="371"/>
-      <c r="AI2" s="372"/>
+      <c r="AH2" s="330"/>
+      <c r="AI2" s="331"/>
     </row>
     <row r="3" spans="1:35" s="149" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="311" t="str">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="312"/>
-      <c r="G3" s="312"/>
-      <c r="H3" s="312"/>
-      <c r="I3" s="312"/>
-      <c r="J3" s="312"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="312"/>
-      <c r="M3" s="312"/>
-      <c r="N3" s="313"/>
-      <c r="O3" s="320"/>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="321"/>
-      <c r="R3" s="322"/>
-      <c r="S3" s="305"/>
-      <c r="T3" s="306"/>
-      <c r="U3" s="306"/>
-      <c r="V3" s="306"/>
-      <c r="W3" s="306"/>
-      <c r="X3" s="306"/>
-      <c r="Y3" s="306"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="308"/>
-      <c r="AB3" s="310"/>
-      <c r="AC3" s="326" t="str">
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="319"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="327"/>
+      <c r="Q3" s="327"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="313"/>
+      <c r="T3" s="314"/>
+      <c r="U3" s="314"/>
+      <c r="V3" s="314"/>
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
+      <c r="Y3" s="314"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="327"/>
-      <c r="AE3" s="327"/>
-      <c r="AF3" s="328"/>
-      <c r="AG3" s="370" t="str">
+      <c r="AD3" s="303"/>
+      <c r="AE3" s="303"/>
+      <c r="AF3" s="304"/>
+      <c r="AG3" s="329" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="371"/>
-      <c r="AI3" s="372"/>
+      <c r="AH3" s="330"/>
+      <c r="AI3" s="331"/>
     </row>
     <row r="4" spans="1:35" s="149" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="128"/>
@@ -10018,12 +10018,12 @@
       <c r="C6" s="106"/>
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="329" t="s">
+      <c r="A7" s="339" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="338"/>
-      <c r="C7" s="338"/>
-      <c r="D7" s="339"/>
+      <c r="B7" s="340"/>
+      <c r="C7" s="340"/>
+      <c r="D7" s="341"/>
       <c r="E7" s="151"/>
       <c r="F7" s="151"/>
       <c r="G7" s="151"/>
@@ -10036,82 +10036,82 @@
       <c r="N7" s="151"/>
       <c r="O7" s="151"/>
       <c r="P7" s="151"/>
-      <c r="Q7" s="343" t="s">
+      <c r="Q7" s="372" t="s">
         <v>123</v>
       </c>
-      <c r="R7" s="344"/>
-      <c r="S7" s="344"/>
-      <c r="T7" s="345"/>
-      <c r="U7" s="332" t="s">
+      <c r="R7" s="361"/>
+      <c r="S7" s="361"/>
+      <c r="T7" s="362"/>
+      <c r="U7" s="366" t="s">
         <v>98</v>
       </c>
-      <c r="V7" s="333"/>
-      <c r="W7" s="333"/>
-      <c r="X7" s="333"/>
-      <c r="Y7" s="333"/>
-      <c r="Z7" s="333"/>
-      <c r="AA7" s="333"/>
-      <c r="AB7" s="333"/>
-      <c r="AC7" s="333"/>
-      <c r="AD7" s="333"/>
-      <c r="AE7" s="333"/>
-      <c r="AF7" s="333"/>
-      <c r="AG7" s="333"/>
-      <c r="AH7" s="333"/>
-      <c r="AI7" s="334"/>
+      <c r="V7" s="367"/>
+      <c r="W7" s="367"/>
+      <c r="X7" s="367"/>
+      <c r="Y7" s="367"/>
+      <c r="Z7" s="367"/>
+      <c r="AA7" s="367"/>
+      <c r="AB7" s="367"/>
+      <c r="AC7" s="367"/>
+      <c r="AD7" s="367"/>
+      <c r="AE7" s="367"/>
+      <c r="AF7" s="367"/>
+      <c r="AG7" s="367"/>
+      <c r="AH7" s="367"/>
+      <c r="AI7" s="368"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="340" t="s">
+      <c r="A8" s="369" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="341"/>
-      <c r="C8" s="341"/>
-      <c r="D8" s="342"/>
-      <c r="E8" s="335" t="s">
+      <c r="B8" s="370"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="371"/>
+      <c r="E8" s="351" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="336"/>
-      <c r="G8" s="336"/>
-      <c r="H8" s="336"/>
-      <c r="I8" s="336"/>
-      <c r="J8" s="336"/>
-      <c r="K8" s="336"/>
-      <c r="L8" s="336"/>
-      <c r="M8" s="336"/>
-      <c r="N8" s="336"/>
-      <c r="O8" s="336"/>
-      <c r="P8" s="336"/>
-      <c r="Q8" s="329" t="s">
+      <c r="F8" s="352"/>
+      <c r="G8" s="352"/>
+      <c r="H8" s="352"/>
+      <c r="I8" s="352"/>
+      <c r="J8" s="352"/>
+      <c r="K8" s="352"/>
+      <c r="L8" s="352"/>
+      <c r="M8" s="352"/>
+      <c r="N8" s="352"/>
+      <c r="O8" s="352"/>
+      <c r="P8" s="352"/>
+      <c r="Q8" s="339" t="s">
         <v>100</v>
       </c>
-      <c r="R8" s="338"/>
-      <c r="S8" s="338"/>
-      <c r="T8" s="339"/>
-      <c r="U8" s="335" t="s">
+      <c r="R8" s="340"/>
+      <c r="S8" s="340"/>
+      <c r="T8" s="341"/>
+      <c r="U8" s="351" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="336"/>
-      <c r="W8" s="336"/>
-      <c r="X8" s="336"/>
-      <c r="Y8" s="336"/>
-      <c r="Z8" s="336"/>
-      <c r="AA8" s="336"/>
-      <c r="AB8" s="336"/>
-      <c r="AC8" s="336"/>
-      <c r="AD8" s="336"/>
-      <c r="AE8" s="336"/>
-      <c r="AF8" s="336"/>
-      <c r="AG8" s="336"/>
-      <c r="AH8" s="336"/>
-      <c r="AI8" s="337"/>
+      <c r="V8" s="352"/>
+      <c r="W8" s="352"/>
+      <c r="X8" s="352"/>
+      <c r="Y8" s="352"/>
+      <c r="Z8" s="352"/>
+      <c r="AA8" s="352"/>
+      <c r="AB8" s="352"/>
+      <c r="AC8" s="352"/>
+      <c r="AD8" s="352"/>
+      <c r="AE8" s="352"/>
+      <c r="AF8" s="352"/>
+      <c r="AG8" s="352"/>
+      <c r="AH8" s="352"/>
+      <c r="AI8" s="353"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="329" t="s">
+      <c r="A9" s="339" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="338"/>
-      <c r="C9" s="338"/>
-      <c r="D9" s="339"/>
+      <c r="B9" s="340"/>
+      <c r="C9" s="340"/>
+      <c r="D9" s="341"/>
       <c r="E9" s="153"/>
       <c r="F9" s="153"/>
       <c r="G9" s="153"/>
@@ -10297,12 +10297,12 @@
       <c r="AI13" s="164"/>
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="329" t="s">
+      <c r="A14" s="339" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="330"/>
-      <c r="C14" s="330"/>
-      <c r="D14" s="331"/>
+      <c r="B14" s="333"/>
+      <c r="C14" s="333"/>
+      <c r="D14" s="334"/>
       <c r="E14" s="154"/>
       <c r="F14" s="154"/>
       <c r="G14" s="154"/>
@@ -10447,12 +10447,12 @@
       <c r="AI17" s="164"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="346" t="s">
+      <c r="A18" s="354" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="347"/>
-      <c r="C18" s="347"/>
-      <c r="D18" s="348"/>
+      <c r="B18" s="355"/>
+      <c r="C18" s="355"/>
+      <c r="D18" s="356"/>
       <c r="E18" s="166"/>
       <c r="F18" s="167"/>
       <c r="G18" s="139"/>
@@ -10465,12 +10465,12 @@
       <c r="N18" s="139"/>
       <c r="O18" s="137"/>
       <c r="P18" s="139"/>
-      <c r="Q18" s="346" t="s">
+      <c r="Q18" s="354" t="s">
         <v>107</v>
       </c>
-      <c r="R18" s="347"/>
-      <c r="S18" s="347"/>
-      <c r="T18" s="348"/>
+      <c r="R18" s="355"/>
+      <c r="S18" s="355"/>
+      <c r="T18" s="356"/>
       <c r="U18" s="157"/>
       <c r="V18" s="157"/>
       <c r="W18" s="157"/>
@@ -10570,55 +10570,55 @@
       <c r="AI20" s="158"/>
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="329" t="s">
+      <c r="A21" s="339" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="338"/>
-      <c r="C21" s="338"/>
-      <c r="D21" s="339"/>
-      <c r="E21" s="335" t="s">
+      <c r="B21" s="340"/>
+      <c r="C21" s="340"/>
+      <c r="D21" s="341"/>
+      <c r="E21" s="351" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="336"/>
-      <c r="G21" s="336"/>
-      <c r="H21" s="336"/>
-      <c r="I21" s="336"/>
-      <c r="J21" s="336"/>
-      <c r="K21" s="336"/>
-      <c r="L21" s="336"/>
-      <c r="M21" s="336"/>
-      <c r="N21" s="336"/>
-      <c r="O21" s="336"/>
-      <c r="P21" s="337"/>
-      <c r="Q21" s="329" t="s">
+      <c r="F21" s="352"/>
+      <c r="G21" s="352"/>
+      <c r="H21" s="352"/>
+      <c r="I21" s="352"/>
+      <c r="J21" s="352"/>
+      <c r="K21" s="352"/>
+      <c r="L21" s="352"/>
+      <c r="M21" s="352"/>
+      <c r="N21" s="352"/>
+      <c r="O21" s="352"/>
+      <c r="P21" s="353"/>
+      <c r="Q21" s="339" t="s">
         <v>112</v>
       </c>
-      <c r="R21" s="338"/>
-      <c r="S21" s="338"/>
-      <c r="T21" s="339"/>
-      <c r="U21" s="349"/>
-      <c r="V21" s="350"/>
-      <c r="W21" s="350"/>
-      <c r="X21" s="350"/>
-      <c r="Y21" s="350"/>
-      <c r="Z21" s="350"/>
-      <c r="AA21" s="350"/>
-      <c r="AB21" s="350"/>
-      <c r="AC21" s="350"/>
-      <c r="AD21" s="350"/>
-      <c r="AE21" s="350"/>
-      <c r="AF21" s="350"/>
-      <c r="AG21" s="350"/>
-      <c r="AH21" s="350"/>
-      <c r="AI21" s="351"/>
+      <c r="R21" s="340"/>
+      <c r="S21" s="340"/>
+      <c r="T21" s="341"/>
+      <c r="U21" s="357"/>
+      <c r="V21" s="358"/>
+      <c r="W21" s="358"/>
+      <c r="X21" s="358"/>
+      <c r="Y21" s="358"/>
+      <c r="Z21" s="358"/>
+      <c r="AA21" s="358"/>
+      <c r="AB21" s="358"/>
+      <c r="AC21" s="358"/>
+      <c r="AD21" s="358"/>
+      <c r="AE21" s="358"/>
+      <c r="AF21" s="358"/>
+      <c r="AG21" s="358"/>
+      <c r="AH21" s="358"/>
+      <c r="AI21" s="359"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="352" t="s">
+      <c r="A22" s="360" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="344"/>
-      <c r="C22" s="344"/>
-      <c r="D22" s="345"/>
+      <c r="B22" s="361"/>
+      <c r="C22" s="361"/>
+      <c r="D22" s="362"/>
       <c r="E22" s="176"/>
       <c r="F22" s="177"/>
       <c r="G22" s="154"/>
@@ -10631,12 +10631,12 @@
       <c r="N22" s="154"/>
       <c r="O22" s="153"/>
       <c r="P22" s="154"/>
-      <c r="Q22" s="352" t="s">
+      <c r="Q22" s="360" t="s">
         <v>114</v>
       </c>
-      <c r="R22" s="344"/>
-      <c r="S22" s="344"/>
-      <c r="T22" s="345"/>
+      <c r="R22" s="361"/>
+      <c r="S22" s="361"/>
+      <c r="T22" s="362"/>
       <c r="U22" s="130"/>
       <c r="V22" s="131"/>
       <c r="W22" s="178"/>
@@ -10699,36 +10699,36 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="367" t="s">
+      <c r="A24" s="348" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="368"/>
-      <c r="C24" s="368"/>
-      <c r="D24" s="369"/>
-      <c r="E24" s="335" t="s">
+      <c r="B24" s="349"/>
+      <c r="C24" s="349"/>
+      <c r="D24" s="350"/>
+      <c r="E24" s="351" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="336"/>
-      <c r="G24" s="336"/>
-      <c r="H24" s="336"/>
-      <c r="I24" s="336"/>
-      <c r="J24" s="336"/>
-      <c r="K24" s="336"/>
-      <c r="L24" s="336"/>
-      <c r="M24" s="336"/>
-      <c r="N24" s="336"/>
-      <c r="O24" s="336"/>
-      <c r="P24" s="337"/>
-      <c r="Q24" s="353" t="s">
+      <c r="F24" s="352"/>
+      <c r="G24" s="352"/>
+      <c r="H24" s="352"/>
+      <c r="I24" s="352"/>
+      <c r="J24" s="352"/>
+      <c r="K24" s="352"/>
+      <c r="L24" s="352"/>
+      <c r="M24" s="352"/>
+      <c r="N24" s="352"/>
+      <c r="O24" s="352"/>
+      <c r="P24" s="353"/>
+      <c r="Q24" s="363" t="s">
         <v>117</v>
       </c>
-      <c r="R24" s="354"/>
-      <c r="S24" s="354"/>
-      <c r="T24" s="355"/>
-      <c r="U24" s="359"/>
-      <c r="V24" s="360"/>
-      <c r="W24" s="360"/>
-      <c r="X24" s="360"/>
+      <c r="R24" s="364"/>
+      <c r="S24" s="364"/>
+      <c r="T24" s="365"/>
+      <c r="U24" s="337"/>
+      <c r="V24" s="338"/>
+      <c r="W24" s="338"/>
+      <c r="X24" s="338"/>
       <c r="Y24" s="185" t="s">
         <v>118</v>
       </c>
@@ -10744,26 +10744,26 @@
       <c r="AI24" s="187"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="363" t="s">
+      <c r="A25" s="344" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="364"/>
-      <c r="C25" s="364"/>
-      <c r="D25" s="365"/>
+      <c r="B25" s="345"/>
+      <c r="C25" s="345"/>
+      <c r="D25" s="346"/>
       <c r="E25" s="176"/>
       <c r="F25" s="188"/>
       <c r="G25" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="H25" s="357"/>
-      <c r="I25" s="358"/>
-      <c r="J25" s="358"/>
-      <c r="K25" s="358"/>
-      <c r="L25" s="358"/>
-      <c r="M25" s="358"/>
-      <c r="N25" s="358"/>
-      <c r="O25" s="358"/>
-      <c r="P25" s="358"/>
+      <c r="H25" s="335"/>
+      <c r="I25" s="336"/>
+      <c r="J25" s="336"/>
+      <c r="K25" s="336"/>
+      <c r="L25" s="336"/>
+      <c r="M25" s="336"/>
+      <c r="N25" s="336"/>
+      <c r="O25" s="336"/>
+      <c r="P25" s="336"/>
       <c r="Q25" s="154" t="s">
         <v>109</v>
       </c>
@@ -10772,15 +10772,15 @@
       <c r="T25" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="U25" s="366"/>
-      <c r="V25" s="366"/>
-      <c r="W25" s="366"/>
-      <c r="X25" s="366"/>
-      <c r="Y25" s="366"/>
-      <c r="Z25" s="366"/>
-      <c r="AA25" s="366"/>
-      <c r="AB25" s="366"/>
-      <c r="AC25" s="366"/>
+      <c r="U25" s="347"/>
+      <c r="V25" s="347"/>
+      <c r="W25" s="347"/>
+      <c r="X25" s="347"/>
+      <c r="Y25" s="347"/>
+      <c r="Z25" s="347"/>
+      <c r="AA25" s="347"/>
+      <c r="AB25" s="347"/>
+      <c r="AC25" s="347"/>
       <c r="AD25" s="154" t="s">
         <v>109</v>
       </c>
@@ -10800,15 +10800,15 @@
       <c r="G26" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="362"/>
-      <c r="I26" s="362"/>
-      <c r="J26" s="362"/>
-      <c r="K26" s="362"/>
-      <c r="L26" s="362"/>
-      <c r="M26" s="362"/>
-      <c r="N26" s="362"/>
-      <c r="O26" s="362"/>
-      <c r="P26" s="362"/>
+      <c r="H26" s="343"/>
+      <c r="I26" s="343"/>
+      <c r="J26" s="343"/>
+      <c r="K26" s="343"/>
+      <c r="L26" s="343"/>
+      <c r="M26" s="343"/>
+      <c r="N26" s="343"/>
+      <c r="O26" s="343"/>
+      <c r="P26" s="343"/>
       <c r="Q26" s="148" t="s">
         <v>109</v>
       </c>
@@ -10817,15 +10817,15 @@
       <c r="T26" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="U26" s="362"/>
-      <c r="V26" s="362"/>
-      <c r="W26" s="362"/>
-      <c r="X26" s="362"/>
-      <c r="Y26" s="362"/>
-      <c r="Z26" s="362"/>
-      <c r="AA26" s="362"/>
-      <c r="AB26" s="362"/>
-      <c r="AC26" s="362"/>
+      <c r="U26" s="343"/>
+      <c r="V26" s="343"/>
+      <c r="W26" s="343"/>
+      <c r="X26" s="343"/>
+      <c r="Y26" s="343"/>
+      <c r="Z26" s="343"/>
+      <c r="AA26" s="343"/>
+      <c r="AB26" s="343"/>
+      <c r="AC26" s="343"/>
       <c r="AD26" s="148" t="s">
         <v>109</v>
       </c>
@@ -10845,15 +10845,15 @@
       <c r="G27" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="361"/>
-      <c r="I27" s="361"/>
-      <c r="J27" s="361"/>
-      <c r="K27" s="361"/>
-      <c r="L27" s="361"/>
-      <c r="M27" s="361"/>
-      <c r="N27" s="361"/>
-      <c r="O27" s="361"/>
-      <c r="P27" s="361"/>
+      <c r="H27" s="342"/>
+      <c r="I27" s="342"/>
+      <c r="J27" s="342"/>
+      <c r="K27" s="342"/>
+      <c r="L27" s="342"/>
+      <c r="M27" s="342"/>
+      <c r="N27" s="342"/>
+      <c r="O27" s="342"/>
+      <c r="P27" s="342"/>
       <c r="Q27" s="162" t="s">
         <v>109</v>
       </c>
@@ -10862,31 +10862,31 @@
       <c r="T27" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="U27" s="361"/>
-      <c r="V27" s="361"/>
-      <c r="W27" s="361"/>
-      <c r="X27" s="361"/>
-      <c r="Y27" s="361"/>
-      <c r="Z27" s="361"/>
-      <c r="AA27" s="361"/>
-      <c r="AB27" s="361"/>
-      <c r="AC27" s="361"/>
-      <c r="AD27" s="361"/>
-      <c r="AE27" s="361"/>
-      <c r="AF27" s="361"/>
-      <c r="AG27" s="361"/>
-      <c r="AH27" s="361"/>
+      <c r="U27" s="342"/>
+      <c r="V27" s="342"/>
+      <c r="W27" s="342"/>
+      <c r="X27" s="342"/>
+      <c r="Y27" s="342"/>
+      <c r="Z27" s="342"/>
+      <c r="AA27" s="342"/>
+      <c r="AB27" s="342"/>
+      <c r="AC27" s="342"/>
+      <c r="AD27" s="342"/>
+      <c r="AE27" s="342"/>
+      <c r="AF27" s="342"/>
+      <c r="AG27" s="342"/>
+      <c r="AH27" s="342"/>
       <c r="AI27" s="164" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="356" t="s">
+      <c r="A28" s="332" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="330"/>
-      <c r="C28" s="330"/>
-      <c r="D28" s="331"/>
+      <c r="B28" s="333"/>
+      <c r="C28" s="333"/>
+      <c r="D28" s="334"/>
       <c r="E28" s="154"/>
       <c r="F28" s="154"/>
       <c r="G28" s="154"/>
@@ -11032,23 +11032,21 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11063,21 +11061,23 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:P21"/>
     <mergeCell ref="E24:P24"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
@@ -11620,158 +11620,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="305" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="311" t="str">
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="314" t="s">
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="320" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="315"/>
-      <c r="Q1" s="315"/>
-      <c r="R1" s="316"/>
-      <c r="S1" s="299" t="str">
+      <c r="P1" s="321"/>
+      <c r="Q1" s="321"/>
+      <c r="R1" s="322"/>
+      <c r="S1" s="307" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="300"/>
-      <c r="U1" s="300"/>
-      <c r="V1" s="300"/>
-      <c r="W1" s="300"/>
-      <c r="X1" s="300"/>
-      <c r="Y1" s="300"/>
-      <c r="Z1" s="301"/>
-      <c r="AA1" s="308" t="s">
+      <c r="T1" s="308"/>
+      <c r="U1" s="308"/>
+      <c r="V1" s="308"/>
+      <c r="W1" s="308"/>
+      <c r="X1" s="308"/>
+      <c r="Y1" s="308"/>
+      <c r="Z1" s="309"/>
+      <c r="AA1" s="305" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="310"/>
-      <c r="AC1" s="326" t="str">
+      <c r="AB1" s="306"/>
+      <c r="AC1" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="327"/>
-      <c r="AE1" s="327"/>
-      <c r="AF1" s="328"/>
-      <c r="AG1" s="370">
+      <c r="AD1" s="303"/>
+      <c r="AE1" s="303"/>
+      <c r="AF1" s="304"/>
+      <c r="AG1" s="329">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="371"/>
-      <c r="AI1" s="372"/>
+      <c r="AH1" s="330"/>
+      <c r="AI1" s="331"/>
     </row>
     <row r="2" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="311" t="str">
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="312"/>
-      <c r="J2" s="312"/>
-      <c r="K2" s="312"/>
-      <c r="L2" s="312"/>
-      <c r="M2" s="312"/>
-      <c r="N2" s="313"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="318"/>
-      <c r="Q2" s="318"/>
-      <c r="R2" s="319"/>
-      <c r="S2" s="302"/>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="308" t="s">
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="323"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="325"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="311"/>
+      <c r="W2" s="311"/>
+      <c r="X2" s="311"/>
+      <c r="Y2" s="311"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="305" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="310"/>
-      <c r="AC2" s="326" t="str">
+      <c r="AB2" s="306"/>
+      <c r="AC2" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="327"/>
-      <c r="AE2" s="327"/>
-      <c r="AF2" s="328"/>
-      <c r="AG2" s="370" t="str">
+      <c r="AD2" s="303"/>
+      <c r="AE2" s="303"/>
+      <c r="AF2" s="304"/>
+      <c r="AG2" s="329" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="371"/>
-      <c r="AI2" s="372"/>
+      <c r="AH2" s="330"/>
+      <c r="AI2" s="331"/>
     </row>
     <row r="3" spans="1:36" s="107" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="305" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="311" t="str">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="312"/>
-      <c r="G3" s="312"/>
-      <c r="H3" s="312"/>
-      <c r="I3" s="312"/>
-      <c r="J3" s="312"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="312"/>
-      <c r="M3" s="312"/>
-      <c r="N3" s="313"/>
-      <c r="O3" s="320"/>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="321"/>
-      <c r="R3" s="322"/>
-      <c r="S3" s="305"/>
-      <c r="T3" s="306"/>
-      <c r="U3" s="306"/>
-      <c r="V3" s="306"/>
-      <c r="W3" s="306"/>
-      <c r="X3" s="306"/>
-      <c r="Y3" s="306"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="308"/>
-      <c r="AB3" s="310"/>
-      <c r="AC3" s="326" t="str">
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="319"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="327"/>
+      <c r="Q3" s="327"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="313"/>
+      <c r="T3" s="314"/>
+      <c r="U3" s="314"/>
+      <c r="V3" s="314"/>
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
+      <c r="Y3" s="314"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="327"/>
-      <c r="AE3" s="327"/>
-      <c r="AF3" s="328"/>
-      <c r="AG3" s="370" t="str">
+      <c r="AD3" s="303"/>
+      <c r="AE3" s="303"/>
+      <c r="AF3" s="304"/>
+      <c r="AG3" s="329" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="371"/>
-      <c r="AI3" s="372"/>
+      <c r="AH3" s="330"/>
+      <c r="AI3" s="331"/>
     </row>
     <row r="4" spans="1:36" s="107" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="108"/>
@@ -11841,461 +11841,461 @@
       <c r="C7" s="120"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="393" t="s">
+      <c r="A8" s="441" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="394"/>
-      <c r="C8" s="394"/>
-      <c r="D8" s="394"/>
-      <c r="E8" s="394"/>
-      <c r="F8" s="394"/>
-      <c r="G8" s="394"/>
-      <c r="H8" s="394"/>
-      <c r="I8" s="394"/>
-      <c r="J8" s="394"/>
-      <c r="K8" s="394"/>
-      <c r="L8" s="394"/>
-      <c r="M8" s="394"/>
-      <c r="N8" s="394"/>
-      <c r="O8" s="394"/>
-      <c r="P8" s="394"/>
-      <c r="Q8" s="394"/>
-      <c r="R8" s="394"/>
-      <c r="S8" s="394"/>
-      <c r="T8" s="394"/>
-      <c r="U8" s="394"/>
-      <c r="V8" s="394"/>
-      <c r="W8" s="394"/>
-      <c r="X8" s="394"/>
-      <c r="Y8" s="394"/>
-      <c r="Z8" s="394"/>
-      <c r="AA8" s="394"/>
-      <c r="AB8" s="395"/>
-      <c r="AC8" s="459" t="s">
+      <c r="B8" s="389"/>
+      <c r="C8" s="389"/>
+      <c r="D8" s="389"/>
+      <c r="E8" s="389"/>
+      <c r="F8" s="389"/>
+      <c r="G8" s="389"/>
+      <c r="H8" s="389"/>
+      <c r="I8" s="389"/>
+      <c r="J8" s="389"/>
+      <c r="K8" s="389"/>
+      <c r="L8" s="389"/>
+      <c r="M8" s="389"/>
+      <c r="N8" s="389"/>
+      <c r="O8" s="389"/>
+      <c r="P8" s="389"/>
+      <c r="Q8" s="389"/>
+      <c r="R8" s="389"/>
+      <c r="S8" s="389"/>
+      <c r="T8" s="389"/>
+      <c r="U8" s="389"/>
+      <c r="V8" s="389"/>
+      <c r="W8" s="389"/>
+      <c r="X8" s="389"/>
+      <c r="Y8" s="389"/>
+      <c r="Z8" s="389"/>
+      <c r="AA8" s="389"/>
+      <c r="AB8" s="442"/>
+      <c r="AC8" s="388" t="s">
         <v>85</v>
       </c>
-      <c r="AD8" s="394"/>
-      <c r="AE8" s="460"/>
-      <c r="AF8" s="456"/>
-      <c r="AG8" s="457"/>
-      <c r="AH8" s="457"/>
-      <c r="AI8" s="458"/>
+      <c r="AD8" s="389"/>
+      <c r="AE8" s="390"/>
+      <c r="AF8" s="385"/>
+      <c r="AG8" s="386"/>
+      <c r="AH8" s="386"/>
+      <c r="AI8" s="387"/>
     </row>
     <row r="9" spans="1:36" s="122" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="376" t="s">
+      <c r="B9" s="435" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="390"/>
-      <c r="D9" s="390"/>
-      <c r="E9" s="390"/>
-      <c r="F9" s="391"/>
-      <c r="G9" s="376" t="s">
+      <c r="C9" s="436"/>
+      <c r="D9" s="436"/>
+      <c r="E9" s="436"/>
+      <c r="F9" s="437"/>
+      <c r="G9" s="435" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="377"/>
-      <c r="I9" s="378"/>
-      <c r="J9" s="376" t="s">
+      <c r="H9" s="438"/>
+      <c r="I9" s="440"/>
+      <c r="J9" s="435" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="377"/>
-      <c r="L9" s="377"/>
-      <c r="M9" s="377"/>
-      <c r="N9" s="377"/>
-      <c r="O9" s="377"/>
-      <c r="P9" s="378"/>
-      <c r="Q9" s="381" t="s">
+      <c r="K9" s="438"/>
+      <c r="L9" s="438"/>
+      <c r="M9" s="438"/>
+      <c r="N9" s="438"/>
+      <c r="O9" s="438"/>
+      <c r="P9" s="440"/>
+      <c r="Q9" s="455" t="s">
         <v>90</v>
       </c>
-      <c r="R9" s="383"/>
-      <c r="S9" s="381" t="s">
+      <c r="R9" s="457"/>
+      <c r="S9" s="455" t="s">
         <v>91</v>
       </c>
-      <c r="T9" s="382"/>
-      <c r="U9" s="383"/>
-      <c r="V9" s="376" t="s">
+      <c r="T9" s="456"/>
+      <c r="U9" s="457"/>
+      <c r="V9" s="435" t="s">
         <v>92</v>
       </c>
-      <c r="W9" s="377"/>
-      <c r="X9" s="377"/>
-      <c r="Y9" s="377"/>
-      <c r="Z9" s="377"/>
-      <c r="AA9" s="377"/>
-      <c r="AB9" s="392"/>
-      <c r="AC9" s="404" t="s">
+      <c r="W9" s="438"/>
+      <c r="X9" s="438"/>
+      <c r="Y9" s="438"/>
+      <c r="Z9" s="438"/>
+      <c r="AA9" s="438"/>
+      <c r="AB9" s="439"/>
+      <c r="AC9" s="449" t="s">
         <v>93</v>
       </c>
-      <c r="AD9" s="405"/>
-      <c r="AE9" s="405"/>
-      <c r="AF9" s="405"/>
-      <c r="AG9" s="405"/>
-      <c r="AH9" s="406" t="s">
+      <c r="AD9" s="450"/>
+      <c r="AE9" s="450"/>
+      <c r="AF9" s="450"/>
+      <c r="AG9" s="450"/>
+      <c r="AH9" s="451" t="s">
         <v>95</v>
       </c>
-      <c r="AI9" s="406"/>
+      <c r="AI9" s="451"/>
     </row>
     <row r="10" spans="1:36" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="123">
         <v>1</v>
       </c>
-      <c r="B10" s="443" t="s">
+      <c r="B10" s="398" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="444"/>
-      <c r="D10" s="444"/>
-      <c r="E10" s="444"/>
-      <c r="F10" s="445"/>
-      <c r="G10" s="401"/>
-      <c r="H10" s="402"/>
-      <c r="I10" s="403"/>
-      <c r="J10" s="385"/>
-      <c r="K10" s="386"/>
-      <c r="L10" s="386"/>
-      <c r="M10" s="386"/>
-      <c r="N10" s="386"/>
-      <c r="O10" s="386"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="399"/>
-      <c r="R10" s="400"/>
-      <c r="S10" s="399"/>
-      <c r="T10" s="446"/>
-      <c r="U10" s="400"/>
-      <c r="V10" s="407"/>
-      <c r="W10" s="408"/>
-      <c r="X10" s="408"/>
-      <c r="Y10" s="408"/>
-      <c r="Z10" s="408"/>
-      <c r="AA10" s="408"/>
-      <c r="AB10" s="409"/>
-      <c r="AC10" s="438"/>
-      <c r="AD10" s="450"/>
-      <c r="AE10" s="451"/>
-      <c r="AF10" s="451"/>
-      <c r="AG10" s="452"/>
-      <c r="AH10" s="441"/>
-      <c r="AI10" s="442"/>
+      <c r="C10" s="399"/>
+      <c r="D10" s="399"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="400"/>
+      <c r="G10" s="446"/>
+      <c r="H10" s="447"/>
+      <c r="I10" s="448"/>
+      <c r="J10" s="458"/>
+      <c r="K10" s="459"/>
+      <c r="L10" s="459"/>
+      <c r="M10" s="459"/>
+      <c r="N10" s="459"/>
+      <c r="O10" s="459"/>
+      <c r="P10" s="460"/>
+      <c r="Q10" s="407"/>
+      <c r="R10" s="409"/>
+      <c r="S10" s="407"/>
+      <c r="T10" s="408"/>
+      <c r="U10" s="409"/>
+      <c r="V10" s="452"/>
+      <c r="W10" s="453"/>
+      <c r="X10" s="453"/>
+      <c r="Y10" s="453"/>
+      <c r="Z10" s="453"/>
+      <c r="AA10" s="453"/>
+      <c r="AB10" s="454"/>
+      <c r="AC10" s="432"/>
+      <c r="AD10" s="376"/>
+      <c r="AE10" s="377"/>
+      <c r="AF10" s="377"/>
+      <c r="AG10" s="378"/>
+      <c r="AH10" s="396"/>
+      <c r="AI10" s="397"/>
     </row>
     <row r="11" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="124">
         <v>2</v>
       </c>
-      <c r="B11" s="373"/>
-      <c r="C11" s="374"/>
-      <c r="D11" s="374"/>
-      <c r="E11" s="374"/>
-      <c r="F11" s="375"/>
-      <c r="G11" s="396"/>
-      <c r="H11" s="397"/>
-      <c r="I11" s="398"/>
-      <c r="J11" s="373"/>
-      <c r="K11" s="374"/>
-      <c r="L11" s="374"/>
-      <c r="M11" s="374"/>
-      <c r="N11" s="374"/>
-      <c r="O11" s="374"/>
-      <c r="P11" s="375"/>
-      <c r="Q11" s="379"/>
-      <c r="R11" s="380"/>
-      <c r="S11" s="379"/>
-      <c r="T11" s="384"/>
-      <c r="U11" s="380"/>
-      <c r="V11" s="410"/>
-      <c r="W11" s="411"/>
-      <c r="X11" s="411"/>
-      <c r="Y11" s="411"/>
-      <c r="Z11" s="411"/>
-      <c r="AA11" s="411"/>
-      <c r="AB11" s="412"/>
-      <c r="AC11" s="439"/>
-      <c r="AD11" s="453"/>
-      <c r="AE11" s="454"/>
-      <c r="AF11" s="454"/>
-      <c r="AG11" s="455"/>
-      <c r="AH11" s="388"/>
-      <c r="AI11" s="389"/>
+      <c r="B11" s="401"/>
+      <c r="C11" s="402"/>
+      <c r="D11" s="402"/>
+      <c r="E11" s="402"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="443"/>
+      <c r="H11" s="444"/>
+      <c r="I11" s="445"/>
+      <c r="J11" s="401"/>
+      <c r="K11" s="402"/>
+      <c r="L11" s="402"/>
+      <c r="M11" s="402"/>
+      <c r="N11" s="402"/>
+      <c r="O11" s="402"/>
+      <c r="P11" s="403"/>
+      <c r="Q11" s="410"/>
+      <c r="R11" s="412"/>
+      <c r="S11" s="410"/>
+      <c r="T11" s="411"/>
+      <c r="U11" s="412"/>
+      <c r="V11" s="393"/>
+      <c r="W11" s="394"/>
+      <c r="X11" s="394"/>
+      <c r="Y11" s="394"/>
+      <c r="Z11" s="394"/>
+      <c r="AA11" s="394"/>
+      <c r="AB11" s="395"/>
+      <c r="AC11" s="433"/>
+      <c r="AD11" s="379"/>
+      <c r="AE11" s="380"/>
+      <c r="AF11" s="380"/>
+      <c r="AG11" s="381"/>
+      <c r="AH11" s="391"/>
+      <c r="AI11" s="392"/>
     </row>
     <row r="12" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="124">
         <v>3</v>
       </c>
-      <c r="B12" s="373"/>
-      <c r="C12" s="374"/>
-      <c r="D12" s="374"/>
-      <c r="E12" s="374"/>
-      <c r="F12" s="375"/>
-      <c r="G12" s="396"/>
-      <c r="H12" s="397"/>
-      <c r="I12" s="398"/>
-      <c r="J12" s="373"/>
-      <c r="K12" s="374"/>
-      <c r="L12" s="374"/>
-      <c r="M12" s="374"/>
-      <c r="N12" s="374"/>
-      <c r="O12" s="374"/>
-      <c r="P12" s="375"/>
-      <c r="Q12" s="379"/>
-      <c r="R12" s="380"/>
-      <c r="S12" s="379"/>
-      <c r="T12" s="384"/>
-      <c r="U12" s="380"/>
-      <c r="V12" s="410"/>
-      <c r="W12" s="411"/>
-      <c r="X12" s="411"/>
-      <c r="Y12" s="411"/>
-      <c r="Z12" s="411"/>
-      <c r="AA12" s="411"/>
-      <c r="AB12" s="412"/>
-      <c r="AC12" s="439"/>
-      <c r="AD12" s="413"/>
-      <c r="AE12" s="414"/>
-      <c r="AF12" s="414"/>
-      <c r="AG12" s="415"/>
-      <c r="AH12" s="388"/>
-      <c r="AI12" s="389"/>
+      <c r="B12" s="401"/>
+      <c r="C12" s="402"/>
+      <c r="D12" s="402"/>
+      <c r="E12" s="402"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="443"/>
+      <c r="H12" s="444"/>
+      <c r="I12" s="445"/>
+      <c r="J12" s="401"/>
+      <c r="K12" s="402"/>
+      <c r="L12" s="402"/>
+      <c r="M12" s="402"/>
+      <c r="N12" s="402"/>
+      <c r="O12" s="402"/>
+      <c r="P12" s="403"/>
+      <c r="Q12" s="410"/>
+      <c r="R12" s="412"/>
+      <c r="S12" s="410"/>
+      <c r="T12" s="411"/>
+      <c r="U12" s="412"/>
+      <c r="V12" s="393"/>
+      <c r="W12" s="394"/>
+      <c r="X12" s="394"/>
+      <c r="Y12" s="394"/>
+      <c r="Z12" s="394"/>
+      <c r="AA12" s="394"/>
+      <c r="AB12" s="395"/>
+      <c r="AC12" s="433"/>
+      <c r="AD12" s="382"/>
+      <c r="AE12" s="383"/>
+      <c r="AF12" s="383"/>
+      <c r="AG12" s="384"/>
+      <c r="AH12" s="391"/>
+      <c r="AI12" s="392"/>
     </row>
     <row r="13" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="124">
         <v>4</v>
       </c>
-      <c r="B13" s="373"/>
-      <c r="C13" s="374"/>
-      <c r="D13" s="374"/>
-      <c r="E13" s="374"/>
-      <c r="F13" s="375"/>
-      <c r="G13" s="396"/>
-      <c r="H13" s="397"/>
-      <c r="I13" s="398"/>
-      <c r="J13" s="373"/>
-      <c r="K13" s="374"/>
-      <c r="L13" s="374"/>
-      <c r="M13" s="374"/>
-      <c r="N13" s="374"/>
-      <c r="O13" s="374"/>
-      <c r="P13" s="375"/>
-      <c r="Q13" s="379"/>
-      <c r="R13" s="380"/>
-      <c r="S13" s="379"/>
-      <c r="T13" s="384"/>
-      <c r="U13" s="380"/>
-      <c r="V13" s="410"/>
-      <c r="W13" s="411"/>
-      <c r="X13" s="411"/>
-      <c r="Y13" s="411"/>
-      <c r="Z13" s="411"/>
-      <c r="AA13" s="411"/>
-      <c r="AB13" s="412"/>
-      <c r="AC13" s="439"/>
-      <c r="AD13" s="413"/>
-      <c r="AE13" s="414"/>
-      <c r="AF13" s="414"/>
-      <c r="AG13" s="415"/>
-      <c r="AH13" s="388"/>
-      <c r="AI13" s="389"/>
+      <c r="B13" s="401"/>
+      <c r="C13" s="402"/>
+      <c r="D13" s="402"/>
+      <c r="E13" s="402"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="443"/>
+      <c r="H13" s="444"/>
+      <c r="I13" s="445"/>
+      <c r="J13" s="401"/>
+      <c r="K13" s="402"/>
+      <c r="L13" s="402"/>
+      <c r="M13" s="402"/>
+      <c r="N13" s="402"/>
+      <c r="O13" s="402"/>
+      <c r="P13" s="403"/>
+      <c r="Q13" s="410"/>
+      <c r="R13" s="412"/>
+      <c r="S13" s="410"/>
+      <c r="T13" s="411"/>
+      <c r="U13" s="412"/>
+      <c r="V13" s="393"/>
+      <c r="W13" s="394"/>
+      <c r="X13" s="394"/>
+      <c r="Y13" s="394"/>
+      <c r="Z13" s="394"/>
+      <c r="AA13" s="394"/>
+      <c r="AB13" s="395"/>
+      <c r="AC13" s="433"/>
+      <c r="AD13" s="382"/>
+      <c r="AE13" s="383"/>
+      <c r="AF13" s="383"/>
+      <c r="AG13" s="384"/>
+      <c r="AH13" s="391"/>
+      <c r="AI13" s="392"/>
     </row>
     <row r="14" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="124">
         <v>5</v>
       </c>
-      <c r="B14" s="430"/>
-      <c r="C14" s="431"/>
-      <c r="D14" s="431"/>
-      <c r="E14" s="431"/>
-      <c r="F14" s="432"/>
-      <c r="G14" s="373"/>
-      <c r="H14" s="374"/>
-      <c r="I14" s="375"/>
-      <c r="J14" s="373"/>
-      <c r="K14" s="374"/>
-      <c r="L14" s="374"/>
-      <c r="M14" s="374"/>
-      <c r="N14" s="374"/>
-      <c r="O14" s="374"/>
-      <c r="P14" s="375"/>
-      <c r="Q14" s="379"/>
-      <c r="R14" s="380"/>
-      <c r="S14" s="379"/>
-      <c r="T14" s="384"/>
-      <c r="U14" s="380"/>
-      <c r="V14" s="410"/>
-      <c r="W14" s="411"/>
-      <c r="X14" s="411"/>
-      <c r="Y14" s="411"/>
-      <c r="Z14" s="411"/>
-      <c r="AA14" s="411"/>
-      <c r="AB14" s="412"/>
-      <c r="AC14" s="439"/>
-      <c r="AD14" s="413"/>
-      <c r="AE14" s="414"/>
-      <c r="AF14" s="414"/>
-      <c r="AG14" s="415"/>
-      <c r="AH14" s="388"/>
-      <c r="AI14" s="389"/>
+      <c r="B14" s="404"/>
+      <c r="C14" s="405"/>
+      <c r="D14" s="405"/>
+      <c r="E14" s="405"/>
+      <c r="F14" s="406"/>
+      <c r="G14" s="401"/>
+      <c r="H14" s="402"/>
+      <c r="I14" s="403"/>
+      <c r="J14" s="401"/>
+      <c r="K14" s="402"/>
+      <c r="L14" s="402"/>
+      <c r="M14" s="402"/>
+      <c r="N14" s="402"/>
+      <c r="O14" s="402"/>
+      <c r="P14" s="403"/>
+      <c r="Q14" s="410"/>
+      <c r="R14" s="412"/>
+      <c r="S14" s="410"/>
+      <c r="T14" s="411"/>
+      <c r="U14" s="412"/>
+      <c r="V14" s="393"/>
+      <c r="W14" s="394"/>
+      <c r="X14" s="394"/>
+      <c r="Y14" s="394"/>
+      <c r="Z14" s="394"/>
+      <c r="AA14" s="394"/>
+      <c r="AB14" s="395"/>
+      <c r="AC14" s="433"/>
+      <c r="AD14" s="382"/>
+      <c r="AE14" s="383"/>
+      <c r="AF14" s="383"/>
+      <c r="AG14" s="384"/>
+      <c r="AH14" s="391"/>
+      <c r="AI14" s="392"/>
     </row>
     <row r="15" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="124">
         <v>6</v>
       </c>
-      <c r="B15" s="430"/>
-      <c r="C15" s="431"/>
-      <c r="D15" s="431"/>
-      <c r="E15" s="431"/>
-      <c r="F15" s="432"/>
-      <c r="G15" s="373"/>
-      <c r="H15" s="374"/>
-      <c r="I15" s="375"/>
-      <c r="J15" s="373"/>
-      <c r="K15" s="374"/>
-      <c r="L15" s="374"/>
-      <c r="M15" s="374"/>
-      <c r="N15" s="374"/>
-      <c r="O15" s="374"/>
-      <c r="P15" s="375"/>
-      <c r="Q15" s="379"/>
-      <c r="R15" s="380"/>
-      <c r="S15" s="379"/>
-      <c r="T15" s="384"/>
-      <c r="U15" s="380"/>
-      <c r="V15" s="410"/>
-      <c r="W15" s="411"/>
-      <c r="X15" s="411"/>
-      <c r="Y15" s="411"/>
-      <c r="Z15" s="411"/>
-      <c r="AA15" s="411"/>
-      <c r="AB15" s="412"/>
-      <c r="AC15" s="439"/>
-      <c r="AD15" s="413"/>
-      <c r="AE15" s="414"/>
-      <c r="AF15" s="414"/>
-      <c r="AG15" s="415"/>
-      <c r="AH15" s="388"/>
-      <c r="AI15" s="389"/>
+      <c r="B15" s="404"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="405"/>
+      <c r="E15" s="405"/>
+      <c r="F15" s="406"/>
+      <c r="G15" s="401"/>
+      <c r="H15" s="402"/>
+      <c r="I15" s="403"/>
+      <c r="J15" s="401"/>
+      <c r="K15" s="402"/>
+      <c r="L15" s="402"/>
+      <c r="M15" s="402"/>
+      <c r="N15" s="402"/>
+      <c r="O15" s="402"/>
+      <c r="P15" s="403"/>
+      <c r="Q15" s="410"/>
+      <c r="R15" s="412"/>
+      <c r="S15" s="410"/>
+      <c r="T15" s="411"/>
+      <c r="U15" s="412"/>
+      <c r="V15" s="393"/>
+      <c r="W15" s="394"/>
+      <c r="X15" s="394"/>
+      <c r="Y15" s="394"/>
+      <c r="Z15" s="394"/>
+      <c r="AA15" s="394"/>
+      <c r="AB15" s="395"/>
+      <c r="AC15" s="433"/>
+      <c r="AD15" s="382"/>
+      <c r="AE15" s="383"/>
+      <c r="AF15" s="383"/>
+      <c r="AG15" s="384"/>
+      <c r="AH15" s="391"/>
+      <c r="AI15" s="392"/>
     </row>
     <row r="16" spans="1:36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="125">
         <v>7</v>
       </c>
-      <c r="B16" s="430"/>
-      <c r="C16" s="431"/>
-      <c r="D16" s="431"/>
-      <c r="E16" s="431"/>
-      <c r="F16" s="432"/>
-      <c r="G16" s="373"/>
-      <c r="H16" s="374"/>
-      <c r="I16" s="375"/>
-      <c r="J16" s="373"/>
-      <c r="K16" s="374"/>
-      <c r="L16" s="374"/>
-      <c r="M16" s="374"/>
-      <c r="N16" s="374"/>
-      <c r="O16" s="374"/>
-      <c r="P16" s="375"/>
-      <c r="Q16" s="379"/>
-      <c r="R16" s="380"/>
-      <c r="S16" s="379"/>
-      <c r="T16" s="384"/>
-      <c r="U16" s="380"/>
-      <c r="V16" s="410"/>
-      <c r="W16" s="411"/>
-      <c r="X16" s="411"/>
-      <c r="Y16" s="411"/>
-      <c r="Z16" s="411"/>
-      <c r="AA16" s="411"/>
-      <c r="AB16" s="412"/>
-      <c r="AC16" s="439"/>
-      <c r="AD16" s="413"/>
-      <c r="AE16" s="414"/>
-      <c r="AF16" s="414"/>
-      <c r="AG16" s="415"/>
-      <c r="AH16" s="388"/>
-      <c r="AI16" s="389"/>
+      <c r="B16" s="404"/>
+      <c r="C16" s="405"/>
+      <c r="D16" s="405"/>
+      <c r="E16" s="405"/>
+      <c r="F16" s="406"/>
+      <c r="G16" s="401"/>
+      <c r="H16" s="402"/>
+      <c r="I16" s="403"/>
+      <c r="J16" s="401"/>
+      <c r="K16" s="402"/>
+      <c r="L16" s="402"/>
+      <c r="M16" s="402"/>
+      <c r="N16" s="402"/>
+      <c r="O16" s="402"/>
+      <c r="P16" s="403"/>
+      <c r="Q16" s="410"/>
+      <c r="R16" s="412"/>
+      <c r="S16" s="410"/>
+      <c r="T16" s="411"/>
+      <c r="U16" s="412"/>
+      <c r="V16" s="393"/>
+      <c r="W16" s="394"/>
+      <c r="X16" s="394"/>
+      <c r="Y16" s="394"/>
+      <c r="Z16" s="394"/>
+      <c r="AA16" s="394"/>
+      <c r="AB16" s="395"/>
+      <c r="AC16" s="433"/>
+      <c r="AD16" s="382"/>
+      <c r="AE16" s="383"/>
+      <c r="AF16" s="383"/>
+      <c r="AG16" s="384"/>
+      <c r="AH16" s="391"/>
+      <c r="AI16" s="392"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="125">
         <v>8</v>
       </c>
-      <c r="B17" s="430"/>
-      <c r="C17" s="431"/>
-      <c r="D17" s="431"/>
-      <c r="E17" s="431"/>
-      <c r="F17" s="432"/>
-      <c r="G17" s="373"/>
-      <c r="H17" s="374"/>
-      <c r="I17" s="375"/>
-      <c r="J17" s="373"/>
-      <c r="K17" s="374"/>
-      <c r="L17" s="374"/>
-      <c r="M17" s="374"/>
-      <c r="N17" s="374"/>
-      <c r="O17" s="374"/>
-      <c r="P17" s="375"/>
-      <c r="Q17" s="379"/>
-      <c r="R17" s="380"/>
-      <c r="S17" s="379"/>
-      <c r="T17" s="384"/>
-      <c r="U17" s="380"/>
-      <c r="V17" s="410"/>
-      <c r="W17" s="411"/>
-      <c r="X17" s="411"/>
-      <c r="Y17" s="411"/>
-      <c r="Z17" s="411"/>
-      <c r="AA17" s="411"/>
-      <c r="AB17" s="412"/>
-      <c r="AC17" s="439"/>
-      <c r="AD17" s="413"/>
-      <c r="AE17" s="414"/>
-      <c r="AF17" s="414"/>
-      <c r="AG17" s="415"/>
-      <c r="AH17" s="388"/>
-      <c r="AI17" s="389"/>
+      <c r="B17" s="404"/>
+      <c r="C17" s="405"/>
+      <c r="D17" s="405"/>
+      <c r="E17" s="405"/>
+      <c r="F17" s="406"/>
+      <c r="G17" s="401"/>
+      <c r="H17" s="402"/>
+      <c r="I17" s="403"/>
+      <c r="J17" s="401"/>
+      <c r="K17" s="402"/>
+      <c r="L17" s="402"/>
+      <c r="M17" s="402"/>
+      <c r="N17" s="402"/>
+      <c r="O17" s="402"/>
+      <c r="P17" s="403"/>
+      <c r="Q17" s="410"/>
+      <c r="R17" s="412"/>
+      <c r="S17" s="410"/>
+      <c r="T17" s="411"/>
+      <c r="U17" s="412"/>
+      <c r="V17" s="393"/>
+      <c r="W17" s="394"/>
+      <c r="X17" s="394"/>
+      <c r="Y17" s="394"/>
+      <c r="Z17" s="394"/>
+      <c r="AA17" s="394"/>
+      <c r="AB17" s="395"/>
+      <c r="AC17" s="433"/>
+      <c r="AD17" s="382"/>
+      <c r="AE17" s="383"/>
+      <c r="AF17" s="383"/>
+      <c r="AG17" s="384"/>
+      <c r="AH17" s="391"/>
+      <c r="AI17" s="392"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="126">
         <v>9</v>
       </c>
-      <c r="B18" s="433"/>
-      <c r="C18" s="434"/>
-      <c r="D18" s="434"/>
-      <c r="E18" s="434"/>
-      <c r="F18" s="435"/>
-      <c r="G18" s="427"/>
-      <c r="H18" s="428"/>
-      <c r="I18" s="429"/>
-      <c r="J18" s="427"/>
-      <c r="K18" s="428"/>
-      <c r="L18" s="428"/>
-      <c r="M18" s="428"/>
-      <c r="N18" s="428"/>
-      <c r="O18" s="428"/>
-      <c r="P18" s="429"/>
-      <c r="Q18" s="424"/>
-      <c r="R18" s="426"/>
-      <c r="S18" s="424"/>
-      <c r="T18" s="425"/>
-      <c r="U18" s="426"/>
-      <c r="V18" s="419"/>
-      <c r="W18" s="420"/>
-      <c r="X18" s="420"/>
-      <c r="Y18" s="420"/>
-      <c r="Z18" s="420"/>
-      <c r="AA18" s="420"/>
-      <c r="AB18" s="421"/>
-      <c r="AC18" s="440"/>
-      <c r="AD18" s="447"/>
-      <c r="AE18" s="448"/>
-      <c r="AF18" s="448"/>
-      <c r="AG18" s="449"/>
-      <c r="AH18" s="436"/>
-      <c r="AI18" s="437"/>
+      <c r="B18" s="427"/>
+      <c r="C18" s="428"/>
+      <c r="D18" s="428"/>
+      <c r="E18" s="428"/>
+      <c r="F18" s="429"/>
+      <c r="G18" s="424"/>
+      <c r="H18" s="425"/>
+      <c r="I18" s="426"/>
+      <c r="J18" s="424"/>
+      <c r="K18" s="425"/>
+      <c r="L18" s="425"/>
+      <c r="M18" s="425"/>
+      <c r="N18" s="425"/>
+      <c r="O18" s="425"/>
+      <c r="P18" s="426"/>
+      <c r="Q18" s="421"/>
+      <c r="R18" s="423"/>
+      <c r="S18" s="421"/>
+      <c r="T18" s="422"/>
+      <c r="U18" s="423"/>
+      <c r="V18" s="416"/>
+      <c r="W18" s="417"/>
+      <c r="X18" s="417"/>
+      <c r="Y18" s="417"/>
+      <c r="Z18" s="417"/>
+      <c r="AA18" s="417"/>
+      <c r="AB18" s="418"/>
+      <c r="AC18" s="434"/>
+      <c r="AD18" s="373"/>
+      <c r="AE18" s="374"/>
+      <c r="AF18" s="374"/>
+      <c r="AG18" s="375"/>
+      <c r="AH18" s="430"/>
+      <c r="AI18" s="431"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="422"/>
-      <c r="B19" s="423"/>
-      <c r="C19" s="423"/>
-      <c r="D19" s="423"/>
-      <c r="E19" s="423"/>
-      <c r="F19" s="423"/>
+      <c r="A19" s="419"/>
+      <c r="B19" s="420"/>
+      <c r="C19" s="420"/>
+      <c r="D19" s="420"/>
+      <c r="E19" s="420"/>
+      <c r="F19" s="420"/>
       <c r="G19" s="127"/>
       <c r="H19" s="127"/>
       <c r="I19" s="127"/>
@@ -12319,23 +12319,23 @@
       <c r="AA19" s="127"/>
       <c r="AB19" s="127"/>
       <c r="AC19" s="128"/>
-      <c r="AD19" s="418"/>
-      <c r="AE19" s="418"/>
-      <c r="AF19" s="418"/>
-      <c r="AG19" s="418"/>
-      <c r="AH19" s="418"/>
+      <c r="AD19" s="415"/>
+      <c r="AE19" s="415"/>
+      <c r="AF19" s="415"/>
+      <c r="AG19" s="415"/>
+      <c r="AH19" s="415"/>
       <c r="AI19" s="63"/>
       <c r="AJ19" s="129"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="416" t="s">
+      <c r="A20" s="413" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="417"/>
-      <c r="C20" s="417"/>
-      <c r="D20" s="417"/>
-      <c r="E20" s="417"/>
-      <c r="F20" s="417"/>
+      <c r="B20" s="414"/>
+      <c r="C20" s="414"/>
+      <c r="D20" s="414"/>
+      <c r="E20" s="414"/>
+      <c r="F20" s="414"/>
       <c r="G20" s="130"/>
       <c r="H20" s="131"/>
       <c r="I20" s="131"/>
@@ -12882,6 +12882,86 @@
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A8:AB8"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="V18:AB18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AC10:AC18"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="V13:AB13"/>
     <mergeCell ref="AD18:AG18"/>
     <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="AD11:AG11"/>
@@ -12906,86 +12986,6 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AH17:AI17"/>
     <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="V18:AB18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AC10:AC18"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="A8:AB8"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="J10:P10"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <dataValidations count="2">
@@ -13026,158 +13026,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="305" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="311" t="str">
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="314" t="s">
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="320" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="315"/>
-      <c r="Q1" s="315"/>
-      <c r="R1" s="316"/>
-      <c r="S1" s="299" t="str">
+      <c r="P1" s="321"/>
+      <c r="Q1" s="321"/>
+      <c r="R1" s="322"/>
+      <c r="S1" s="307" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="300"/>
-      <c r="U1" s="300"/>
-      <c r="V1" s="300"/>
-      <c r="W1" s="300"/>
-      <c r="X1" s="300"/>
-      <c r="Y1" s="300"/>
-      <c r="Z1" s="301"/>
-      <c r="AA1" s="308" t="s">
+      <c r="T1" s="308"/>
+      <c r="U1" s="308"/>
+      <c r="V1" s="308"/>
+      <c r="W1" s="308"/>
+      <c r="X1" s="308"/>
+      <c r="Y1" s="308"/>
+      <c r="Z1" s="309"/>
+      <c r="AA1" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="310"/>
-      <c r="AC1" s="326" t="str">
+      <c r="AB1" s="306"/>
+      <c r="AC1" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="327"/>
-      <c r="AE1" s="327"/>
-      <c r="AF1" s="328"/>
-      <c r="AG1" s="370">
+      <c r="AD1" s="303"/>
+      <c r="AE1" s="303"/>
+      <c r="AF1" s="304"/>
+      <c r="AG1" s="329">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="371"/>
-      <c r="AI1" s="372"/>
+      <c r="AH1" s="330"/>
+      <c r="AI1" s="331"/>
     </row>
     <row r="2" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="305" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="311" t="str">
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="312"/>
-      <c r="J2" s="312"/>
-      <c r="K2" s="312"/>
-      <c r="L2" s="312"/>
-      <c r="M2" s="312"/>
-      <c r="N2" s="313"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="318"/>
-      <c r="Q2" s="318"/>
-      <c r="R2" s="319"/>
-      <c r="S2" s="302"/>
-      <c r="T2" s="303"/>
-      <c r="U2" s="303"/>
-      <c r="V2" s="303"/>
-      <c r="W2" s="303"/>
-      <c r="X2" s="303"/>
-      <c r="Y2" s="303"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="308" t="s">
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="323"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="325"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="311"/>
+      <c r="W2" s="311"/>
+      <c r="X2" s="311"/>
+      <c r="Y2" s="311"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="310"/>
-      <c r="AC2" s="326" t="str">
+      <c r="AB2" s="306"/>
+      <c r="AC2" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="327"/>
-      <c r="AE2" s="327"/>
-      <c r="AF2" s="328"/>
-      <c r="AG2" s="370" t="str">
+      <c r="AD2" s="303"/>
+      <c r="AE2" s="303"/>
+      <c r="AF2" s="304"/>
+      <c r="AG2" s="329" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="371"/>
-      <c r="AI2" s="372"/>
+      <c r="AH2" s="330"/>
+      <c r="AI2" s="331"/>
     </row>
     <row r="3" spans="1:96" s="59" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="305" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="311" t="str">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="317" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="312"/>
-      <c r="G3" s="312"/>
-      <c r="H3" s="312"/>
-      <c r="I3" s="312"/>
-      <c r="J3" s="312"/>
-      <c r="K3" s="312"/>
-      <c r="L3" s="312"/>
-      <c r="M3" s="312"/>
-      <c r="N3" s="313"/>
-      <c r="O3" s="320"/>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="321"/>
-      <c r="R3" s="322"/>
-      <c r="S3" s="305"/>
-      <c r="T3" s="306"/>
-      <c r="U3" s="306"/>
-      <c r="V3" s="306"/>
-      <c r="W3" s="306"/>
-      <c r="X3" s="306"/>
-      <c r="Y3" s="306"/>
-      <c r="Z3" s="307"/>
-      <c r="AA3" s="308"/>
-      <c r="AB3" s="310"/>
-      <c r="AC3" s="326" t="str">
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="319"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="327"/>
+      <c r="Q3" s="327"/>
+      <c r="R3" s="328"/>
+      <c r="S3" s="313"/>
+      <c r="T3" s="314"/>
+      <c r="U3" s="314"/>
+      <c r="V3" s="314"/>
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
+      <c r="Y3" s="314"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="327"/>
-      <c r="AE3" s="327"/>
-      <c r="AF3" s="328"/>
-      <c r="AG3" s="370" t="str">
+      <c r="AD3" s="303"/>
+      <c r="AE3" s="303"/>
+      <c r="AF3" s="304"/>
+      <c r="AG3" s="329" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="371"/>
-      <c r="AI3" s="372"/>
+      <c r="AH3" s="330"/>
+      <c r="AI3" s="331"/>
     </row>
     <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13223,60 +13223,60 @@
       <c r="A7" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="480" t="s">
+      <c r="B7" s="472" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="481"/>
-      <c r="D7" s="481"/>
-      <c r="E7" s="481"/>
-      <c r="F7" s="482"/>
-      <c r="G7" s="480" t="s">
+      <c r="C7" s="473"/>
+      <c r="D7" s="473"/>
+      <c r="E7" s="473"/>
+      <c r="F7" s="474"/>
+      <c r="G7" s="472" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="481"/>
-      <c r="I7" s="481"/>
-      <c r="J7" s="481"/>
-      <c r="K7" s="482"/>
-      <c r="L7" s="480" t="s">
+      <c r="H7" s="473"/>
+      <c r="I7" s="473"/>
+      <c r="J7" s="473"/>
+      <c r="K7" s="474"/>
+      <c r="L7" s="472" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="481"/>
-      <c r="N7" s="481"/>
-      <c r="O7" s="481"/>
-      <c r="P7" s="482"/>
+      <c r="M7" s="473"/>
+      <c r="N7" s="473"/>
+      <c r="O7" s="473"/>
+      <c r="P7" s="474"/>
       <c r="Q7" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="R7" s="474" t="s">
+      <c r="R7" s="482" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="474"/>
-      <c r="T7" s="474"/>
-      <c r="U7" s="474"/>
-      <c r="V7" s="475" t="s">
+      <c r="S7" s="482"/>
+      <c r="T7" s="482"/>
+      <c r="U7" s="482"/>
+      <c r="V7" s="483" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="476"/>
-      <c r="X7" s="475" t="s">
+      <c r="W7" s="484"/>
+      <c r="X7" s="483" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="476"/>
-      <c r="Z7" s="480" t="s">
+      <c r="Y7" s="484"/>
+      <c r="Z7" s="472" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="481"/>
-      <c r="AB7" s="482"/>
-      <c r="AC7" s="480" t="s">
+      <c r="AA7" s="473"/>
+      <c r="AB7" s="474"/>
+      <c r="AC7" s="472" t="s">
         <v>73</v>
       </c>
-      <c r="AD7" s="481"/>
-      <c r="AE7" s="481"/>
-      <c r="AF7" s="481"/>
-      <c r="AG7" s="481"/>
-      <c r="AH7" s="481"/>
-      <c r="AI7" s="481"/>
-      <c r="AJ7" s="481"/>
-      <c r="AK7" s="482"/>
+      <c r="AD7" s="473"/>
+      <c r="AE7" s="473"/>
+      <c r="AF7" s="473"/>
+      <c r="AG7" s="473"/>
+      <c r="AH7" s="473"/>
+      <c r="AI7" s="473"/>
+      <c r="AJ7" s="473"/>
+      <c r="AK7" s="474"/>
       <c r="AL7" s="239"/>
       <c r="AM7" s="239"/>
       <c r="AN7" s="239"/>
@@ -13336,48 +13336,48 @@
       <c r="A8" s="65">
         <v>1</v>
       </c>
-      <c r="B8" s="461" t="s">
+      <c r="B8" s="464" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="462"/>
-      <c r="D8" s="462"/>
-      <c r="E8" s="462"/>
-      <c r="F8" s="463"/>
-      <c r="G8" s="464" t="s">
+      <c r="C8" s="465"/>
+      <c r="D8" s="465"/>
+      <c r="E8" s="465"/>
+      <c r="F8" s="466"/>
+      <c r="G8" s="461" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="465"/>
-      <c r="I8" s="465"/>
-      <c r="J8" s="465"/>
-      <c r="K8" s="466"/>
-      <c r="L8" s="461"/>
-      <c r="M8" s="462"/>
-      <c r="N8" s="462"/>
-      <c r="O8" s="462"/>
-      <c r="P8" s="463"/>
+      <c r="H8" s="462"/>
+      <c r="I8" s="462"/>
+      <c r="J8" s="462"/>
+      <c r="K8" s="463"/>
+      <c r="L8" s="464"/>
+      <c r="M8" s="465"/>
+      <c r="N8" s="465"/>
+      <c r="O8" s="465"/>
+      <c r="P8" s="466"/>
       <c r="Q8" s="66"/>
-      <c r="R8" s="461"/>
-      <c r="S8" s="462"/>
-      <c r="T8" s="462"/>
-      <c r="U8" s="463"/>
-      <c r="V8" s="467" t="s">
+      <c r="R8" s="464"/>
+      <c r="S8" s="465"/>
+      <c r="T8" s="465"/>
+      <c r="U8" s="466"/>
+      <c r="V8" s="470" t="s">
         <v>76</v>
       </c>
-      <c r="W8" s="468"/>
-      <c r="X8" s="483"/>
-      <c r="Y8" s="484"/>
-      <c r="Z8" s="461"/>
-      <c r="AA8" s="462"/>
-      <c r="AB8" s="463"/>
-      <c r="AC8" s="461"/>
-      <c r="AD8" s="462"/>
-      <c r="AE8" s="462"/>
-      <c r="AF8" s="462"/>
-      <c r="AG8" s="462"/>
-      <c r="AH8" s="462"/>
-      <c r="AI8" s="462"/>
-      <c r="AJ8" s="462"/>
-      <c r="AK8" s="463"/>
+      <c r="W8" s="471"/>
+      <c r="X8" s="475"/>
+      <c r="Y8" s="476"/>
+      <c r="Z8" s="464"/>
+      <c r="AA8" s="465"/>
+      <c r="AB8" s="466"/>
+      <c r="AC8" s="464"/>
+      <c r="AD8" s="465"/>
+      <c r="AE8" s="465"/>
+      <c r="AF8" s="465"/>
+      <c r="AG8" s="465"/>
+      <c r="AH8" s="465"/>
+      <c r="AI8" s="465"/>
+      <c r="AJ8" s="465"/>
+      <c r="AK8" s="466"/>
       <c r="AL8" s="64"/>
       <c r="AM8" s="64"/>
       <c r="AN8" s="64"/>
@@ -13436,54 +13436,54 @@
       <c r="A9" s="65">
         <v>2</v>
       </c>
-      <c r="B9" s="461" t="s">
+      <c r="B9" s="464" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="462"/>
-      <c r="D9" s="462"/>
-      <c r="E9" s="462"/>
-      <c r="F9" s="463"/>
-      <c r="G9" s="464" t="s">
+      <c r="C9" s="465"/>
+      <c r="D9" s="465"/>
+      <c r="E9" s="465"/>
+      <c r="F9" s="466"/>
+      <c r="G9" s="461" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="465"/>
-      <c r="I9" s="465"/>
-      <c r="J9" s="465"/>
-      <c r="K9" s="466"/>
-      <c r="L9" s="461" t="s">
+      <c r="H9" s="462"/>
+      <c r="I9" s="462"/>
+      <c r="J9" s="462"/>
+      <c r="K9" s="463"/>
+      <c r="L9" s="464" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="462"/>
-      <c r="N9" s="462"/>
-      <c r="O9" s="462"/>
-      <c r="P9" s="463"/>
+      <c r="M9" s="465"/>
+      <c r="N9" s="465"/>
+      <c r="O9" s="465"/>
+      <c r="P9" s="466"/>
       <c r="Q9" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="461" t="s">
+      <c r="R9" s="464" t="s">
         <v>79</v>
       </c>
-      <c r="S9" s="462"/>
-      <c r="T9" s="462"/>
-      <c r="U9" s="463"/>
-      <c r="V9" s="467">
+      <c r="S9" s="465"/>
+      <c r="T9" s="465"/>
+      <c r="U9" s="466"/>
+      <c r="V9" s="470">
         <v>1</v>
       </c>
-      <c r="W9" s="468"/>
-      <c r="X9" s="483"/>
-      <c r="Y9" s="484"/>
-      <c r="Z9" s="461"/>
-      <c r="AA9" s="462"/>
-      <c r="AB9" s="463"/>
-      <c r="AC9" s="461"/>
-      <c r="AD9" s="462"/>
-      <c r="AE9" s="462"/>
-      <c r="AF9" s="462"/>
-      <c r="AG9" s="462"/>
-      <c r="AH9" s="462"/>
-      <c r="AI9" s="462"/>
-      <c r="AJ9" s="462"/>
-      <c r="AK9" s="463"/>
+      <c r="W9" s="471"/>
+      <c r="X9" s="475"/>
+      <c r="Y9" s="476"/>
+      <c r="Z9" s="464"/>
+      <c r="AA9" s="465"/>
+      <c r="AB9" s="466"/>
+      <c r="AC9" s="464"/>
+      <c r="AD9" s="465"/>
+      <c r="AE9" s="465"/>
+      <c r="AF9" s="465"/>
+      <c r="AG9" s="465"/>
+      <c r="AH9" s="465"/>
+      <c r="AI9" s="465"/>
+      <c r="AJ9" s="465"/>
+      <c r="AK9" s="466"/>
       <c r="AL9" s="64"/>
       <c r="AM9" s="64"/>
       <c r="AN9" s="64"/>
@@ -13542,54 +13542,54 @@
       <c r="A10" s="65">
         <v>3</v>
       </c>
-      <c r="B10" s="461" t="s">
+      <c r="B10" s="464" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="462"/>
-      <c r="D10" s="462"/>
-      <c r="E10" s="462"/>
-      <c r="F10" s="463"/>
-      <c r="G10" s="464" t="s">
+      <c r="C10" s="465"/>
+      <c r="D10" s="465"/>
+      <c r="E10" s="465"/>
+      <c r="F10" s="466"/>
+      <c r="G10" s="461" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="465"/>
-      <c r="I10" s="465"/>
-      <c r="J10" s="465"/>
-      <c r="K10" s="466"/>
-      <c r="L10" s="461" t="s">
+      <c r="H10" s="462"/>
+      <c r="I10" s="462"/>
+      <c r="J10" s="462"/>
+      <c r="K10" s="463"/>
+      <c r="L10" s="464" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="462"/>
-      <c r="N10" s="462"/>
-      <c r="O10" s="462"/>
-      <c r="P10" s="463"/>
+      <c r="M10" s="465"/>
+      <c r="N10" s="465"/>
+      <c r="O10" s="465"/>
+      <c r="P10" s="466"/>
       <c r="Q10" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="R10" s="461" t="s">
+      <c r="R10" s="464" t="s">
         <v>82</v>
       </c>
-      <c r="S10" s="462"/>
-      <c r="T10" s="462"/>
-      <c r="U10" s="463"/>
-      <c r="V10" s="467">
+      <c r="S10" s="465"/>
+      <c r="T10" s="465"/>
+      <c r="U10" s="466"/>
+      <c r="V10" s="470">
         <v>1</v>
       </c>
-      <c r="W10" s="468"/>
-      <c r="X10" s="477"/>
-      <c r="Y10" s="479"/>
-      <c r="Z10" s="461"/>
-      <c r="AA10" s="462"/>
-      <c r="AB10" s="463"/>
-      <c r="AC10" s="461"/>
-      <c r="AD10" s="462"/>
-      <c r="AE10" s="462"/>
-      <c r="AF10" s="462"/>
-      <c r="AG10" s="462"/>
-      <c r="AH10" s="462"/>
-      <c r="AI10" s="462"/>
-      <c r="AJ10" s="462"/>
-      <c r="AK10" s="463"/>
+      <c r="W10" s="471"/>
+      <c r="X10" s="467"/>
+      <c r="Y10" s="469"/>
+      <c r="Z10" s="464"/>
+      <c r="AA10" s="465"/>
+      <c r="AB10" s="466"/>
+      <c r="AC10" s="464"/>
+      <c r="AD10" s="465"/>
+      <c r="AE10" s="465"/>
+      <c r="AF10" s="465"/>
+      <c r="AG10" s="465"/>
+      <c r="AH10" s="465"/>
+      <c r="AI10" s="465"/>
+      <c r="AJ10" s="465"/>
+      <c r="AK10" s="466"/>
       <c r="AL10" s="64"/>
       <c r="AM10" s="64"/>
       <c r="AN10" s="64"/>
@@ -13648,40 +13648,40 @@
       <c r="A11" s="65">
         <v>4</v>
       </c>
-      <c r="B11" s="461" t="s">
+      <c r="B11" s="464" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="462"/>
-      <c r="D11" s="462"/>
-      <c r="E11" s="462"/>
-      <c r="F11" s="463"/>
-      <c r="G11" s="464" t="s">
+      <c r="C11" s="465"/>
+      <c r="D11" s="465"/>
+      <c r="E11" s="465"/>
+      <c r="F11" s="466"/>
+      <c r="G11" s="461" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="465"/>
-      <c r="I11" s="465"/>
-      <c r="J11" s="465"/>
-      <c r="K11" s="466"/>
-      <c r="L11" s="461" t="s">
+      <c r="H11" s="462"/>
+      <c r="I11" s="462"/>
+      <c r="J11" s="462"/>
+      <c r="K11" s="463"/>
+      <c r="L11" s="464" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="462"/>
-      <c r="N11" s="462"/>
-      <c r="O11" s="462"/>
-      <c r="P11" s="463"/>
+      <c r="M11" s="465"/>
+      <c r="N11" s="465"/>
+      <c r="O11" s="465"/>
+      <c r="P11" s="466"/>
       <c r="Q11" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="R11" s="461" t="s">
+      <c r="R11" s="464" t="s">
         <v>79</v>
       </c>
-      <c r="S11" s="462"/>
-      <c r="T11" s="462"/>
-      <c r="U11" s="463"/>
-      <c r="V11" s="467">
+      <c r="S11" s="465"/>
+      <c r="T11" s="465"/>
+      <c r="U11" s="466"/>
+      <c r="V11" s="470">
         <v>1</v>
       </c>
-      <c r="W11" s="468"/>
+      <c r="W11" s="471"/>
       <c r="X11" s="67"/>
       <c r="Y11" s="68"/>
       <c r="Z11" s="69"/>
@@ -13752,28 +13752,28 @@
     </row>
     <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="65"/>
-      <c r="B12" s="461"/>
-      <c r="C12" s="462"/>
-      <c r="D12" s="462"/>
-      <c r="E12" s="462"/>
-      <c r="F12" s="463"/>
-      <c r="G12" s="477"/>
-      <c r="H12" s="478"/>
-      <c r="I12" s="478"/>
-      <c r="J12" s="478"/>
-      <c r="K12" s="479"/>
-      <c r="L12" s="477"/>
-      <c r="M12" s="478"/>
-      <c r="N12" s="478"/>
-      <c r="O12" s="478"/>
-      <c r="P12" s="479"/>
+      <c r="B12" s="464"/>
+      <c r="C12" s="465"/>
+      <c r="D12" s="465"/>
+      <c r="E12" s="465"/>
+      <c r="F12" s="466"/>
+      <c r="G12" s="467"/>
+      <c r="H12" s="468"/>
+      <c r="I12" s="468"/>
+      <c r="J12" s="468"/>
+      <c r="K12" s="469"/>
+      <c r="L12" s="467"/>
+      <c r="M12" s="468"/>
+      <c r="N12" s="468"/>
+      <c r="O12" s="468"/>
+      <c r="P12" s="469"/>
       <c r="Q12" s="66"/>
-      <c r="R12" s="461"/>
-      <c r="S12" s="462"/>
-      <c r="T12" s="462"/>
-      <c r="U12" s="463"/>
-      <c r="V12" s="467"/>
-      <c r="W12" s="468"/>
+      <c r="R12" s="464"/>
+      <c r="S12" s="465"/>
+      <c r="T12" s="465"/>
+      <c r="U12" s="466"/>
+      <c r="V12" s="470"/>
+      <c r="W12" s="471"/>
       <c r="X12" s="67"/>
       <c r="Y12" s="68"/>
       <c r="Z12" s="69"/>
@@ -13945,47 +13945,47 @@
       <c r="CR14" s="79"/>
     </row>
     <row r="15" spans="1:96" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="469" t="s">
+      <c r="A15" s="477" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="470"/>
-      <c r="C15" s="470"/>
-      <c r="D15" s="470"/>
-      <c r="E15" s="470"/>
-      <c r="F15" s="470"/>
-      <c r="G15" s="470"/>
-      <c r="H15" s="470"/>
-      <c r="I15" s="470"/>
-      <c r="J15" s="470"/>
-      <c r="K15" s="470"/>
-      <c r="L15" s="470"/>
-      <c r="M15" s="470"/>
-      <c r="N15" s="470"/>
-      <c r="O15" s="470"/>
-      <c r="P15" s="470"/>
-      <c r="Q15" s="470"/>
-      <c r="R15" s="470"/>
-      <c r="S15" s="470"/>
-      <c r="T15" s="470"/>
-      <c r="U15" s="470"/>
-      <c r="V15" s="470"/>
-      <c r="W15" s="470"/>
-      <c r="X15" s="470"/>
-      <c r="Y15" s="471" t="s">
+      <c r="B15" s="478"/>
+      <c r="C15" s="478"/>
+      <c r="D15" s="478"/>
+      <c r="E15" s="478"/>
+      <c r="F15" s="478"/>
+      <c r="G15" s="478"/>
+      <c r="H15" s="478"/>
+      <c r="I15" s="478"/>
+      <c r="J15" s="478"/>
+      <c r="K15" s="478"/>
+      <c r="L15" s="478"/>
+      <c r="M15" s="478"/>
+      <c r="N15" s="478"/>
+      <c r="O15" s="478"/>
+      <c r="P15" s="478"/>
+      <c r="Q15" s="478"/>
+      <c r="R15" s="478"/>
+      <c r="S15" s="478"/>
+      <c r="T15" s="478"/>
+      <c r="U15" s="478"/>
+      <c r="V15" s="478"/>
+      <c r="W15" s="478"/>
+      <c r="X15" s="478"/>
+      <c r="Y15" s="479" t="s">
         <v>128</v>
       </c>
-      <c r="Z15" s="472"/>
-      <c r="AA15" s="472"/>
-      <c r="AB15" s="472"/>
-      <c r="AC15" s="472"/>
-      <c r="AD15" s="472"/>
-      <c r="AE15" s="472"/>
-      <c r="AF15" s="472"/>
-      <c r="AG15" s="472"/>
-      <c r="AH15" s="472"/>
-      <c r="AI15" s="472"/>
-      <c r="AJ15" s="472"/>
-      <c r="AK15" s="473"/>
+      <c r="Z15" s="480"/>
+      <c r="AA15" s="480"/>
+      <c r="AB15" s="480"/>
+      <c r="AC15" s="480"/>
+      <c r="AD15" s="480"/>
+      <c r="AE15" s="480"/>
+      <c r="AF15" s="480"/>
+      <c r="AG15" s="480"/>
+      <c r="AH15" s="480"/>
+      <c r="AI15" s="480"/>
+      <c r="AJ15" s="480"/>
+      <c r="AK15" s="481"/>
     </row>
     <row r="16" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="86"/>
@@ -14632,46 +14632,11 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
     <mergeCell ref="A15:X15"/>
     <mergeCell ref="Y15:AK15"/>
     <mergeCell ref="R7:U7"/>
@@ -14688,11 +14653,46 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="AC7:AK7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
